--- a/Agg/data/data.xlsx
+++ b/Agg/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Doktor\Dissertation\Paper 1\Code\col\columngeneration\Agg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AB50CC8-FFD3-40F0-B249-FDDF53FCFD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E11766-7313-4851-B65C-066487A209F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="2330" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="AE61" sqref="AE61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,10 +621,10 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="T2">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U2">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.15476000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y2">
-        <v>-0.37857000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z2">
-        <v>-0.11454</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA2">
         <v>896</v>
@@ -704,10 +704,10 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="T3">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U3">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y3">
-        <v>-0.50751999999999997</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z3">
-        <v>-0.23141999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA3">
         <v>896</v>
@@ -787,10 +787,10 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="T4">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U4">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.17749000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y4">
-        <v>-0.39380999999999999</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z4">
-        <v>-0.19721</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA4">
         <v>896</v>
@@ -870,10 +870,10 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="T5">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U5">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -882,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y5">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z5">
-        <v>-0.21640999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA5">
         <v>896</v>
@@ -953,10 +953,10 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="T6">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U6">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y6">
-        <v>-0.48413</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z6">
-        <v>-0.23107</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA6">
         <v>896</v>
@@ -1036,10 +1036,10 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="T7">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U7">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1048,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>9.6430000000000002E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y7">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z7">
-        <v>-0.14624000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA7">
         <v>896</v>
@@ -1119,10 +1119,10 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="T8">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U8">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1131,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y8">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z8">
-        <v>-0.18797</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA8">
         <v>896</v>
@@ -1202,10 +1202,10 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="T9">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U9">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.13203000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y9">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z9">
-        <v>-0.20119000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA9">
         <v>896</v>
@@ -1285,10 +1285,10 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="T10">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U10">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y10">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z10">
-        <v>-0.16642000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA10">
         <v>896</v>
@@ -1362,31 +1362,31 @@
         <v>896.87300000000005</v>
       </c>
       <c r="R11">
-        <v>904.49333000000001</v>
+        <v>903.05111111111114</v>
       </c>
       <c r="S11">
-        <v>9.0449300000000008</v>
+        <v>9.0305111111111103</v>
       </c>
       <c r="T11">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U11">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V11">
-        <v>8.4933300000000003</v>
+        <v>7.0511111111111084</v>
       </c>
       <c r="W11">
-        <v>8.4930000000000005E-2</v>
+        <v>7.0511111111111094E-2</v>
       </c>
       <c r="X11">
-        <v>0.15476000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y11">
-        <v>-0.37857000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z11">
-        <v>-0.11454</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA11">
         <v>896</v>
@@ -1445,31 +1445,31 @@
         <v>898.08900000000006</v>
       </c>
       <c r="R12">
-        <v>926.22973000000002</v>
+        <v>924.10277777777765</v>
       </c>
       <c r="S12">
-        <v>9.2622999999999998</v>
+        <v>9.241027777777779</v>
       </c>
       <c r="T12">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U12">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V12">
-        <v>30.22973</v>
+        <v>28.102777777777749</v>
       </c>
       <c r="W12">
-        <v>0.30230000000000001</v>
+        <v>0.28102777777777749</v>
       </c>
       <c r="X12">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y12">
-        <v>-0.50751999999999997</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z12">
-        <v>-0.23141999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA12">
         <v>896</v>
@@ -1528,31 +1528,31 @@
         <v>899.83500000000004</v>
       </c>
       <c r="R13">
-        <v>931.88599999999997</v>
+        <v>935.91444444444437</v>
       </c>
       <c r="S13">
-        <v>9.3188600000000008</v>
+        <v>9.3591444444444445</v>
       </c>
       <c r="T13">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U13">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V13">
-        <v>35.886000000000003</v>
+        <v>39.914444444444428</v>
       </c>
       <c r="W13">
-        <v>0.35886000000000001</v>
+        <v>0.3991444444444443</v>
       </c>
       <c r="X13">
-        <v>0.17749000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y13">
-        <v>-0.39380999999999999</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z13">
-        <v>-0.19721</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA13">
         <v>896</v>
@@ -1611,31 +1611,31 @@
         <v>901.04</v>
       </c>
       <c r="R14">
-        <v>945.57914000000005</v>
+        <v>939.73222222222228</v>
       </c>
       <c r="S14">
-        <v>9.4557900000000004</v>
+        <v>9.3973222222222219</v>
       </c>
       <c r="T14">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U14">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V14">
-        <v>49.579140000000002</v>
+        <v>43.732222222222198</v>
       </c>
       <c r="W14">
-        <v>0.49579000000000001</v>
+        <v>0.437322222222222</v>
       </c>
       <c r="X14">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y14">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z14">
-        <v>-0.21640999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA14">
         <v>896</v>
@@ -1694,31 +1694,31 @@
         <v>902.43499999999995</v>
       </c>
       <c r="R15">
-        <v>946.78566999999998</v>
+        <v>941.64777777777772</v>
       </c>
       <c r="S15">
-        <v>9.4678599999999999</v>
+        <v>9.4164777777777786</v>
       </c>
       <c r="T15">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U15">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V15">
-        <v>50.785670000000003</v>
+        <v>45.647777777777797</v>
       </c>
       <c r="W15">
-        <v>0.50785999999999998</v>
+        <v>0.45647777777777798</v>
       </c>
       <c r="X15">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y15">
-        <v>-0.48413</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z15">
-        <v>-0.23107</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA15">
         <v>896</v>
@@ -1777,31 +1777,31 @@
         <v>904.07</v>
       </c>
       <c r="R16">
-        <v>944.74666999999999</v>
+        <v>946.3127777777778</v>
       </c>
       <c r="S16">
-        <v>9.4474699999999991</v>
+        <v>9.4631277777777782</v>
       </c>
       <c r="T16">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U16">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V16">
-        <v>48.746670000000002</v>
+        <v>50.312777777777818</v>
       </c>
       <c r="W16">
-        <v>0.48747000000000001</v>
+        <v>0.50312777777777817</v>
       </c>
       <c r="X16">
-        <v>9.6430000000000002E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y16">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z16">
-        <v>-0.14624000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA16">
         <v>896</v>
@@ -1860,31 +1860,31 @@
         <v>907.197</v>
       </c>
       <c r="R17">
-        <v>958.06727000000001</v>
+        <v>950.9433333333335</v>
       </c>
       <c r="S17">
-        <v>9.5806699999999996</v>
+        <v>9.5094333333333338</v>
       </c>
       <c r="T17">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U17">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V17">
-        <v>62.067270000000001</v>
+        <v>54.94333333333342</v>
       </c>
       <c r="W17">
-        <v>0.62067000000000005</v>
+        <v>0.54943333333333433</v>
       </c>
       <c r="X17">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y17">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z17">
-        <v>-0.18797</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA17">
         <v>896</v>
@@ -1943,31 +1943,31 @@
         <v>909.46299999999997</v>
       </c>
       <c r="R18">
-        <v>953.97118999999998</v>
+        <v>952.69111111111124</v>
       </c>
       <c r="S18">
-        <v>9.5397099999999995</v>
+        <v>9.5269111111111116</v>
       </c>
       <c r="T18">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U18">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V18">
-        <v>57.97119</v>
+        <v>56.691111111111141</v>
       </c>
       <c r="W18">
-        <v>0.57970999999999995</v>
+        <v>0.56691111111111137</v>
       </c>
       <c r="X18">
-        <v>0.13203000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y18">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z18">
-        <v>-0.20119000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA18">
         <v>896</v>
@@ -2026,31 +2026,31 @@
         <v>910.995</v>
       </c>
       <c r="R19">
-        <v>953.94</v>
+        <v>954.24166666666656</v>
       </c>
       <c r="S19">
-        <v>9.5394000000000005</v>
+        <v>9.5424166666666661</v>
       </c>
       <c r="T19">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U19">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V19">
-        <v>57.94</v>
+        <v>58.241666666666667</v>
       </c>
       <c r="W19">
-        <v>0.57940000000000003</v>
+        <v>0.58241666666666669</v>
       </c>
       <c r="X19">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y19">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z19">
-        <v>-0.16642000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA19">
         <v>896</v>
@@ -2109,31 +2109,31 @@
         <v>897.73199999999997</v>
       </c>
       <c r="R20">
-        <v>912.98667</v>
+        <v>910.10222222222228</v>
       </c>
       <c r="S20">
-        <v>9.1298700000000004</v>
+        <v>9.1010222222222215</v>
       </c>
       <c r="T20">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U20">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V20">
-        <v>16.98667</v>
+        <v>14.10222222222222</v>
       </c>
       <c r="W20">
-        <v>0.16986999999999999</v>
+        <v>0.14102222222222219</v>
       </c>
       <c r="X20">
-        <v>0.15476000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y20">
-        <v>-0.37857000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z20">
-        <v>-0.11454</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA20">
         <v>896</v>
@@ -2192,31 +2192,31 @@
         <v>900.13800000000003</v>
       </c>
       <c r="R21">
-        <v>956.45944999999995</v>
+        <v>952.20555555555541</v>
       </c>
       <c r="S21">
-        <v>9.5645900000000008</v>
+        <v>9.5220555555555553</v>
       </c>
       <c r="T21">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U21">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V21">
-        <v>60.459449999999997</v>
+        <v>56.205555555555499</v>
       </c>
       <c r="W21">
-        <v>0.60458999999999996</v>
+        <v>0.56205555555555498</v>
       </c>
       <c r="X21">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y21">
-        <v>-0.50751999999999997</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z21">
-        <v>-0.23141999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA21">
         <v>896</v>
@@ -2275,31 +2275,31 @@
         <v>903.61500000000001</v>
       </c>
       <c r="R22">
-        <v>967.77200000000005</v>
+        <v>975.82888888888874</v>
       </c>
       <c r="S22">
-        <v>9.6777200000000008</v>
+        <v>9.7582888888888881</v>
       </c>
       <c r="T22">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U22">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V22">
-        <v>71.772000000000006</v>
+        <v>79.828888888888869</v>
       </c>
       <c r="W22">
-        <v>0.71772000000000002</v>
+        <v>0.7982888888888886</v>
       </c>
       <c r="X22">
-        <v>0.17749000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y22">
-        <v>-0.39380999999999999</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z22">
-        <v>-0.19721</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA22">
         <v>896</v>
@@ -2358,31 +2358,31 @@
         <v>906.07799999999997</v>
       </c>
       <c r="R23">
-        <v>995.15828999999997</v>
+        <v>983.46444444444444</v>
       </c>
       <c r="S23">
-        <v>9.9515799999999999</v>
+        <v>9.834644444444443</v>
       </c>
       <c r="T23">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U23">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V23">
-        <v>99.158289999999994</v>
+        <v>87.464444444444396</v>
       </c>
       <c r="W23">
-        <v>0.99158000000000002</v>
+        <v>0.874644444444444</v>
       </c>
       <c r="X23">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y23">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z23">
-        <v>-0.21640999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA23">
         <v>896</v>
@@ -2441,31 +2441,31 @@
         <v>908.798</v>
       </c>
       <c r="R24">
-        <v>997.57132999999999</v>
+        <v>987.29555555555555</v>
       </c>
       <c r="S24">
-        <v>9.9757099999999994</v>
+        <v>9.8729555555555564</v>
       </c>
       <c r="T24">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U24">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V24">
-        <v>101.57133</v>
+        <v>91.295555555555595</v>
       </c>
       <c r="W24">
-        <v>1.0157099999999999</v>
+        <v>0.91295555555555596</v>
       </c>
       <c r="X24">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y24">
-        <v>-0.48413</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z24">
-        <v>-0.23107</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA24">
         <v>896</v>
@@ -2524,31 +2524,31 @@
         <v>912.01900000000001</v>
       </c>
       <c r="R25">
-        <v>993.49333000000001</v>
+        <v>996.62555555555571</v>
       </c>
       <c r="S25">
-        <v>9.9349299999999996</v>
+        <v>9.9662555555555556</v>
       </c>
       <c r="T25">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U25">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V25">
-        <v>97.49333</v>
+        <v>100.62555555555559</v>
       </c>
       <c r="W25">
-        <v>0.97492999999999996</v>
+        <v>1.0062555555555559</v>
       </c>
       <c r="X25">
-        <v>9.6430000000000002E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y25">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z25">
-        <v>-0.14624000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA25">
         <v>896</v>
@@ -2607,31 +2607,31 @@
         <v>918.298</v>
       </c>
       <c r="R26">
-        <v>1020.13455</v>
+        <v>1005.886666666667</v>
       </c>
       <c r="S26">
-        <v>10.20135</v>
+        <v>10.05886666666667</v>
       </c>
       <c r="T26">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U26">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V26">
-        <v>124.13455</v>
+        <v>109.8866666666668</v>
       </c>
       <c r="W26">
-        <v>1.24135</v>
+        <v>1.0988666666666691</v>
       </c>
       <c r="X26">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y26">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z26">
-        <v>-0.18797</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA26">
         <v>896</v>
@@ -2690,31 +2690,31 @@
         <v>922.53300000000002</v>
       </c>
       <c r="R27">
-        <v>1011.94237</v>
+        <v>1009.382222222222</v>
       </c>
       <c r="S27">
-        <v>10.11942</v>
+        <v>10.09382222222222</v>
       </c>
       <c r="T27">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U27">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V27">
-        <v>115.94237</v>
+        <v>113.3822222222223</v>
       </c>
       <c r="W27">
-        <v>1.1594199999999999</v>
+        <v>1.133822222222223</v>
       </c>
       <c r="X27">
-        <v>0.13203000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y27">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z27">
-        <v>-0.20119000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA27">
         <v>896</v>
@@ -2773,31 +2773,31 @@
         <v>926.30100000000004</v>
       </c>
       <c r="R28">
-        <v>1011.88</v>
+        <v>1012.483333333333</v>
       </c>
       <c r="S28">
-        <v>10.1188</v>
+        <v>10.12483333333333</v>
       </c>
       <c r="T28">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U28">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V28">
-        <v>115.88</v>
+        <v>116.48333333333331</v>
       </c>
       <c r="W28">
-        <v>1.1588000000000001</v>
+        <v>1.1648333333333329</v>
       </c>
       <c r="X28">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y28">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z28">
-        <v>-0.16642000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA28">
         <v>896</v>
@@ -2856,31 +2856,31 @@
         <v>898.577</v>
       </c>
       <c r="R29">
-        <v>921.48</v>
+        <v>917.15333333333342</v>
       </c>
       <c r="S29">
-        <v>9.2148000000000003</v>
+        <v>9.1715333333333344</v>
       </c>
       <c r="T29">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U29">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V29">
-        <v>25.48</v>
+        <v>21.15333333333335</v>
       </c>
       <c r="W29">
-        <v>0.25480000000000003</v>
+        <v>0.21153333333333349</v>
       </c>
       <c r="X29">
-        <v>0.15476000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y29">
-        <v>-0.37857000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z29">
-        <v>-0.11454</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA29">
         <v>896</v>
@@ -2939,31 +2939,31 @@
         <v>902.14400000000001</v>
       </c>
       <c r="R30">
-        <v>986.68917999999996</v>
+        <v>980.30833333333328</v>
       </c>
       <c r="S30">
-        <v>9.8668899999999997</v>
+        <v>9.8030833333333316</v>
       </c>
       <c r="T30">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U30">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V30">
-        <v>90.689179999999993</v>
+        <v>84.30833333333328</v>
       </c>
       <c r="W30">
-        <v>0.90688999999999997</v>
+        <v>0.84308333333333285</v>
       </c>
       <c r="X30">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y30">
-        <v>-0.50751999999999997</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z30">
-        <v>-0.23141999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA30">
         <v>896</v>
@@ -3022,31 +3022,31 @@
         <v>907.34900000000005</v>
       </c>
       <c r="R31">
-        <v>1003.658</v>
+        <v>1015.743333333333</v>
       </c>
       <c r="S31">
-        <v>10.036580000000001</v>
+        <v>10.15743333333333</v>
       </c>
       <c r="T31">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U31">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V31">
-        <v>107.658</v>
+        <v>119.7433333333334</v>
       </c>
       <c r="W31">
-        <v>1.0765800000000001</v>
+        <v>1.197433333333334</v>
       </c>
       <c r="X31">
-        <v>0.17749000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y31">
-        <v>-0.39380999999999999</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z31">
-        <v>-0.19721</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA31">
         <v>896</v>
@@ -3105,31 +3105,31 @@
         <v>911.11300000000006</v>
       </c>
       <c r="R32">
-        <v>1044.7374299999999</v>
+        <v>1027.1966666666669</v>
       </c>
       <c r="S32">
-        <v>10.447369999999999</v>
+        <v>10.271966666666669</v>
       </c>
       <c r="T32">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U32">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V32">
-        <v>148.73742999999999</v>
+        <v>131.1966666666666</v>
       </c>
       <c r="W32">
-        <v>1.4873700000000001</v>
+        <v>1.3119666666666661</v>
       </c>
       <c r="X32">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y32">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z32">
-        <v>-0.21640999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA32">
         <v>896</v>
@@ -3188,31 +3188,31 @@
         <v>915.09100000000001</v>
       </c>
       <c r="R33">
-        <v>1048.357</v>
+        <v>1032.9433333333329</v>
       </c>
       <c r="S33">
-        <v>10.48357</v>
+        <v>10.329433333333331</v>
       </c>
       <c r="T33">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U33">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V33">
-        <v>152.357</v>
+        <v>136.9433333333333</v>
       </c>
       <c r="W33">
-        <v>1.5235700000000001</v>
+        <v>1.3694333333333331</v>
       </c>
       <c r="X33">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y33">
-        <v>-0.48413</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z33">
-        <v>-0.23107</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA33">
         <v>896</v>
@@ -3271,31 +3271,31 @@
         <v>919.85599999999999</v>
       </c>
       <c r="R34">
-        <v>1042.24</v>
+        <v>1046.938333333333</v>
       </c>
       <c r="S34">
-        <v>10.4224</v>
+        <v>10.469383333333329</v>
       </c>
       <c r="T34">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U34">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V34">
-        <v>146.24</v>
+        <v>150.93833333333319</v>
       </c>
       <c r="W34">
-        <v>1.4623999999999999</v>
+        <v>1.509383333333332</v>
       </c>
       <c r="X34">
-        <v>9.6430000000000002E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y34">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z34">
-        <v>-0.14624000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA34">
         <v>896</v>
@@ -3354,31 +3354,31 @@
         <v>929.274</v>
       </c>
       <c r="R35">
-        <v>1082.20182</v>
+        <v>1060.83</v>
       </c>
       <c r="S35">
-        <v>10.82202</v>
+        <v>10.6083</v>
       </c>
       <c r="T35">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U35">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V35">
-        <v>186.20182</v>
+        <v>164.82999999999981</v>
       </c>
       <c r="W35">
-        <v>1.86202</v>
+        <v>1.648299999999999</v>
       </c>
       <c r="X35">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y35">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z35">
-        <v>-0.18797</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA35">
         <v>896</v>
@@ -3437,31 +3437,31 @@
         <v>934.32</v>
       </c>
       <c r="R36">
-        <v>1069.91356</v>
+        <v>1066.073333333333</v>
       </c>
       <c r="S36">
-        <v>10.69914</v>
+        <v>10.660733333333329</v>
       </c>
       <c r="T36">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U36">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V36">
-        <v>173.91355999999999</v>
+        <v>170.07333333333321</v>
       </c>
       <c r="W36">
-        <v>1.7391399999999999</v>
+        <v>1.700733333333331</v>
       </c>
       <c r="X36">
-        <v>0.13203000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y36">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z36">
-        <v>-0.20119000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA36">
         <v>896</v>
@@ -3520,31 +3520,31 @@
         <v>939.29200000000003</v>
       </c>
       <c r="R37">
-        <v>1069.82</v>
+        <v>1070.7249999999999</v>
       </c>
       <c r="S37">
-        <v>10.6982</v>
+        <v>10.70725</v>
       </c>
       <c r="T37">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U37">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V37">
-        <v>173.82</v>
+        <v>174.72499999999971</v>
       </c>
       <c r="W37">
-        <v>1.7382</v>
+        <v>1.7472499999999971</v>
       </c>
       <c r="X37">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y37">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z37">
-        <v>-0.16642000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA37">
         <v>896</v>
@@ -3603,31 +3603,31 @@
         <v>899.40899999999999</v>
       </c>
       <c r="R38">
-        <v>929.97333000000003</v>
+        <v>924.20444444444445</v>
       </c>
       <c r="S38">
-        <v>9.2997300000000003</v>
+        <v>9.2420444444444438</v>
       </c>
       <c r="T38">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U38">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V38">
-        <v>33.973329999999997</v>
+        <v>28.20444444444443</v>
       </c>
       <c r="W38">
-        <v>0.33972999999999998</v>
+        <v>0.28204444444444438</v>
       </c>
       <c r="X38">
-        <v>0.15476000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y38">
-        <v>-0.37857000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z38">
-        <v>-0.11454</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA38">
         <v>896</v>
@@ -3686,31 +3686,31 @@
         <v>904.11</v>
       </c>
       <c r="R39">
-        <v>1016.9189</v>
+        <v>1008.411111111111</v>
       </c>
       <c r="S39">
-        <v>10.16919</v>
+        <v>10.08411111111111</v>
       </c>
       <c r="T39">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U39">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V39">
-        <v>120.91889999999999</v>
+        <v>112.411111111111</v>
       </c>
       <c r="W39">
-        <v>1.20919</v>
+        <v>1.12411111111111</v>
       </c>
       <c r="X39">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y39">
-        <v>-0.50751999999999997</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z39">
-        <v>-0.23141999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA39">
         <v>896</v>
@@ -3769,31 +3769,31 @@
         <v>911.03499999999997</v>
       </c>
       <c r="R40">
-        <v>1039.5440000000001</v>
+        <v>1055.6577777777779</v>
       </c>
       <c r="S40">
-        <v>10.395440000000001</v>
+        <v>10.556577777777781</v>
       </c>
       <c r="T40">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U40">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V40">
-        <v>143.54400000000001</v>
+        <v>159.65777777777771</v>
       </c>
       <c r="W40">
-        <v>1.43544</v>
+        <v>1.596577777777777</v>
       </c>
       <c r="X40">
-        <v>0.17749000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y40">
-        <v>-0.39380999999999999</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z40">
-        <v>-0.19721</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA40">
         <v>896</v>
@@ -3852,31 +3852,31 @@
         <v>916.14599999999996</v>
       </c>
       <c r="R41">
-        <v>1094.31657</v>
+        <v>1070.9288888888891</v>
       </c>
       <c r="S41">
-        <v>10.94317</v>
+        <v>10.70928888888889</v>
       </c>
       <c r="T41">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U41">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V41">
-        <v>198.31657000000001</v>
+        <v>174.92888888888879</v>
       </c>
       <c r="W41">
-        <v>1.9831700000000001</v>
+        <v>1.749288888888888</v>
       </c>
       <c r="X41">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y41">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z41">
-        <v>-0.21640999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA41">
         <v>896</v>
@@ -3935,31 +3935,31 @@
         <v>921.32500000000005</v>
       </c>
       <c r="R42">
-        <v>1099.14267</v>
+        <v>1078.5911111111111</v>
       </c>
       <c r="S42">
-        <v>10.991429999999999</v>
+        <v>10.78591111111111</v>
       </c>
       <c r="T42">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U42">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V42">
-        <v>203.14267000000001</v>
+        <v>182.59111111111119</v>
       </c>
       <c r="W42">
-        <v>2.0314299999999998</v>
+        <v>1.8259111111111119</v>
       </c>
       <c r="X42">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y42">
-        <v>-0.48413</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z42">
-        <v>-0.23107</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA42">
         <v>896</v>
@@ -4018,31 +4018,31 @@
         <v>927.6</v>
       </c>
       <c r="R43">
-        <v>1090.98667</v>
+        <v>1097.251111111111</v>
       </c>
       <c r="S43">
-        <v>10.90987</v>
+        <v>10.97251111111111</v>
       </c>
       <c r="T43">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U43">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V43">
-        <v>194.98667</v>
+        <v>201.2511111111113</v>
       </c>
       <c r="W43">
-        <v>1.94987</v>
+        <v>2.0125111111111131</v>
       </c>
       <c r="X43">
-        <v>9.6430000000000002E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y43">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z43">
-        <v>-0.14624000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA43">
         <v>896</v>
@@ -4101,31 +4101,31 @@
         <v>939.928</v>
       </c>
       <c r="R44">
-        <v>1144.26909</v>
+        <v>1115.773333333334</v>
       </c>
       <c r="S44">
-        <v>11.442690000000001</v>
+        <v>11.15773333333334</v>
       </c>
       <c r="T44">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U44">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V44">
-        <v>248.26909000000001</v>
+        <v>219.77333333333371</v>
       </c>
       <c r="W44">
-        <v>2.4826899999999998</v>
+        <v>2.1977333333333369</v>
       </c>
       <c r="X44">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y44">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z44">
-        <v>-0.18797</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA44">
         <v>896</v>
@@ -4184,31 +4184,31 @@
         <v>945.32799999999997</v>
       </c>
       <c r="R45">
-        <v>1127.8847499999999</v>
+        <v>1122.764444444445</v>
       </c>
       <c r="S45">
-        <v>11.27885</v>
+        <v>11.227644444444451</v>
       </c>
       <c r="T45">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U45">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V45">
-        <v>231.88475</v>
+        <v>226.76444444444459</v>
       </c>
       <c r="W45">
-        <v>2.3188499999999999</v>
+        <v>2.267644444444445</v>
       </c>
       <c r="X45">
-        <v>0.13203000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y45">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z45">
-        <v>-0.20119000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA45">
         <v>896</v>
@@ -4267,31 +4267,31 @@
         <v>951.00199999999995</v>
       </c>
       <c r="R46">
-        <v>1127.76</v>
+        <v>1128.9666666666669</v>
       </c>
       <c r="S46">
-        <v>11.2776</v>
+        <v>11.289666666666671</v>
       </c>
       <c r="T46">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U46">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V46">
-        <v>231.76</v>
+        <v>232.9666666666667</v>
       </c>
       <c r="W46">
-        <v>2.3176000000000001</v>
+        <v>2.3296666666666672</v>
       </c>
       <c r="X46">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y46">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z46">
-        <v>-0.16642000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA46">
         <v>896</v>
@@ -4350,31 +4350,31 @@
         <v>900.226</v>
       </c>
       <c r="R47">
-        <v>938.46667000000002</v>
+        <v>931.25555555555547</v>
       </c>
       <c r="S47">
-        <v>9.3846699999999998</v>
+        <v>9.312555555555555</v>
       </c>
       <c r="T47">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U47">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V47">
-        <v>42.466670000000001</v>
+        <v>35.255555555555517</v>
       </c>
       <c r="W47">
-        <v>0.42466999999999999</v>
+        <v>0.35255555555555529</v>
       </c>
       <c r="X47">
-        <v>0.15476000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y47">
-        <v>-0.37857000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z47">
-        <v>-0.11454</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA47">
         <v>896</v>
@@ -4433,31 +4433,31 @@
         <v>906.05399999999997</v>
       </c>
       <c r="R48">
-        <v>1047.1486299999999</v>
+        <v>1036.5138888888889</v>
       </c>
       <c r="S48">
-        <v>10.471489999999999</v>
+        <v>10.36513888888889</v>
       </c>
       <c r="T48">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U48">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V48">
-        <v>151.14863</v>
+        <v>140.5138888888888</v>
       </c>
       <c r="W48">
-        <v>1.51149</v>
+        <v>1.405138888888888</v>
       </c>
       <c r="X48">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y48">
-        <v>-0.50751999999999997</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z48">
-        <v>-0.23141999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA48">
         <v>896</v>
@@ -4516,31 +4516,31 @@
         <v>914.67200000000003</v>
       </c>
       <c r="R49">
-        <v>1075.43</v>
+        <v>1095.5722222222221</v>
       </c>
       <c r="S49">
-        <v>10.754300000000001</v>
+        <v>10.955722222222221</v>
       </c>
       <c r="T49">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U49">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V49">
-        <v>179.43</v>
+        <v>199.57222222222239</v>
       </c>
       <c r="W49">
-        <v>1.7943</v>
+        <v>1.995722222222224</v>
       </c>
       <c r="X49">
-        <v>0.17749000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y49">
-        <v>-0.39380999999999999</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z49">
-        <v>-0.19721</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA49">
         <v>896</v>
@@ -4599,31 +4599,31 @@
         <v>921.173</v>
       </c>
       <c r="R50">
-        <v>1143.89571</v>
+        <v>1114.661111111111</v>
       </c>
       <c r="S50">
-        <v>11.43896</v>
+        <v>11.14661111111111</v>
       </c>
       <c r="T50">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U50">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V50">
-        <v>247.89571000000001</v>
+        <v>218.6611111111109</v>
       </c>
       <c r="W50">
-        <v>2.4789599999999998</v>
+        <v>2.1866111111111088</v>
       </c>
       <c r="X50">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y50">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z50">
-        <v>-0.21640999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA50">
         <v>896</v>
@@ -4682,31 +4682,31 @@
         <v>927.47400000000005</v>
       </c>
       <c r="R51">
-        <v>1149.92833</v>
+        <v>1124.2388888888891</v>
       </c>
       <c r="S51">
-        <v>11.499280000000001</v>
+        <v>11.24238888888889</v>
       </c>
       <c r="T51">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U51">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V51">
-        <v>253.92832999999999</v>
+        <v>228.23888888888871</v>
       </c>
       <c r="W51">
-        <v>2.5392800000000002</v>
+        <v>2.282388888888887</v>
       </c>
       <c r="X51">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y51">
-        <v>-0.48413</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z51">
-        <v>-0.23107</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA51">
         <v>896</v>
@@ -4765,31 +4765,31 @@
         <v>935.02200000000005</v>
       </c>
       <c r="R52">
-        <v>1139.73333</v>
+        <v>1147.5638888888891</v>
       </c>
       <c r="S52">
-        <v>11.39733</v>
+        <v>11.47563888888889</v>
       </c>
       <c r="T52">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U52">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V52">
-        <v>243.73333</v>
+        <v>251.5638888888885</v>
       </c>
       <c r="W52">
-        <v>2.4373300000000002</v>
+        <v>2.5156388888888852</v>
       </c>
       <c r="X52">
-        <v>9.6430000000000002E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y52">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z52">
-        <v>-0.14624000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA52">
         <v>896</v>
@@ -4848,31 +4848,31 @@
         <v>948.66200000000003</v>
       </c>
       <c r="R53">
-        <v>1206.33636</v>
+        <v>1170.716666666666</v>
       </c>
       <c r="S53">
-        <v>12.063359999999999</v>
+        <v>11.707166666666661</v>
       </c>
       <c r="T53">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U53">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V53">
-        <v>310.33636000000001</v>
+        <v>274.71666666666641</v>
       </c>
       <c r="W53">
-        <v>3.1033599999999999</v>
+        <v>2.7471666666666632</v>
       </c>
       <c r="X53">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y53">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z53">
-        <v>-0.18797</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA53">
         <v>896</v>
@@ -4931,31 +4931,31 @@
         <v>955.12</v>
       </c>
       <c r="R54">
-        <v>1185.8559299999999</v>
+        <v>1179.455555555556</v>
       </c>
       <c r="S54">
-        <v>11.858560000000001</v>
+        <v>11.794555555555551</v>
       </c>
       <c r="T54">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U54">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V54">
-        <v>289.85593</v>
+        <v>283.45555555555552</v>
       </c>
       <c r="W54">
-        <v>2.8985599999999998</v>
+        <v>2.8345555555555548</v>
       </c>
       <c r="X54">
-        <v>0.13203000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y54">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z54">
-        <v>-0.20119000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA54">
         <v>896</v>
@@ -5014,31 +5014,31 @@
         <v>961.577</v>
       </c>
       <c r="R55">
-        <v>1185.7</v>
+        <v>1187.208333333333</v>
       </c>
       <c r="S55">
-        <v>11.856999999999999</v>
+        <v>11.872083333333331</v>
       </c>
       <c r="T55">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U55">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V55">
-        <v>289.7</v>
+        <v>291.20833333333297</v>
       </c>
       <c r="W55">
-        <v>2.8969999999999998</v>
+        <v>2.9120833333333298</v>
       </c>
       <c r="X55">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y55">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z55">
-        <v>-0.16642000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA55">
         <v>896</v>
@@ -5097,31 +5097,31 @@
         <v>901.02800000000002</v>
       </c>
       <c r="R56">
-        <v>946.96</v>
+        <v>938.30666666666673</v>
       </c>
       <c r="S56">
-        <v>9.4695999999999998</v>
+        <v>9.3830666666666662</v>
       </c>
       <c r="T56">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U56">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V56">
-        <v>50.96</v>
+        <v>42.306666666666693</v>
       </c>
       <c r="W56">
-        <v>0.50960000000000005</v>
+        <v>0.42306666666666692</v>
       </c>
       <c r="X56">
-        <v>0.15476000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y56">
-        <v>-0.37857000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z56">
-        <v>-0.11454</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA56">
         <v>896</v>
@@ -5180,31 +5180,31 @@
         <v>907.96799999999996</v>
       </c>
       <c r="R57">
-        <v>1077.3783599999999</v>
+        <v>1064.616666666667</v>
       </c>
       <c r="S57">
-        <v>10.77378</v>
+        <v>10.646166666666669</v>
       </c>
       <c r="T57">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U57">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V57">
-        <v>181.37835999999999</v>
+        <v>168.61666666666659</v>
       </c>
       <c r="W57">
-        <v>1.8137799999999999</v>
+        <v>1.6861666666666659</v>
       </c>
       <c r="X57">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y57">
-        <v>-0.50751999999999997</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z57">
-        <v>-0.23141999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA57">
         <v>896</v>
@@ -5263,31 +5263,31 @@
         <v>918.26300000000003</v>
       </c>
       <c r="R58">
-        <v>1111.316</v>
+        <v>1135.4866666666669</v>
       </c>
       <c r="S58">
-        <v>11.113160000000001</v>
+        <v>11.35486666666667</v>
       </c>
       <c r="T58">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U58">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V58">
-        <v>215.316</v>
+        <v>239.48666666666679</v>
       </c>
       <c r="W58">
-        <v>2.1531600000000002</v>
+        <v>2.394866666666668</v>
       </c>
       <c r="X58">
-        <v>0.17749000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y58">
-        <v>-0.39380999999999999</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z58">
-        <v>-0.19721</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA58">
         <v>896</v>
@@ -5346,31 +5346,31 @@
         <v>925.96400000000006</v>
       </c>
       <c r="R59">
-        <v>1193.47486</v>
+        <v>1158.393333333333</v>
       </c>
       <c r="S59">
-        <v>11.934749999999999</v>
+        <v>11.583933333333331</v>
       </c>
       <c r="T59">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U59">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V59">
-        <v>297.47485999999998</v>
+        <v>262.39333333333332</v>
       </c>
       <c r="W59">
-        <v>2.9747499999999998</v>
+        <v>2.623933333333333</v>
       </c>
       <c r="X59">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y59">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z59">
-        <v>-0.21640999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA59">
         <v>896</v>
@@ -5429,31 +5429,31 @@
         <v>933.25400000000002</v>
       </c>
       <c r="R60">
-        <v>1200.7139999999999</v>
+        <v>1169.886666666667</v>
       </c>
       <c r="S60">
-        <v>12.00714</v>
+        <v>11.698866666666669</v>
       </c>
       <c r="T60">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U60">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V60">
-        <v>304.714</v>
+        <v>273.8866666666666</v>
       </c>
       <c r="W60">
-        <v>3.0471400000000002</v>
+        <v>2.738866666666667</v>
       </c>
       <c r="X60">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y60">
-        <v>-0.48413</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z60">
-        <v>-0.23107</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA60">
         <v>896</v>
@@ -5512,31 +5512,31 @@
         <v>941.76300000000003</v>
       </c>
       <c r="R61">
-        <v>1188.48</v>
+        <v>1197.8766666666661</v>
       </c>
       <c r="S61">
-        <v>11.8848</v>
+        <v>11.978766666666671</v>
       </c>
       <c r="T61">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U61">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V61">
-        <v>292.48</v>
+        <v>301.87666666666638</v>
       </c>
       <c r="W61">
-        <v>2.9247999999999998</v>
+        <v>3.0187666666666648</v>
       </c>
       <c r="X61">
-        <v>9.6430000000000002E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y61">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z61">
-        <v>-0.14624000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA61">
         <v>896</v>
@@ -5595,31 +5595,31 @@
         <v>956.59799999999996</v>
       </c>
       <c r="R62">
-        <v>1268.40364</v>
+        <v>1225.6600000000001</v>
       </c>
       <c r="S62">
-        <v>12.68404</v>
+        <v>12.256600000000001</v>
       </c>
       <c r="T62">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U62">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V62">
-        <v>372.40364</v>
+        <v>329.65999999999968</v>
       </c>
       <c r="W62">
-        <v>3.72404</v>
+        <v>3.2965999999999971</v>
       </c>
       <c r="X62">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y62">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z62">
-        <v>-0.18797</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA62">
         <v>896</v>
@@ -5678,31 +5678,31 @@
         <v>963.58500000000004</v>
       </c>
       <c r="R63">
-        <v>1243.8271199999999</v>
+        <v>1236.1466666666661</v>
       </c>
       <c r="S63">
-        <v>12.438269999999999</v>
+        <v>12.36146666666666</v>
       </c>
       <c r="T63">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U63">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V63">
-        <v>347.82711999999998</v>
+        <v>340.14666666666631</v>
       </c>
       <c r="W63">
-        <v>3.4782700000000002</v>
+        <v>3.4014666666666629</v>
       </c>
       <c r="X63">
-        <v>0.13203000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y63">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z63">
-        <v>-0.20119000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA63">
         <v>896</v>
@@ -5761,31 +5761,31 @@
         <v>970.49599999999998</v>
       </c>
       <c r="R64">
-        <v>1243.6400000000001</v>
+        <v>1245.4499999999989</v>
       </c>
       <c r="S64">
-        <v>12.436400000000001</v>
+        <v>12.454499999999991</v>
       </c>
       <c r="T64">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U64">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V64">
-        <v>347.64</v>
+        <v>349.44999999999942</v>
       </c>
       <c r="W64">
-        <v>3.4763999999999999</v>
+        <v>3.4944999999999942</v>
       </c>
       <c r="X64">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y64">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z64">
-        <v>-0.16642000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA64">
         <v>896</v>
@@ -5844,31 +5844,31 @@
         <v>901.81600000000003</v>
       </c>
       <c r="R65">
-        <v>955.45333000000005</v>
+        <v>945.35777777777787</v>
       </c>
       <c r="S65">
-        <v>9.5545299999999997</v>
+        <v>9.4535777777777774</v>
       </c>
       <c r="T65">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U65">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V65">
-        <v>59.453330000000001</v>
+        <v>49.357777777777819</v>
       </c>
       <c r="W65">
-        <v>0.59453</v>
+        <v>0.49357777777777812</v>
       </c>
       <c r="X65">
-        <v>0.15476000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y65">
-        <v>-0.37857000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z65">
-        <v>-0.11454</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA65">
         <v>896</v>
@@ -5927,31 +5927,31 @@
         <v>909.84900000000005</v>
       </c>
       <c r="R66">
-        <v>1107.60808</v>
+        <v>1092.719444444444</v>
       </c>
       <c r="S66">
-        <v>11.076079999999999</v>
+        <v>10.927194444444449</v>
       </c>
       <c r="T66">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U66">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V66">
-        <v>211.60808</v>
+        <v>196.71944444444441</v>
       </c>
       <c r="W66">
-        <v>2.1160800000000002</v>
+        <v>1.967194444444444</v>
       </c>
       <c r="X66">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y66">
-        <v>-0.50751999999999997</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z66">
-        <v>-0.23141999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA66">
         <v>896</v>
@@ -6010,31 +6010,31 @@
         <v>921.779</v>
       </c>
       <c r="R67">
-        <v>1147.202</v>
+        <v>1175.401111111111</v>
       </c>
       <c r="S67">
-        <v>11.472020000000001</v>
+        <v>11.75401111111111</v>
       </c>
       <c r="T67">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U67">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V67">
-        <v>251.202</v>
+        <v>279.40111111111122</v>
       </c>
       <c r="W67">
-        <v>2.5120200000000001</v>
+        <v>2.794011111111113</v>
       </c>
       <c r="X67">
-        <v>0.17749000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y67">
-        <v>-0.39380999999999999</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z67">
-        <v>-0.19721</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA67">
         <v>896</v>
@@ -6093,31 +6093,31 @@
         <v>930.34699999999998</v>
       </c>
       <c r="R68">
-        <v>1243.0540000000001</v>
+        <v>1202.1255555555549</v>
       </c>
       <c r="S68">
-        <v>12.430540000000001</v>
+        <v>12.02125555555555</v>
       </c>
       <c r="T68">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U68">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V68">
-        <v>347.05399999999997</v>
+        <v>306.12555555555542</v>
       </c>
       <c r="W68">
-        <v>3.4705400000000002</v>
+        <v>3.0612555555555532</v>
       </c>
       <c r="X68">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y68">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z68">
-        <v>-0.21640999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA68">
         <v>896</v>
@@ -6176,31 +6176,31 @@
         <v>938.43700000000001</v>
       </c>
       <c r="R69">
-        <v>1251.4996699999999</v>
+        <v>1215.534444444444</v>
       </c>
       <c r="S69">
-        <v>12.515000000000001</v>
+        <v>12.15534444444444</v>
       </c>
       <c r="T69">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U69">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V69">
-        <v>355.49966999999998</v>
+        <v>319.53444444444409</v>
       </c>
       <c r="W69">
-        <v>3.5550000000000002</v>
+        <v>3.1953444444444421</v>
       </c>
       <c r="X69">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y69">
-        <v>-0.48413</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z69">
-        <v>-0.23107</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA69">
         <v>896</v>
@@ -6259,31 +6259,31 @@
         <v>947.45299999999997</v>
       </c>
       <c r="R70">
-        <v>1237.22667</v>
+        <v>1248.189444444444</v>
       </c>
       <c r="S70">
-        <v>12.37227</v>
+        <v>12.481894444444441</v>
       </c>
       <c r="T70">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U70">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V70">
-        <v>341.22667000000001</v>
+        <v>352.18944444444418</v>
       </c>
       <c r="W70">
-        <v>3.4122699999999999</v>
+        <v>3.5218944444444422</v>
       </c>
       <c r="X70">
-        <v>9.6430000000000002E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y70">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z70">
-        <v>-0.14624000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA70">
         <v>896</v>
@@ -6342,31 +6342,31 @@
         <v>964.49199999999996</v>
       </c>
       <c r="R71">
-        <v>1330.47091</v>
+        <v>1280.603333333333</v>
       </c>
       <c r="S71">
-        <v>13.30471</v>
+        <v>12.80603333333333</v>
       </c>
       <c r="T71">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U71">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V71">
-        <v>434.47091</v>
+        <v>384.60333333333313</v>
       </c>
       <c r="W71">
-        <v>4.3447100000000001</v>
+        <v>3.846033333333331</v>
       </c>
       <c r="X71">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y71">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z71">
-        <v>-0.18797</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA71">
         <v>896</v>
@@ -6425,31 +6425,31 @@
         <v>971.83199999999999</v>
       </c>
       <c r="R72">
-        <v>1301.7983099999999</v>
+        <v>1292.837777777778</v>
       </c>
       <c r="S72">
-        <v>13.01798</v>
+        <v>12.928377777777779</v>
       </c>
       <c r="T72">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U72">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V72">
-        <v>405.79831000000001</v>
+        <v>396.83777777777811</v>
       </c>
       <c r="W72">
-        <v>4.0579799999999997</v>
+        <v>3.9683777777777811</v>
       </c>
       <c r="X72">
-        <v>0.13203000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y72">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z72">
-        <v>-0.20119000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA72">
         <v>896</v>
@@ -6508,31 +6508,31 @@
         <v>978.30700000000002</v>
       </c>
       <c r="R73">
-        <v>1301.58</v>
+        <v>1303.6916666666671</v>
       </c>
       <c r="S73">
-        <v>13.0158</v>
+        <v>13.03691666666667</v>
       </c>
       <c r="T73">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U73">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V73">
-        <v>405.58</v>
+        <v>407.69166666666672</v>
       </c>
       <c r="W73">
-        <v>4.0557999999999996</v>
+        <v>4.0769166666666674</v>
       </c>
       <c r="X73">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y73">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z73">
-        <v>-0.16642000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA73">
         <v>896</v>
@@ -6591,31 +6591,31 @@
         <v>902.59</v>
       </c>
       <c r="R74">
-        <v>963.94667000000004</v>
+        <v>952.4088888888889</v>
       </c>
       <c r="S74">
-        <v>9.6394699999999993</v>
+        <v>9.5240888888888904</v>
       </c>
       <c r="T74">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U74">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V74">
-        <v>67.946669999999997</v>
+        <v>56.408888888888868</v>
       </c>
       <c r="W74">
-        <v>0.67947000000000002</v>
+        <v>0.56408888888888875</v>
       </c>
       <c r="X74">
-        <v>0.15476000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y74">
-        <v>-0.37857000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z74">
-        <v>-0.11454</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA74">
         <v>896</v>
@@ -6674,31 +6674,31 @@
         <v>911.697</v>
       </c>
       <c r="R75">
-        <v>1137.83781</v>
+        <v>1120.8222222222221</v>
       </c>
       <c r="S75">
-        <v>11.37838</v>
+        <v>11.20822222222222</v>
       </c>
       <c r="T75">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U75">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V75">
-        <v>241.83780999999999</v>
+        <v>224.822222222222</v>
       </c>
       <c r="W75">
-        <v>2.41838</v>
+        <v>2.2482222222222199</v>
       </c>
       <c r="X75">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y75">
-        <v>-0.50751999999999997</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z75">
-        <v>-0.23141999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA75">
         <v>896</v>
@@ -6757,31 +6757,31 @@
         <v>924.97299999999996</v>
       </c>
       <c r="R76">
-        <v>1183.088</v>
+        <v>1215.315555555555</v>
       </c>
       <c r="S76">
-        <v>11.830880000000001</v>
+        <v>12.15315555555555</v>
       </c>
       <c r="T76">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U76">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V76">
-        <v>287.08800000000002</v>
+        <v>319.31555555555548</v>
       </c>
       <c r="W76">
-        <v>2.8708800000000001</v>
+        <v>3.193155555555554</v>
       </c>
       <c r="X76">
-        <v>0.17749000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y76">
-        <v>-0.39380999999999999</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z76">
-        <v>-0.19721</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA76">
         <v>896</v>
@@ -6840,31 +6840,31 @@
         <v>934.33799999999997</v>
       </c>
       <c r="R77">
-        <v>1292.6331399999999</v>
+        <v>1245.857777777778</v>
       </c>
       <c r="S77">
-        <v>12.92633</v>
+        <v>12.45857777777778</v>
       </c>
       <c r="T77">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U77">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V77">
-        <v>396.63314000000003</v>
+        <v>349.85777777777759</v>
       </c>
       <c r="W77">
-        <v>3.9663300000000001</v>
+        <v>3.498577777777776</v>
       </c>
       <c r="X77">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y77">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z77">
-        <v>-0.21640999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA77">
         <v>896</v>
@@ -6923,31 +6923,31 @@
         <v>943.50599999999997</v>
       </c>
       <c r="R78">
-        <v>1302.2853299999999</v>
+        <v>1261.182222222222</v>
       </c>
       <c r="S78">
-        <v>13.02285</v>
+        <v>12.611822222222219</v>
       </c>
       <c r="T78">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U78">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V78">
-        <v>406.28532999999999</v>
+        <v>365.18222222222238</v>
       </c>
       <c r="W78">
-        <v>4.0628500000000001</v>
+        <v>3.6518222222222239</v>
       </c>
       <c r="X78">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y78">
-        <v>-0.48413</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z78">
-        <v>-0.23107</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA78">
         <v>896</v>
@@ -7006,31 +7006,31 @@
         <v>952.72299999999996</v>
       </c>
       <c r="R79">
-        <v>1285.97333</v>
+        <v>1298.5022222222231</v>
       </c>
       <c r="S79">
-        <v>12.859730000000001</v>
+        <v>12.985022222222231</v>
       </c>
       <c r="T79">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U79">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V79">
-        <v>389.97332999999998</v>
+        <v>402.5022222222226</v>
       </c>
       <c r="W79">
-        <v>3.8997299999999999</v>
+        <v>4.0250222222222254</v>
       </c>
       <c r="X79">
-        <v>9.6430000000000002E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y79">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z79">
-        <v>-0.14624000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA79">
         <v>896</v>
@@ -7089,31 +7089,31 @@
         <v>972.39499999999998</v>
       </c>
       <c r="R80">
-        <v>1392.53818</v>
+        <v>1335.546666666668</v>
       </c>
       <c r="S80">
-        <v>13.925380000000001</v>
+        <v>13.35546666666667</v>
       </c>
       <c r="T80">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U80">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V80">
-        <v>496.53818000000001</v>
+        <v>439.54666666666742</v>
       </c>
       <c r="W80">
-        <v>4.9653799999999997</v>
+        <v>4.3954666666666746</v>
       </c>
       <c r="X80">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y80">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z80">
-        <v>-0.18797</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA80">
         <v>896</v>
@@ -7172,31 +7172,31 @@
         <v>979.8</v>
       </c>
       <c r="R81">
-        <v>1359.7695000000001</v>
+        <v>1349.528888888889</v>
       </c>
       <c r="S81">
-        <v>13.59769</v>
+        <v>13.49528888888889</v>
       </c>
       <c r="T81">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U81">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V81">
-        <v>463.76949999999999</v>
+        <v>453.52888888888913</v>
       </c>
       <c r="W81">
-        <v>4.6376900000000001</v>
+        <v>4.5352888888888909</v>
       </c>
       <c r="X81">
-        <v>0.13203000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y81">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z81">
-        <v>-0.20119000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA81">
         <v>896</v>
@@ -7255,31 +7255,31 @@
         <v>985.52700000000004</v>
       </c>
       <c r="R82">
-        <v>1359.52</v>
+        <v>1361.9333333333329</v>
       </c>
       <c r="S82">
-        <v>13.5952</v>
+        <v>13.619333333333341</v>
       </c>
       <c r="T82">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U82">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V82">
-        <v>463.52</v>
+        <v>465.93333333333339</v>
       </c>
       <c r="W82">
-        <v>4.6352000000000002</v>
+        <v>4.6593333333333344</v>
       </c>
       <c r="X82">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y82">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z82">
-        <v>-0.16642000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA82">
         <v>896</v>
@@ -7338,31 +7338,31 @@
         <v>903.34900000000005</v>
       </c>
       <c r="R83">
-        <v>972.44</v>
+        <v>959.45999999999992</v>
       </c>
       <c r="S83">
-        <v>9.7243999999999993</v>
+        <v>9.5945999999999998</v>
       </c>
       <c r="T83">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U83">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V83">
-        <v>76.44</v>
+        <v>63.460000000000008</v>
       </c>
       <c r="W83">
-        <v>0.76439999999999997</v>
+        <v>0.63460000000000016</v>
       </c>
       <c r="X83">
-        <v>0.15476000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y83">
-        <v>-0.37857000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z83">
-        <v>-0.11454</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA83">
         <v>896</v>
@@ -7421,31 +7421,31 @@
         <v>913.51099999999997</v>
       </c>
       <c r="R84">
-        <v>1168.06753</v>
+        <v>1148.925</v>
       </c>
       <c r="S84">
-        <v>11.680680000000001</v>
+        <v>11.48925</v>
       </c>
       <c r="T84">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U84">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V84">
-        <v>272.06752999999998</v>
+        <v>252.92500000000021</v>
       </c>
       <c r="W84">
-        <v>2.7206800000000002</v>
+        <v>2.5292500000000029</v>
       </c>
       <c r="X84">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y84">
-        <v>-0.50751999999999997</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z84">
-        <v>-0.23141999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA84">
         <v>896</v>
@@ -7504,31 +7504,31 @@
         <v>928.12900000000002</v>
       </c>
       <c r="R85">
-        <v>1218.9739999999999</v>
+        <v>1255.23</v>
       </c>
       <c r="S85">
-        <v>12.18974</v>
+        <v>12.552300000000001</v>
       </c>
       <c r="T85">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U85">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V85">
-        <v>322.97399999999999</v>
+        <v>359.22999999999979</v>
       </c>
       <c r="W85">
-        <v>3.2297400000000001</v>
+        <v>3.5922999999999981</v>
       </c>
       <c r="X85">
-        <v>0.17749000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y85">
-        <v>-0.39380999999999999</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z85">
-        <v>-0.19721</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA85">
         <v>896</v>
@@ -7587,31 +7587,31 @@
         <v>938.01900000000001</v>
       </c>
       <c r="R86">
-        <v>1342.2122899999999</v>
+        <v>1289.5899999999999</v>
       </c>
       <c r="S86">
-        <v>13.42212</v>
+        <v>12.895899999999999</v>
       </c>
       <c r="T86">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U86">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V86">
-        <v>446.21229</v>
+        <v>393.5900000000002</v>
       </c>
       <c r="W86">
-        <v>4.4621199999999996</v>
+        <v>3.935900000000002</v>
       </c>
       <c r="X86">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y86">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z86">
-        <v>-0.21640999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA86">
         <v>896</v>
@@ -7670,31 +7670,31 @@
         <v>948.19500000000005</v>
       </c>
       <c r="R87">
-        <v>1353.0709999999999</v>
+        <v>1306.83</v>
       </c>
       <c r="S87">
-        <v>13.530709999999999</v>
+        <v>13.068300000000001</v>
       </c>
       <c r="T87">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U87">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V87">
-        <v>457.07100000000003</v>
+        <v>410.83000000000021</v>
       </c>
       <c r="W87">
-        <v>4.5707100000000001</v>
+        <v>4.1083000000000016</v>
       </c>
       <c r="X87">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y87">
-        <v>-0.48413</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z87">
-        <v>-0.23107</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA87">
         <v>896</v>
@@ -7753,31 +7753,31 @@
         <v>957.84799999999996</v>
       </c>
       <c r="R88">
-        <v>1334.72</v>
+        <v>1348.8150000000001</v>
       </c>
       <c r="S88">
-        <v>13.347200000000001</v>
+        <v>13.488149999999999</v>
       </c>
       <c r="T88">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U88">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V88">
-        <v>438.72</v>
+        <v>452.81500000000023</v>
       </c>
       <c r="W88">
-        <v>4.3872</v>
+        <v>4.528150000000001</v>
       </c>
       <c r="X88">
-        <v>9.6430000000000002E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y88">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z88">
-        <v>-0.14624000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA88">
         <v>896</v>
@@ -7836,31 +7836,31 @@
         <v>979.83799999999997</v>
       </c>
       <c r="R89">
-        <v>1454.60545</v>
+        <v>1390.49</v>
       </c>
       <c r="S89">
-        <v>14.546049999999999</v>
+        <v>13.9049</v>
       </c>
       <c r="T89">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U89">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V89">
-        <v>558.60545000000002</v>
+        <v>494.48999999999978</v>
       </c>
       <c r="W89">
-        <v>5.5860500000000002</v>
+        <v>4.9448999999999979</v>
       </c>
       <c r="X89">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y89">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z89">
-        <v>-0.18797</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA89">
         <v>896</v>
@@ -7919,31 +7919,31 @@
         <v>986.92499999999995</v>
       </c>
       <c r="R90">
-        <v>1417.7406800000001</v>
+        <v>1406.22</v>
       </c>
       <c r="S90">
-        <v>14.17741</v>
+        <v>14.062200000000001</v>
       </c>
       <c r="T90">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U90">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V90">
-        <v>521.74068</v>
+        <v>510.22</v>
       </c>
       <c r="W90">
-        <v>5.2174100000000001</v>
+        <v>5.1021999999999998</v>
       </c>
       <c r="X90">
-        <v>0.13203000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y90">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z90">
-        <v>-0.20119000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA90">
         <v>896</v>
@@ -8002,31 +8002,31 @@
         <v>992.74400000000003</v>
       </c>
       <c r="R91">
-        <v>1417.46</v>
+        <v>1420.174999999999</v>
       </c>
       <c r="S91">
-        <v>14.1746</v>
+        <v>14.201750000000001</v>
       </c>
       <c r="T91">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U91">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V91">
-        <v>521.46</v>
+        <v>524.17499999999961</v>
       </c>
       <c r="W91">
-        <v>5.2145999999999999</v>
+        <v>5.2417499999999952</v>
       </c>
       <c r="X91">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y91">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z91">
-        <v>-0.16642000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA91">
         <v>896</v>
@@ -8085,31 +8085,31 @@
         <v>904.09299999999996</v>
       </c>
       <c r="R92">
-        <v>980.93332999999996</v>
+        <v>966.51111111111095</v>
       </c>
       <c r="S92">
-        <v>9.8093299999999992</v>
+        <v>9.6651111111111092</v>
       </c>
       <c r="T92">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U92">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V92">
-        <v>84.933329999999998</v>
+        <v>70.511111111111049</v>
       </c>
       <c r="W92">
-        <v>0.84933000000000003</v>
+        <v>0.70511111111111058</v>
       </c>
       <c r="X92">
-        <v>0.15476000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y92">
-        <v>-0.37857000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z92">
-        <v>-0.11454</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA92">
         <v>896</v>
@@ -8168,31 +8168,31 @@
         <v>915.23299999999995</v>
       </c>
       <c r="R93">
-        <v>1198.2972600000001</v>
+        <v>1177.0277777777781</v>
       </c>
       <c r="S93">
-        <v>11.98297</v>
+        <v>11.77027777777778</v>
       </c>
       <c r="T93">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U93">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V93">
-        <v>302.29725999999999</v>
+        <v>281.0277777777776</v>
       </c>
       <c r="W93">
-        <v>3.0229699999999999</v>
+        <v>2.8102777777777761</v>
       </c>
       <c r="X93">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y93">
-        <v>-0.50751999999999997</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z93">
-        <v>-0.23141999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA93">
         <v>896</v>
@@ -8251,31 +8251,31 @@
         <v>931.11300000000006</v>
       </c>
       <c r="R94">
-        <v>1254.8599999999999</v>
+        <v>1295.1444444444451</v>
       </c>
       <c r="S94">
-        <v>12.5486</v>
+        <v>12.95144444444445</v>
       </c>
       <c r="T94">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U94">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V94">
-        <v>358.86</v>
+        <v>399.14444444444479</v>
       </c>
       <c r="W94">
-        <v>3.5886</v>
+        <v>3.9914444444444488</v>
       </c>
       <c r="X94">
-        <v>0.17749000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y94">
-        <v>-0.39380999999999999</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z94">
-        <v>-0.19721</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA94">
         <v>896</v>
@@ -8334,31 +8334,31 @@
         <v>941.29600000000005</v>
       </c>
       <c r="R95">
-        <v>1391.79143</v>
+        <v>1333.3222222222221</v>
       </c>
       <c r="S95">
-        <v>13.917909999999999</v>
+        <v>13.33322222222222</v>
       </c>
       <c r="T95">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U95">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V95">
-        <v>495.79142999999999</v>
+        <v>437.32222222222191</v>
       </c>
       <c r="W95">
-        <v>4.95791</v>
+        <v>4.3732222222222186</v>
       </c>
       <c r="X95">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y95">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z95">
-        <v>-0.21640999999999999</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA95">
         <v>896</v>
@@ -8417,31 +8417,31 @@
         <v>951.51700000000005</v>
       </c>
       <c r="R96">
-        <v>1403.8566699999999</v>
+        <v>1352.477777777777</v>
       </c>
       <c r="S96">
-        <v>14.03857</v>
+        <v>13.52477777777777</v>
       </c>
       <c r="T96">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U96">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V96">
-        <v>507.85667000000001</v>
+        <v>456.47777777777742</v>
       </c>
       <c r="W96">
-        <v>5.07857</v>
+        <v>4.564777777777774</v>
       </c>
       <c r="X96">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y96">
-        <v>-0.48413</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z96">
-        <v>-0.23107</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA96">
         <v>896</v>
@@ -8500,31 +8500,31 @@
         <v>961.96900000000005</v>
       </c>
       <c r="R97">
-        <v>1383.46667</v>
+        <v>1399.1277777777771</v>
       </c>
       <c r="S97">
-        <v>13.834669999999999</v>
+        <v>13.991277777777769</v>
       </c>
       <c r="T97">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U97">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V97">
-        <v>487.46667000000002</v>
+        <v>503.12777777777688</v>
       </c>
       <c r="W97">
-        <v>4.8746700000000001</v>
+        <v>5.0312777777777704</v>
       </c>
       <c r="X97">
-        <v>9.6430000000000002E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y97">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z97">
-        <v>-0.14624000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA97">
         <v>896</v>
@@ -8583,31 +8583,31 @@
         <v>986.61199999999997</v>
       </c>
       <c r="R98">
-        <v>1516.67273</v>
+        <v>1445.4333333333329</v>
       </c>
       <c r="S98">
-        <v>15.166729999999999</v>
+        <v>14.454333333333331</v>
       </c>
       <c r="T98">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U98">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V98">
-        <v>620.67273</v>
+        <v>549.43333333333271</v>
       </c>
       <c r="W98">
-        <v>6.2067300000000003</v>
+        <v>5.4943333333333264</v>
       </c>
       <c r="X98">
-        <v>3.6339999999999997E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y98">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z98">
-        <v>-0.18797</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA98">
         <v>896</v>
@@ -8666,31 +8666,31 @@
         <v>993.25099999999998</v>
       </c>
       <c r="R99">
-        <v>1475.7118700000001</v>
+        <v>1462.911111111111</v>
       </c>
       <c r="S99">
-        <v>14.75712</v>
+        <v>14.62911111111111</v>
       </c>
       <c r="T99">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U99">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V99">
-        <v>579.71186999999998</v>
+        <v>566.91111111111104</v>
       </c>
       <c r="W99">
-        <v>5.7971199999999996</v>
+        <v>5.6691111111111114</v>
       </c>
       <c r="X99">
-        <v>0.13203000000000001</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y99">
         <v>-0.42857000000000001</v>
       </c>
       <c r="Z99">
-        <v>-0.20119000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA99">
         <v>896</v>
@@ -8749,31 +8749,31 @@
         <v>999.88400000000001</v>
       </c>
       <c r="R100">
-        <v>1475.4</v>
+        <v>1478.4166666666661</v>
       </c>
       <c r="S100">
-        <v>14.754</v>
+        <v>14.78416666666666</v>
       </c>
       <c r="T100">
-        <v>725</v>
+        <v>702.22222222222217</v>
       </c>
       <c r="U100">
-        <v>7.25</v>
+        <v>7.0222222222222221</v>
       </c>
       <c r="V100">
-        <v>579.4</v>
+        <v>582.41666666666606</v>
       </c>
       <c r="W100">
-        <v>5.7939999999999996</v>
+        <v>5.8241666666666596</v>
       </c>
       <c r="X100">
-        <v>7.1429999999999993E-2</v>
+        <v>5.4039999999999998E-2</v>
       </c>
       <c r="Y100">
-        <v>-0.45489000000000002</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="Z100">
-        <v>-0.16642000000000001</v>
+        <v>-0.18817</v>
       </c>
       <c r="AA100">
         <v>896</v>

--- a/Agg/data/data.xlsx
+++ b/Agg/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Doktor\Dissertation\Paper 1\Code\col\columngeneration\Agg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E11766-7313-4851-B65C-066487A209F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360FDD72-2B99-44EB-80C8-318A2C109257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="2330" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="28">
   <si>
     <t>I</t>
   </si>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA100"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>896</v>
@@ -582,7 +582,7 @@
         <v>896</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>896</v>
@@ -603,13 +603,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.27143</v>
+        <v>8.2540000000000002E-2</v>
       </c>
       <c r="O2">
-        <v>-0.37857000000000002</v>
+        <v>-0.50751999999999997</v>
       </c>
       <c r="P2">
-        <v>-0.11416999999999999</v>
+        <v>-0.2253</v>
       </c>
       <c r="Q2">
         <v>896</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>896</v>
@@ -665,7 +665,7 @@
         <v>896</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>896</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.2540000000000002E-2</v>
+        <v>0.17749000000000001</v>
       </c>
       <c r="O3">
-        <v>-0.50751999999999997</v>
+        <v>-0.39380999999999999</v>
       </c>
       <c r="P3">
-        <v>-0.2253</v>
+        <v>-0.19721</v>
       </c>
       <c r="Q3">
         <v>896</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>896</v>
@@ -748,7 +748,7 @@
         <v>896</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>896</v>
@@ -769,13 +769,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.17749000000000001</v>
+        <v>3.6339999999999997E-2</v>
       </c>
       <c r="O4">
-        <v>-0.39380999999999999</v>
+        <v>-0.45489000000000002</v>
       </c>
       <c r="P4">
-        <v>-0.19721</v>
+        <v>-0.21556</v>
       </c>
       <c r="Q4">
         <v>896</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>896</v>
@@ -831,7 +831,7 @@
         <v>896</v>
       </c>
       <c r="G5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>896</v>
@@ -852,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.6339999999999997E-2</v>
+        <v>0.29752000000000001</v>
       </c>
       <c r="O5">
-        <v>-0.45489000000000002</v>
+        <v>-0.48413</v>
       </c>
       <c r="P5">
-        <v>-0.21556</v>
+        <v>-0.22495999999999999</v>
       </c>
       <c r="Q5">
         <v>896</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>896</v>
@@ -914,7 +914,7 @@
         <v>896</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>896</v>
@@ -935,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.29752000000000001</v>
+        <v>9.6430000000000002E-2</v>
       </c>
       <c r="O6">
-        <v>-0.48413</v>
+        <v>-0.42857000000000001</v>
       </c>
       <c r="P6">
-        <v>-0.22495999999999999</v>
+        <v>-0.14435000000000001</v>
       </c>
       <c r="Q6">
         <v>896</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>896</v>
@@ -997,7 +997,7 @@
         <v>896</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>896</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>9.6430000000000002E-2</v>
+        <v>3.6339999999999997E-2</v>
       </c>
       <c r="O7">
         <v>-0.42857000000000001</v>
       </c>
       <c r="P7">
-        <v>-0.14435000000000001</v>
+        <v>-0.18518000000000001</v>
       </c>
       <c r="Q7">
         <v>896</v>
@@ -1068,55 +1068,55 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>896</v>
+        <v>898.13</v>
       </c>
       <c r="F8">
-        <v>896</v>
+        <v>898.08942999999999</v>
       </c>
       <c r="G8">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="H8">
-        <v>896</v>
+        <v>898.13</v>
       </c>
       <c r="I8">
-        <v>8.9600000000000009</v>
+        <v>8.9812999999999992</v>
       </c>
       <c r="J8">
-        <v>725</v>
+        <v>421</v>
       </c>
       <c r="K8">
-        <v>7.25</v>
+        <v>4.21</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="N8">
-        <v>3.6339999999999997E-2</v>
+        <v>0.11310000000000001</v>
       </c>
       <c r="O8">
-        <v>-0.42857000000000001</v>
+        <v>-0.24675</v>
       </c>
       <c r="P8">
-        <v>-0.18518000000000001</v>
+        <v>-0.11049</v>
       </c>
       <c r="Q8">
-        <v>896</v>
+        <v>898.08900000000006</v>
       </c>
       <c r="R8">
-        <v>896</v>
+        <v>924.10277777777765</v>
       </c>
       <c r="S8">
-        <v>8.9600000000000009</v>
+        <v>9.241027777777779</v>
       </c>
       <c r="T8">
         <v>702.22222222222217</v>
@@ -1125,10 +1125,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>28.102777777777749</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.28102777777777749</v>
       </c>
       <c r="X8">
         <v>5.4039999999999998E-2</v>
@@ -1151,55 +1151,55 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>896</v>
+        <v>899.96</v>
       </c>
       <c r="F9">
-        <v>896</v>
+        <v>899.83577000000002</v>
       </c>
       <c r="G9">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="H9">
-        <v>896</v>
+        <v>899.96</v>
       </c>
       <c r="I9">
-        <v>8.9600000000000009</v>
+        <v>8.9995999999999992</v>
       </c>
       <c r="J9">
-        <v>725</v>
+        <v>400</v>
       </c>
       <c r="K9">
-        <v>7.25</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="N9">
-        <v>0.29752000000000001</v>
+        <v>0.17749000000000001</v>
       </c>
       <c r="O9">
-        <v>-0.42857000000000001</v>
+        <v>-0.18944</v>
       </c>
       <c r="P9">
-        <v>-0.21854999999999999</v>
+        <v>-5.2010000000000001E-2</v>
       </c>
       <c r="Q9">
-        <v>896</v>
+        <v>899.83500000000004</v>
       </c>
       <c r="R9">
-        <v>896</v>
+        <v>935.91444444444437</v>
       </c>
       <c r="S9">
-        <v>8.9600000000000009</v>
+        <v>9.3591444444444445</v>
       </c>
       <c r="T9">
         <v>702.22222222222217</v>
@@ -1208,10 +1208,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>39.914444444444428</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.3991444444444443</v>
       </c>
       <c r="X9">
         <v>5.4039999999999998E-2</v>
@@ -1234,55 +1234,55 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>896</v>
+        <v>901.18</v>
       </c>
       <c r="F10">
-        <v>896</v>
+        <v>901.03958999999998</v>
       </c>
       <c r="G10">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="H10">
-        <v>896</v>
+        <v>901.18</v>
       </c>
       <c r="I10">
-        <v>8.9600000000000009</v>
+        <v>9.0117999999999991</v>
       </c>
       <c r="J10">
-        <v>725</v>
+        <v>364</v>
       </c>
       <c r="K10">
-        <v>7.25</v>
+        <v>3.64</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.18</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.1799999999999999E-2</v>
       </c>
       <c r="N10">
-        <v>7.1429999999999993E-2</v>
+        <v>0.45604</v>
       </c>
       <c r="O10">
-        <v>-0.45489000000000002</v>
+        <v>-0.23291999999999999</v>
       </c>
       <c r="P10">
-        <v>-0.16642000000000001</v>
+        <v>4.1790000000000001E-2</v>
       </c>
       <c r="Q10">
-        <v>896</v>
+        <v>901.04</v>
       </c>
       <c r="R10">
-        <v>896</v>
+        <v>939.73222222222228</v>
       </c>
       <c r="S10">
-        <v>8.9600000000000009</v>
+        <v>9.3973222222222219</v>
       </c>
       <c r="T10">
         <v>702.22222222222217</v>
@@ -1291,10 +1291,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>43.732222222222198</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.437322222222222</v>
       </c>
       <c r="X10">
         <v>5.4039999999999998E-2</v>
@@ -1320,52 +1320,52 @@
         <v>0.01</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>896.9</v>
+        <v>902.55</v>
       </c>
       <c r="F11">
-        <v>896.87309000000005</v>
+        <v>902.43465000000003</v>
       </c>
       <c r="G11">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="H11">
-        <v>896.9</v>
+        <v>902.55</v>
       </c>
       <c r="I11">
-        <v>8.9689999999999994</v>
+        <v>9.0254999999999992</v>
       </c>
       <c r="J11">
-        <v>527</v>
+        <v>361</v>
       </c>
       <c r="K11">
-        <v>5.27</v>
+        <v>3.61</v>
       </c>
       <c r="L11">
-        <v>0.9</v>
+        <v>6.55</v>
       </c>
       <c r="M11">
-        <v>8.9999999999999993E-3</v>
+        <v>6.5500000000000003E-2</v>
       </c>
       <c r="N11">
-        <v>-3.4630000000000001E-2</v>
+        <v>0.29752000000000001</v>
       </c>
       <c r="O11">
-        <v>-0.30952000000000002</v>
+        <v>-0.24675</v>
       </c>
       <c r="P11">
-        <v>-0.19313</v>
+        <v>-4.0469999999999999E-2</v>
       </c>
       <c r="Q11">
-        <v>896.87300000000005</v>
+        <v>902.43499999999995</v>
       </c>
       <c r="R11">
-        <v>903.05111111111114</v>
+        <v>941.64777777777772</v>
       </c>
       <c r="S11">
-        <v>9.0305111111111103</v>
+        <v>9.4164777777777786</v>
       </c>
       <c r="T11">
         <v>702.22222222222217</v>
@@ -1374,10 +1374,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V11">
-        <v>7.0511111111111084</v>
+        <v>45.647777777777797</v>
       </c>
       <c r="W11">
-        <v>7.0511111111111094E-2</v>
+        <v>0.45647777777777798</v>
       </c>
       <c r="X11">
         <v>5.4039999999999998E-2</v>
@@ -1403,52 +1403,52 @@
         <v>0.01</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>898.13</v>
+        <v>904.28958999999998</v>
       </c>
       <c r="F12">
-        <v>898.08942999999999</v>
+        <v>904.07002</v>
       </c>
       <c r="G12">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="H12">
-        <v>898.13</v>
+        <v>904.28958999999998</v>
       </c>
       <c r="I12">
-        <v>8.9812999999999992</v>
+        <v>9.0428999999999995</v>
       </c>
       <c r="J12">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="K12">
-        <v>4.21</v>
+        <v>3.75</v>
       </c>
       <c r="L12">
-        <v>2.13</v>
+        <v>8.2895900000000005</v>
       </c>
       <c r="M12">
-        <v>2.1299999999999999E-2</v>
+        <v>8.2900000000000001E-2</v>
       </c>
       <c r="N12">
-        <v>0.11310000000000001</v>
+        <v>0.54098999999999997</v>
       </c>
       <c r="O12">
-        <v>-0.24675</v>
+        <v>-0.18944</v>
       </c>
       <c r="P12">
-        <v>-0.11049</v>
+        <v>-3.474E-2</v>
       </c>
       <c r="Q12">
-        <v>898.08900000000006</v>
+        <v>904.07</v>
       </c>
       <c r="R12">
-        <v>924.10277777777765</v>
+        <v>946.3127777777778</v>
       </c>
       <c r="S12">
-        <v>9.241027777777779</v>
+        <v>9.4631277777777782</v>
       </c>
       <c r="T12">
         <v>702.22222222222217</v>
@@ -1457,10 +1457,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V12">
-        <v>28.102777777777749</v>
+        <v>50.312777777777818</v>
       </c>
       <c r="W12">
-        <v>0.28102777777777749</v>
+        <v>0.50312777777777817</v>
       </c>
       <c r="X12">
         <v>5.4039999999999998E-2</v>
@@ -1486,52 +1486,52 @@
         <v>0.01</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>899.96</v>
+        <v>907.63</v>
       </c>
       <c r="F13">
-        <v>899.83577000000002</v>
+        <v>907.19696999999996</v>
       </c>
       <c r="G13">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="H13">
-        <v>899.96</v>
+        <v>907.63</v>
       </c>
       <c r="I13">
-        <v>8.9995999999999992</v>
+        <v>9.0762999999999998</v>
       </c>
       <c r="J13">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>3.68</v>
       </c>
       <c r="L13">
-        <v>3.96</v>
+        <v>11.63</v>
       </c>
       <c r="M13">
-        <v>3.9600000000000003E-2</v>
+        <v>0.1163</v>
       </c>
       <c r="N13">
-        <v>0.17749000000000001</v>
+        <v>0.44642999999999999</v>
       </c>
       <c r="O13">
-        <v>-0.18944</v>
+        <v>-0.29221000000000003</v>
       </c>
       <c r="P13">
-        <v>-5.2010000000000001E-2</v>
+        <v>-5.3659999999999999E-2</v>
       </c>
       <c r="Q13">
-        <v>899.83500000000004</v>
+        <v>907.197</v>
       </c>
       <c r="R13">
-        <v>935.91444444444437</v>
+        <v>950.9433333333335</v>
       </c>
       <c r="S13">
-        <v>9.3591444444444445</v>
+        <v>9.5094333333333338</v>
       </c>
       <c r="T13">
         <v>702.22222222222217</v>
@@ -1540,10 +1540,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V13">
-        <v>39.914444444444428</v>
+        <v>54.94333333333342</v>
       </c>
       <c r="W13">
-        <v>0.3991444444444443</v>
+        <v>0.54943333333333433</v>
       </c>
       <c r="X13">
         <v>5.4039999999999998E-2</v>
@@ -1566,55 +1566,55 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>901.18</v>
+        <v>900.26</v>
       </c>
       <c r="F14">
-        <v>901.03958999999998</v>
+        <v>900.13762999999994</v>
       </c>
       <c r="G14">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="H14">
-        <v>901.18</v>
+        <v>900.26</v>
       </c>
       <c r="I14">
-        <v>9.0117999999999991</v>
+        <v>9.0025999999999993</v>
       </c>
       <c r="J14">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="K14">
-        <v>3.64</v>
+        <v>4.17</v>
       </c>
       <c r="L14">
-        <v>5.18</v>
+        <v>4.26</v>
       </c>
       <c r="M14">
-        <v>5.1799999999999999E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="N14">
-        <v>0.45604</v>
+        <v>0.25403999999999999</v>
       </c>
       <c r="O14">
-        <v>-0.23291999999999999</v>
+        <v>-0.24675</v>
       </c>
       <c r="P14">
-        <v>4.1790000000000001E-2</v>
+        <v>-0.10922999999999999</v>
       </c>
       <c r="Q14">
-        <v>901.04</v>
+        <v>900.13800000000003</v>
       </c>
       <c r="R14">
-        <v>939.73222222222228</v>
+        <v>952.20555555555541</v>
       </c>
       <c r="S14">
-        <v>9.3973222222222219</v>
+        <v>9.5220555555555553</v>
       </c>
       <c r="T14">
         <v>702.22222222222217</v>
@@ -1623,10 +1623,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V14">
-        <v>43.732222222222198</v>
+        <v>56.205555555555499</v>
       </c>
       <c r="W14">
-        <v>0.437322222222222</v>
+        <v>0.56205555555555498</v>
       </c>
       <c r="X14">
         <v>5.4039999999999998E-2</v>
@@ -1649,55 +1649,55 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>902.55</v>
+        <v>903.8</v>
       </c>
       <c r="F15">
-        <v>902.43465000000003</v>
+        <v>903.6146</v>
       </c>
       <c r="G15">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H15">
-        <v>902.55</v>
+        <v>903.8</v>
       </c>
       <c r="I15">
-        <v>9.0254999999999992</v>
+        <v>9.0380000000000003</v>
       </c>
       <c r="J15">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="K15">
-        <v>3.61</v>
+        <v>3.87</v>
       </c>
       <c r="L15">
-        <v>6.55</v>
+        <v>21.8</v>
       </c>
       <c r="M15">
-        <v>6.5500000000000003E-2</v>
+        <v>0.218</v>
       </c>
       <c r="N15">
-        <v>0.29752000000000001</v>
+        <v>0.45604</v>
       </c>
       <c r="O15">
-        <v>-0.24675</v>
+        <v>-0.18944</v>
       </c>
       <c r="P15">
-        <v>-4.0469999999999999E-2</v>
+        <v>-4.9500000000000004E-3</v>
       </c>
       <c r="Q15">
-        <v>902.43499999999995</v>
+        <v>903.61500000000001</v>
       </c>
       <c r="R15">
-        <v>941.64777777777772</v>
+        <v>975.82888888888874</v>
       </c>
       <c r="S15">
-        <v>9.4164777777777786</v>
+        <v>9.7582888888888881</v>
       </c>
       <c r="T15">
         <v>702.22222222222217</v>
@@ -1706,10 +1706,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V15">
-        <v>45.647777777777797</v>
+        <v>79.828888888888869</v>
       </c>
       <c r="W15">
-        <v>0.45647777777777798</v>
+        <v>0.7982888888888886</v>
       </c>
       <c r="X15">
         <v>5.4039999999999998E-2</v>
@@ -1732,55 +1732,55 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>904.28958999999998</v>
+        <v>906.34</v>
       </c>
       <c r="F16">
-        <v>904.07002</v>
+        <v>906.07771000000002</v>
       </c>
       <c r="G16">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="H16">
-        <v>904.28958999999998</v>
+        <v>906.34</v>
       </c>
       <c r="I16">
-        <v>9.0428999999999995</v>
+        <v>9.0633999999999997</v>
       </c>
       <c r="J16">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K16">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L16">
-        <v>8.2895900000000005</v>
+        <v>12.34</v>
       </c>
       <c r="M16">
-        <v>8.2900000000000001E-2</v>
+        <v>0.1234</v>
       </c>
       <c r="N16">
-        <v>0.54098999999999997</v>
+        <v>0.45604</v>
       </c>
       <c r="O16">
         <v>-0.18944</v>
       </c>
       <c r="P16">
-        <v>-3.474E-2</v>
+        <v>-2.5729999999999999E-2</v>
       </c>
       <c r="Q16">
-        <v>904.07</v>
+        <v>906.07799999999997</v>
       </c>
       <c r="R16">
-        <v>946.3127777777778</v>
+        <v>983.46444444444444</v>
       </c>
       <c r="S16">
-        <v>9.4631277777777782</v>
+        <v>9.834644444444443</v>
       </c>
       <c r="T16">
         <v>702.22222222222217</v>
@@ -1789,10 +1789,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V16">
-        <v>50.312777777777818</v>
+        <v>87.464444444444396</v>
       </c>
       <c r="W16">
-        <v>0.50312777777777817</v>
+        <v>0.874644444444444</v>
       </c>
       <c r="X16">
         <v>5.4039999999999998E-2</v>
@@ -1815,55 +1815,55 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>907.63</v>
+        <v>909.12</v>
       </c>
       <c r="F17">
-        <v>907.19696999999996</v>
+        <v>908.79835000000003</v>
       </c>
       <c r="G17">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H17">
-        <v>907.63</v>
+        <v>909.12</v>
       </c>
       <c r="I17">
-        <v>9.0762999999999998</v>
+        <v>9.0912000000000006</v>
       </c>
       <c r="J17">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="K17">
-        <v>3.68</v>
+        <v>3.61</v>
       </c>
       <c r="L17">
-        <v>11.63</v>
+        <v>13.12</v>
       </c>
       <c r="M17">
-        <v>0.1163</v>
+        <v>0.13120000000000001</v>
       </c>
       <c r="N17">
-        <v>0.44642999999999999</v>
+        <v>0.45604</v>
       </c>
       <c r="O17">
         <v>-0.29221000000000003</v>
       </c>
       <c r="P17">
-        <v>-5.3659999999999999E-2</v>
+        <v>-1.8149999999999999E-2</v>
       </c>
       <c r="Q17">
-        <v>907.197</v>
+        <v>908.798</v>
       </c>
       <c r="R17">
-        <v>950.9433333333335</v>
+        <v>987.29555555555555</v>
       </c>
       <c r="S17">
-        <v>9.5094333333333338</v>
+        <v>9.8729555555555564</v>
       </c>
       <c r="T17">
         <v>702.22222222222217</v>
@@ -1872,10 +1872,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V17">
-        <v>54.94333333333342</v>
+        <v>91.295555555555595</v>
       </c>
       <c r="W17">
-        <v>0.54943333333333433</v>
+        <v>0.91295555555555596</v>
       </c>
       <c r="X17">
         <v>5.4039999999999998E-2</v>
@@ -1898,55 +1898,55 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>910.14</v>
+        <v>912.56</v>
       </c>
       <c r="F18">
-        <v>909.46267</v>
+        <v>912.01900000000001</v>
       </c>
       <c r="G18">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="H18">
-        <v>910.14</v>
+        <v>912.56</v>
       </c>
       <c r="I18">
-        <v>9.1013999999999999</v>
+        <v>9.1256000000000004</v>
       </c>
       <c r="J18">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="K18">
-        <v>3.64</v>
+        <v>3.71</v>
       </c>
       <c r="L18">
-        <v>14.14</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="M18">
-        <v>0.1414</v>
+        <v>0.1656</v>
       </c>
       <c r="N18">
         <v>0.45604</v>
       </c>
       <c r="O18">
-        <v>-0.18944</v>
+        <v>-0.29221000000000003</v>
       </c>
       <c r="P18">
-        <v>-2.3769999999999999E-2</v>
+        <v>-2.5069999999999999E-2</v>
       </c>
       <c r="Q18">
-        <v>909.46299999999997</v>
+        <v>912.01900000000001</v>
       </c>
       <c r="R18">
-        <v>952.69111111111124</v>
+        <v>996.62555555555571</v>
       </c>
       <c r="S18">
-        <v>9.5269111111111116</v>
+        <v>9.9662555555555556</v>
       </c>
       <c r="T18">
         <v>702.22222222222217</v>
@@ -1955,10 +1955,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V18">
-        <v>56.691111111111141</v>
+        <v>100.62555555555559</v>
       </c>
       <c r="W18">
-        <v>0.56691111111111137</v>
+        <v>1.0062555555555559</v>
       </c>
       <c r="X18">
         <v>5.4039999999999998E-2</v>
@@ -1981,55 +1981,55 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>911.81</v>
+        <v>919.2</v>
       </c>
       <c r="F19">
-        <v>910.99465999999995</v>
+        <v>918.29805999999996</v>
       </c>
       <c r="G19">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H19">
-        <v>911.81</v>
+        <v>919.2</v>
       </c>
       <c r="I19">
-        <v>9.1181000000000001</v>
+        <v>9.1920000000000002</v>
       </c>
       <c r="J19">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K19">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="L19">
-        <v>15.81</v>
+        <v>22.2</v>
       </c>
       <c r="M19">
-        <v>0.15809999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="N19">
         <v>0.38961000000000001</v>
       </c>
       <c r="O19">
-        <v>-0.18944</v>
+        <v>-0.29221000000000003</v>
       </c>
       <c r="P19">
-        <v>-5.8999999999999999E-3</v>
+        <v>-2.0889999999999999E-2</v>
       </c>
       <c r="Q19">
-        <v>910.995</v>
+        <v>918.298</v>
       </c>
       <c r="R19">
-        <v>954.24166666666656</v>
+        <v>1005.886666666667</v>
       </c>
       <c r="S19">
-        <v>9.5424166666666661</v>
+        <v>10.05886666666667</v>
       </c>
       <c r="T19">
         <v>702.22222222222217</v>
@@ -2038,10 +2038,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V19">
-        <v>58.241666666666667</v>
+        <v>109.8866666666668</v>
       </c>
       <c r="W19">
-        <v>0.58241666666666669</v>
+        <v>1.0988666666666691</v>
       </c>
       <c r="X19">
         <v>5.4039999999999998E-2</v>
@@ -2064,55 +2064,55 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>897.8</v>
+        <v>902.3</v>
       </c>
       <c r="F20">
-        <v>897.73227999999995</v>
+        <v>902.14445999999998</v>
       </c>
       <c r="G20">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H20">
-        <v>897.8</v>
+        <v>902.3</v>
       </c>
       <c r="I20">
-        <v>8.9779999999999998</v>
+        <v>9.0229999999999997</v>
       </c>
       <c r="J20">
-        <v>555</v>
+        <v>401</v>
       </c>
       <c r="K20">
-        <v>5.55</v>
+        <v>4.01</v>
       </c>
       <c r="L20">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="M20">
-        <v>1.7999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="N20">
-        <v>0.24476000000000001</v>
+        <v>0.15476000000000001</v>
       </c>
       <c r="O20">
-        <v>-0.35714000000000001</v>
+        <v>-0.29221000000000003</v>
       </c>
       <c r="P20">
-        <v>-0.21448</v>
+        <v>-8.6400000000000005E-2</v>
       </c>
       <c r="Q20">
-        <v>897.73199999999997</v>
+        <v>902.14400000000001</v>
       </c>
       <c r="R20">
-        <v>910.10222222222228</v>
+        <v>980.30833333333328</v>
       </c>
       <c r="S20">
-        <v>9.1010222222222215</v>
+        <v>9.8030833333333316</v>
       </c>
       <c r="T20">
         <v>702.22222222222217</v>
@@ -2121,10 +2121,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V20">
-        <v>14.10222222222222</v>
+        <v>84.30833333333328</v>
       </c>
       <c r="W20">
-        <v>0.14102222222222219</v>
+        <v>0.84308333333333285</v>
       </c>
       <c r="X20">
         <v>5.4039999999999998E-2</v>
@@ -2147,55 +2147,55 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>900.26</v>
+        <v>907.58</v>
       </c>
       <c r="F21">
-        <v>900.13762999999994</v>
+        <v>907.34952999999996</v>
       </c>
       <c r="G21">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="H21">
-        <v>900.26</v>
+        <v>907.58</v>
       </c>
       <c r="I21">
-        <v>9.0025999999999993</v>
+        <v>9.0757999999999992</v>
       </c>
       <c r="J21">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="K21">
-        <v>4.17</v>
+        <v>3.91</v>
       </c>
       <c r="L21">
-        <v>4.26</v>
+        <v>26.58</v>
       </c>
       <c r="M21">
-        <v>4.2599999999999999E-2</v>
+        <v>0.26579999999999998</v>
       </c>
       <c r="N21">
-        <v>0.25403999999999999</v>
+        <v>0.45604</v>
       </c>
       <c r="O21">
-        <v>-0.24675</v>
+        <v>-0.18944</v>
       </c>
       <c r="P21">
-        <v>-0.10922999999999999</v>
+        <v>-2.5530000000000001E-2</v>
       </c>
       <c r="Q21">
-        <v>900.13800000000003</v>
+        <v>907.34900000000005</v>
       </c>
       <c r="R21">
-        <v>952.20555555555541</v>
+        <v>1015.743333333333</v>
       </c>
       <c r="S21">
-        <v>9.5220555555555553</v>
+        <v>10.15743333333333</v>
       </c>
       <c r="T21">
         <v>702.22222222222217</v>
@@ -2204,10 +2204,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V21">
-        <v>56.205555555555499</v>
+        <v>119.7433333333334</v>
       </c>
       <c r="W21">
-        <v>0.56205555555555498</v>
+        <v>1.197433333333334</v>
       </c>
       <c r="X21">
         <v>5.4039999999999998E-2</v>
@@ -2230,55 +2230,55 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>903.8</v>
+        <v>911.45</v>
       </c>
       <c r="F22">
-        <v>903.6146</v>
+        <v>911.11339999999996</v>
       </c>
       <c r="G22">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="H22">
-        <v>903.8</v>
+        <v>911.45</v>
       </c>
       <c r="I22">
-        <v>9.0380000000000003</v>
+        <v>9.1144999999999996</v>
       </c>
       <c r="J22">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="K22">
-        <v>3.87</v>
+        <v>3.63</v>
       </c>
       <c r="L22">
-        <v>21.8</v>
+        <v>19.45</v>
       </c>
       <c r="M22">
-        <v>0.218</v>
+        <v>0.19450000000000001</v>
       </c>
       <c r="N22">
-        <v>0.45604</v>
+        <v>0.29752000000000001</v>
       </c>
       <c r="O22">
         <v>-0.18944</v>
       </c>
       <c r="P22">
-        <v>-4.9500000000000004E-3</v>
+        <v>1.025E-2</v>
       </c>
       <c r="Q22">
-        <v>903.61500000000001</v>
+        <v>911.11300000000006</v>
       </c>
       <c r="R22">
-        <v>975.82888888888874</v>
+        <v>1027.1966666666669</v>
       </c>
       <c r="S22">
-        <v>9.7582888888888881</v>
+        <v>10.271966666666669</v>
       </c>
       <c r="T22">
         <v>702.22222222222217</v>
@@ -2287,10 +2287,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V22">
-        <v>79.828888888888869</v>
+        <v>131.1966666666666</v>
       </c>
       <c r="W22">
-        <v>0.7982888888888886</v>
+        <v>1.3119666666666661</v>
       </c>
       <c r="X22">
         <v>5.4039999999999998E-2</v>
@@ -2313,55 +2313,55 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>906.34</v>
+        <v>915.62</v>
       </c>
       <c r="F23">
-        <v>906.07771000000002</v>
+        <v>915.09112000000005</v>
       </c>
       <c r="G23">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="H23">
-        <v>906.34</v>
+        <v>915.62</v>
       </c>
       <c r="I23">
-        <v>9.0633999999999997</v>
+        <v>9.1562000000000001</v>
       </c>
       <c r="J23">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K23">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>12.34</v>
+        <v>25.62</v>
       </c>
       <c r="M23">
-        <v>0.1234</v>
+        <v>0.25619999999999998</v>
       </c>
       <c r="N23">
-        <v>0.45604</v>
+        <v>0.29752000000000001</v>
       </c>
       <c r="O23">
-        <v>-0.18944</v>
+        <v>-0.24675</v>
       </c>
       <c r="P23">
-        <v>-2.5729999999999999E-2</v>
+        <v>9.3999999999999997E-4</v>
       </c>
       <c r="Q23">
-        <v>906.07799999999997</v>
+        <v>915.09100000000001</v>
       </c>
       <c r="R23">
-        <v>983.46444444444444</v>
+        <v>1032.9433333333329</v>
       </c>
       <c r="S23">
-        <v>9.834644444444443</v>
+        <v>10.329433333333331</v>
       </c>
       <c r="T23">
         <v>702.22222222222217</v>
@@ -2370,10 +2370,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V23">
-        <v>87.464444444444396</v>
+        <v>136.9433333333333</v>
       </c>
       <c r="W23">
-        <v>0.874644444444444</v>
+        <v>1.3694333333333331</v>
       </c>
       <c r="X23">
         <v>5.4039999999999998E-2</v>
@@ -2396,55 +2396,55 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <v>909.12</v>
+        <v>920.61</v>
       </c>
       <c r="F24">
-        <v>908.79835000000003</v>
+        <v>919.85603000000003</v>
       </c>
       <c r="G24">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="H24">
-        <v>909.12</v>
+        <v>920.61</v>
       </c>
       <c r="I24">
-        <v>9.0912000000000006</v>
+        <v>9.2060999999999993</v>
       </c>
       <c r="J24">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="K24">
-        <v>3.61</v>
+        <v>3.7</v>
       </c>
       <c r="L24">
-        <v>13.12</v>
+        <v>23.61</v>
       </c>
       <c r="M24">
-        <v>0.13120000000000001</v>
+        <v>0.2361</v>
       </c>
       <c r="N24">
         <v>0.45604</v>
       </c>
       <c r="O24">
-        <v>-0.29221000000000003</v>
+        <v>-0.23291999999999999</v>
       </c>
       <c r="P24">
-        <v>-1.8149999999999999E-2</v>
+        <v>1.41E-3</v>
       </c>
       <c r="Q24">
-        <v>908.798</v>
+        <v>919.85599999999999</v>
       </c>
       <c r="R24">
-        <v>987.29555555555555</v>
+        <v>1046.938333333333</v>
       </c>
       <c r="S24">
-        <v>9.8729555555555564</v>
+        <v>10.469383333333329</v>
       </c>
       <c r="T24">
         <v>702.22222222222217</v>
@@ -2453,10 +2453,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V24">
-        <v>91.295555555555595</v>
+        <v>150.93833333333319</v>
       </c>
       <c r="W24">
-        <v>0.91295555555555596</v>
+        <v>1.509383333333332</v>
       </c>
       <c r="X24">
         <v>5.4039999999999998E-2</v>
@@ -2479,55 +2479,55 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>912.56</v>
+        <v>930.22</v>
       </c>
       <c r="F25">
-        <v>912.01900000000001</v>
+        <v>929.274</v>
       </c>
       <c r="G25">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H25">
-        <v>912.56</v>
+        <v>930.22</v>
       </c>
       <c r="I25">
-        <v>9.1256000000000004</v>
+        <v>9.3021999999999991</v>
       </c>
       <c r="J25">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="K25">
-        <v>3.71</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
-        <v>16.559999999999999</v>
+        <v>28.22</v>
       </c>
       <c r="M25">
-        <v>0.1656</v>
+        <v>0.28220000000000001</v>
       </c>
       <c r="N25">
-        <v>0.45604</v>
+        <v>0.29752000000000001</v>
       </c>
       <c r="O25">
-        <v>-0.29221000000000003</v>
+        <v>-0.24675</v>
       </c>
       <c r="P25">
-        <v>-2.5069999999999999E-2</v>
+        <v>-2.5860000000000001E-2</v>
       </c>
       <c r="Q25">
-        <v>912.01900000000001</v>
+        <v>929.274</v>
       </c>
       <c r="R25">
-        <v>996.62555555555571</v>
+        <v>1060.83</v>
       </c>
       <c r="S25">
-        <v>9.9662555555555556</v>
+        <v>10.6083</v>
       </c>
       <c r="T25">
         <v>702.22222222222217</v>
@@ -2536,10 +2536,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V25">
-        <v>100.62555555555559</v>
+        <v>164.82999999999981</v>
       </c>
       <c r="W25">
-        <v>1.0062555555555559</v>
+        <v>1.648299999999999</v>
       </c>
       <c r="X25">
         <v>5.4039999999999998E-2</v>
@@ -2562,55 +2562,55 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>919.2</v>
+        <v>904.44</v>
       </c>
       <c r="F26">
-        <v>918.29805999999996</v>
+        <v>904.10978</v>
       </c>
       <c r="G26">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="H26">
-        <v>919.2</v>
+        <v>904.44</v>
       </c>
       <c r="I26">
-        <v>9.1920000000000002</v>
+        <v>9.0443999999999996</v>
       </c>
       <c r="J26">
-        <v>365</v>
+        <v>430</v>
       </c>
       <c r="K26">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="L26">
-        <v>22.2</v>
+        <v>7.44</v>
       </c>
       <c r="M26">
-        <v>0.222</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="N26">
-        <v>0.38961000000000001</v>
+        <v>0.11310000000000001</v>
       </c>
       <c r="O26">
         <v>-0.29221000000000003</v>
       </c>
       <c r="P26">
-        <v>-2.0889999999999999E-2</v>
+        <v>-0.12670000000000001</v>
       </c>
       <c r="Q26">
-        <v>918.298</v>
+        <v>904.11</v>
       </c>
       <c r="R26">
-        <v>1005.886666666667</v>
+        <v>1008.411111111111</v>
       </c>
       <c r="S26">
-        <v>10.05886666666667</v>
+        <v>10.08411111111111</v>
       </c>
       <c r="T26">
         <v>702.22222222222217</v>
@@ -2619,10 +2619,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V26">
-        <v>109.8866666666668</v>
+        <v>112.411111111111</v>
       </c>
       <c r="W26">
-        <v>1.0988666666666691</v>
+        <v>1.12411111111111</v>
       </c>
       <c r="X26">
         <v>5.4039999999999998E-2</v>
@@ -2645,55 +2645,55 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>923.58</v>
+        <v>911.44</v>
       </c>
       <c r="F27">
-        <v>922.53265999999996</v>
+        <v>911.03543999999999</v>
       </c>
       <c r="G27">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H27">
-        <v>923.58</v>
+        <v>911.44</v>
       </c>
       <c r="I27">
-        <v>9.2357999999999993</v>
+        <v>9.1143999999999998</v>
       </c>
       <c r="J27">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="K27">
-        <v>3.58</v>
+        <v>3.98</v>
       </c>
       <c r="L27">
-        <v>23.58</v>
+        <v>39.44</v>
       </c>
       <c r="M27">
-        <v>0.23580000000000001</v>
+        <v>0.39439999999999997</v>
       </c>
       <c r="N27">
-        <v>0.45604</v>
+        <v>0.65810000000000002</v>
       </c>
       <c r="O27">
-        <v>-0.24675</v>
+        <v>-0.18944</v>
       </c>
       <c r="P27">
-        <v>-3.696E-2</v>
+        <v>-3.9550000000000002E-2</v>
       </c>
       <c r="Q27">
-        <v>922.53300000000002</v>
+        <v>911.03499999999997</v>
       </c>
       <c r="R27">
-        <v>1009.382222222222</v>
+        <v>1055.6577777777779</v>
       </c>
       <c r="S27">
-        <v>10.09382222222222</v>
+        <v>10.556577777777781</v>
       </c>
       <c r="T27">
         <v>702.22222222222217</v>
@@ -2702,10 +2702,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V27">
-        <v>113.3822222222223</v>
+        <v>159.65777777777771</v>
       </c>
       <c r="W27">
-        <v>1.133822222222223</v>
+        <v>1.596577777777777</v>
       </c>
       <c r="X27">
         <v>5.4039999999999998E-2</v>
@@ -2728,37 +2728,37 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>927.38</v>
+        <v>916.72</v>
       </c>
       <c r="F28">
-        <v>926.30106000000001</v>
+        <v>916.14563999999996</v>
       </c>
       <c r="G28">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H28">
-        <v>927.38</v>
+        <v>916.72</v>
       </c>
       <c r="I28">
-        <v>9.2737999999999996</v>
+        <v>9.1671999999999993</v>
       </c>
       <c r="J28">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="K28">
-        <v>3.56</v>
+        <v>3.66</v>
       </c>
       <c r="L28">
-        <v>28.38</v>
+        <v>19.72</v>
       </c>
       <c r="M28">
-        <v>0.2838</v>
+        <v>0.19719999999999999</v>
       </c>
       <c r="N28">
         <v>0.45604</v>
@@ -2767,16 +2767,16 @@
         <v>-0.24675</v>
       </c>
       <c r="P28">
-        <v>-5.3269999999999998E-2</v>
+        <v>2.1059999999999999E-2</v>
       </c>
       <c r="Q28">
-        <v>926.30100000000004</v>
+        <v>916.14599999999996</v>
       </c>
       <c r="R28">
-        <v>1012.483333333333</v>
+        <v>1070.9288888888891</v>
       </c>
       <c r="S28">
-        <v>10.12483333333333</v>
+        <v>10.70928888888889</v>
       </c>
       <c r="T28">
         <v>702.22222222222217</v>
@@ -2785,10 +2785,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V28">
-        <v>116.48333333333331</v>
+        <v>174.92888888888879</v>
       </c>
       <c r="W28">
-        <v>1.1648333333333329</v>
+        <v>1.749288888888888</v>
       </c>
       <c r="X28">
         <v>5.4039999999999998E-2</v>
@@ -2811,55 +2811,55 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>898.7</v>
+        <v>922.2</v>
       </c>
       <c r="F29">
-        <v>898.57748000000004</v>
+        <v>921.32456000000002</v>
       </c>
       <c r="G29">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="H29">
-        <v>898.7</v>
+        <v>922.2</v>
       </c>
       <c r="I29">
-        <v>8.9870000000000001</v>
+        <v>9.2219999999999995</v>
       </c>
       <c r="J29">
-        <v>597.99998000000005</v>
+        <v>359</v>
       </c>
       <c r="K29">
-        <v>5.98</v>
+        <v>3.59</v>
       </c>
       <c r="L29">
-        <v>24.7</v>
+        <v>23.2</v>
       </c>
       <c r="M29">
-        <v>0.247</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="N29">
-        <v>-3.4630000000000001E-2</v>
+        <v>0.45604</v>
       </c>
       <c r="O29">
-        <v>-0.45489000000000002</v>
+        <v>-0.24675</v>
       </c>
       <c r="P29">
-        <v>-0.23512</v>
+        <v>2.4119999999999999E-2</v>
       </c>
       <c r="Q29">
-        <v>898.577</v>
+        <v>921.32500000000005</v>
       </c>
       <c r="R29">
-        <v>917.15333333333342</v>
+        <v>1078.5911111111111</v>
       </c>
       <c r="S29">
-        <v>9.1715333333333344</v>
+        <v>10.78591111111111</v>
       </c>
       <c r="T29">
         <v>702.22222222222217</v>
@@ -2868,10 +2868,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V29">
-        <v>21.15333333333335</v>
+        <v>182.59111111111119</v>
       </c>
       <c r="W29">
-        <v>0.21153333333333349</v>
+        <v>1.8259111111111119</v>
       </c>
       <c r="X29">
         <v>5.4039999999999998E-2</v>
@@ -2894,55 +2894,55 @@
         <v>27</v>
       </c>
       <c r="C30">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>902.3</v>
+        <v>928.6</v>
       </c>
       <c r="F30">
-        <v>902.14445999999998</v>
+        <v>927.60032000000001</v>
       </c>
       <c r="G30">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="H30">
-        <v>902.3</v>
+        <v>928.6</v>
       </c>
       <c r="I30">
-        <v>9.0229999999999997</v>
+        <v>9.2859999999999996</v>
       </c>
       <c r="J30">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="K30">
-        <v>4.01</v>
+        <v>3.67</v>
       </c>
       <c r="L30">
-        <v>5.3</v>
+        <v>27.6</v>
       </c>
       <c r="M30">
-        <v>5.2999999999999999E-2</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="N30">
-        <v>0.15476000000000001</v>
+        <v>0.29752000000000001</v>
       </c>
       <c r="O30">
-        <v>-0.29221000000000003</v>
+        <v>-0.23291999999999999</v>
       </c>
       <c r="P30">
-        <v>-8.6400000000000005E-2</v>
+        <v>-2.6280000000000001E-2</v>
       </c>
       <c r="Q30">
-        <v>902.14400000000001</v>
+        <v>927.6</v>
       </c>
       <c r="R30">
-        <v>980.30833333333328</v>
+        <v>1097.251111111111</v>
       </c>
       <c r="S30">
-        <v>9.8030833333333316</v>
+        <v>10.97251111111111</v>
       </c>
       <c r="T30">
         <v>702.22222222222217</v>
@@ -2951,10 +2951,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V30">
-        <v>84.30833333333328</v>
+        <v>201.2511111111113</v>
       </c>
       <c r="W30">
-        <v>0.84308333333333285</v>
+        <v>2.0125111111111131</v>
       </c>
       <c r="X30">
         <v>5.4039999999999998E-2</v>
@@ -2977,55 +2977,55 @@
         <v>27</v>
       </c>
       <c r="C31">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>907.58</v>
+        <v>940.88</v>
       </c>
       <c r="F31">
-        <v>907.34952999999996</v>
+        <v>939.92813999999998</v>
       </c>
       <c r="G31">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="H31">
-        <v>907.58</v>
+        <v>940.88</v>
       </c>
       <c r="I31">
-        <v>9.0757999999999992</v>
+        <v>9.4087999999999994</v>
       </c>
       <c r="J31">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="K31">
-        <v>3.91</v>
+        <v>3.6</v>
       </c>
       <c r="L31">
-        <v>26.58</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="M31">
-        <v>0.26579999999999998</v>
+        <v>0.35880000000000001</v>
       </c>
       <c r="N31">
-        <v>0.45604</v>
+        <v>0.65810000000000002</v>
       </c>
       <c r="O31">
         <v>-0.18944</v>
       </c>
       <c r="P31">
-        <v>-2.5530000000000001E-2</v>
+        <v>-2.7789999999999999E-2</v>
       </c>
       <c r="Q31">
-        <v>907.34900000000005</v>
+        <v>939.928</v>
       </c>
       <c r="R31">
-        <v>1015.743333333333</v>
+        <v>1115.773333333334</v>
       </c>
       <c r="S31">
-        <v>10.15743333333333</v>
+        <v>11.15773333333334</v>
       </c>
       <c r="T31">
         <v>702.22222222222217</v>
@@ -3034,10 +3034,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V31">
-        <v>119.7433333333334</v>
+        <v>219.77333333333371</v>
       </c>
       <c r="W31">
-        <v>1.197433333333334</v>
+        <v>2.1977333333333369</v>
       </c>
       <c r="X31">
         <v>5.4039999999999998E-2</v>
@@ -3060,55 +3060,55 @@
         <v>27</v>
       </c>
       <c r="C32">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>911.45</v>
+        <v>906.4</v>
       </c>
       <c r="F32">
-        <v>911.11339999999996</v>
+        <v>906.05425000000002</v>
       </c>
       <c r="G32">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="H32">
-        <v>911.45</v>
+        <v>906.4</v>
       </c>
       <c r="I32">
-        <v>9.1144999999999996</v>
+        <v>9.0640000000000001</v>
       </c>
       <c r="J32">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="K32">
-        <v>3.63</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="L32">
-        <v>19.45</v>
+        <v>8.4</v>
       </c>
       <c r="M32">
-        <v>0.19450000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="N32">
-        <v>0.29752000000000001</v>
+        <v>0.11310000000000001</v>
       </c>
       <c r="O32">
-        <v>-0.18944</v>
+        <v>-0.29221000000000003</v>
       </c>
       <c r="P32">
-        <v>1.025E-2</v>
+        <v>-8.8020000000000001E-2</v>
       </c>
       <c r="Q32">
-        <v>911.11300000000006</v>
+        <v>906.05399999999997</v>
       </c>
       <c r="R32">
-        <v>1027.1966666666669</v>
+        <v>1036.5138888888889</v>
       </c>
       <c r="S32">
-        <v>10.271966666666669</v>
+        <v>10.36513888888889</v>
       </c>
       <c r="T32">
         <v>702.22222222222217</v>
@@ -3117,10 +3117,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V32">
-        <v>131.1966666666666</v>
+        <v>140.5138888888888</v>
       </c>
       <c r="W32">
-        <v>1.3119666666666661</v>
+        <v>1.405138888888888</v>
       </c>
       <c r="X32">
         <v>5.4039999999999998E-2</v>
@@ -3143,55 +3143,55 @@
         <v>27</v>
       </c>
       <c r="C33">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>915.62</v>
+        <v>915.2</v>
       </c>
       <c r="F33">
-        <v>915.09112000000005</v>
+        <v>914.67191000000003</v>
       </c>
       <c r="G33">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="H33">
-        <v>915.62</v>
+        <v>915.2</v>
       </c>
       <c r="I33">
-        <v>9.1562000000000001</v>
+        <v>9.1519999999999992</v>
       </c>
       <c r="J33">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="K33">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L33">
-        <v>25.62</v>
+        <v>19.2</v>
       </c>
       <c r="M33">
-        <v>0.25619999999999998</v>
+        <v>0.192</v>
       </c>
       <c r="N33">
-        <v>0.29752000000000001</v>
+        <v>0.65810000000000002</v>
       </c>
       <c r="O33">
-        <v>-0.24675</v>
+        <v>-0.18944</v>
       </c>
       <c r="P33">
-        <v>9.3999999999999997E-4</v>
+        <v>1.32E-3</v>
       </c>
       <c r="Q33">
-        <v>915.09100000000001</v>
+        <v>914.67200000000003</v>
       </c>
       <c r="R33">
-        <v>1032.9433333333329</v>
+        <v>1095.5722222222221</v>
       </c>
       <c r="S33">
-        <v>10.329433333333331</v>
+        <v>10.955722222222221</v>
       </c>
       <c r="T33">
         <v>702.22222222222217</v>
@@ -3200,10 +3200,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V33">
-        <v>136.9433333333333</v>
+        <v>199.57222222222239</v>
       </c>
       <c r="W33">
-        <v>1.3694333333333331</v>
+        <v>1.995722222222224</v>
       </c>
       <c r="X33">
         <v>5.4039999999999998E-2</v>
@@ -3226,55 +3226,55 @@
         <v>27</v>
       </c>
       <c r="C34">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>920.61</v>
+        <v>921.9</v>
       </c>
       <c r="F34">
-        <v>919.85603000000003</v>
+        <v>921.17345</v>
       </c>
       <c r="G34">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="H34">
-        <v>920.61</v>
+        <v>921.9</v>
       </c>
       <c r="I34">
-        <v>9.2060999999999993</v>
+        <v>9.2189999999999994</v>
       </c>
       <c r="J34">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="K34">
-        <v>3.7</v>
+        <v>3.62</v>
       </c>
       <c r="L34">
-        <v>23.61</v>
+        <v>23.9</v>
       </c>
       <c r="M34">
-        <v>0.2361</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="N34">
         <v>0.45604</v>
       </c>
       <c r="O34">
-        <v>-0.23291999999999999</v>
+        <v>-0.18944</v>
       </c>
       <c r="P34">
-        <v>1.41E-3</v>
+        <v>7.9100000000000004E-3</v>
       </c>
       <c r="Q34">
-        <v>919.85599999999999</v>
+        <v>921.173</v>
       </c>
       <c r="R34">
-        <v>1046.938333333333</v>
+        <v>1114.661111111111</v>
       </c>
       <c r="S34">
-        <v>10.469383333333329</v>
+        <v>11.14661111111111</v>
       </c>
       <c r="T34">
         <v>702.22222222222217</v>
@@ -3283,10 +3283,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V34">
-        <v>150.93833333333319</v>
+        <v>218.6611111111109</v>
       </c>
       <c r="W34">
-        <v>1.509383333333332</v>
+        <v>2.1866111111111088</v>
       </c>
       <c r="X34">
         <v>5.4039999999999998E-2</v>
@@ -3309,55 +3309,55 @@
         <v>27</v>
       </c>
       <c r="C35">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>930.22</v>
+        <v>928.35</v>
       </c>
       <c r="F35">
-        <v>929.274</v>
+        <v>927.47436000000005</v>
       </c>
       <c r="G35">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H35">
-        <v>930.22</v>
+        <v>928.35</v>
       </c>
       <c r="I35">
-        <v>9.3021999999999991</v>
+        <v>9.2835000000000001</v>
       </c>
       <c r="J35">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K35">
-        <v>3.6</v>
+        <v>3.54</v>
       </c>
       <c r="L35">
-        <v>28.22</v>
+        <v>24.35</v>
       </c>
       <c r="M35">
-        <v>0.28220000000000001</v>
+        <v>0.24349999999999999</v>
       </c>
       <c r="N35">
-        <v>0.29752000000000001</v>
+        <v>0.65810000000000002</v>
       </c>
       <c r="O35">
-        <v>-0.24675</v>
+        <v>-0.18944</v>
       </c>
       <c r="P35">
-        <v>-2.5860000000000001E-2</v>
+        <v>3.0200000000000001E-3</v>
       </c>
       <c r="Q35">
-        <v>929.274</v>
+        <v>927.47400000000005</v>
       </c>
       <c r="R35">
-        <v>1060.83</v>
+        <v>1124.2388888888891</v>
       </c>
       <c r="S35">
-        <v>10.6083</v>
+        <v>11.24238888888889</v>
       </c>
       <c r="T35">
         <v>702.22222222222217</v>
@@ -3366,10 +3366,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V35">
-        <v>164.82999999999981</v>
+        <v>228.23888888888871</v>
       </c>
       <c r="W35">
-        <v>1.648299999999999</v>
+        <v>2.282388888888887</v>
       </c>
       <c r="X35">
         <v>5.4039999999999998E-2</v>
@@ -3392,55 +3392,55 @@
         <v>27</v>
       </c>
       <c r="C36">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>935.32</v>
+        <v>935.9</v>
       </c>
       <c r="F36">
-        <v>934.32010000000002</v>
+        <v>935.02211999999997</v>
       </c>
       <c r="G36">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="H36">
-        <v>935.32</v>
+        <v>935.9</v>
       </c>
       <c r="I36">
-        <v>9.3531999999999993</v>
+        <v>9.359</v>
       </c>
       <c r="J36">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="K36">
-        <v>3.53</v>
+        <v>3.65</v>
       </c>
       <c r="L36">
-        <v>33.32</v>
+        <v>29.9</v>
       </c>
       <c r="M36">
-        <v>0.3332</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="N36">
-        <v>0.29752000000000001</v>
+        <v>0.45604</v>
       </c>
       <c r="O36">
         <v>-0.18944</v>
       </c>
       <c r="P36">
-        <v>-2.409E-2</v>
+        <v>-3.628E-2</v>
       </c>
       <c r="Q36">
-        <v>934.32</v>
+        <v>935.02200000000005</v>
       </c>
       <c r="R36">
-        <v>1066.073333333333</v>
+        <v>1147.5638888888891</v>
       </c>
       <c r="S36">
-        <v>10.660733333333329</v>
+        <v>11.47563888888889</v>
       </c>
       <c r="T36">
         <v>702.22222222222217</v>
@@ -3449,10 +3449,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V36">
-        <v>170.07333333333321</v>
+        <v>251.5638888888885</v>
       </c>
       <c r="W36">
-        <v>1.700733333333331</v>
+        <v>2.5156388888888852</v>
       </c>
       <c r="X36">
         <v>5.4039999999999998E-2</v>
@@ -3475,55 +3475,55 @@
         <v>27</v>
       </c>
       <c r="C37">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>940.38</v>
+        <v>949.69998999999996</v>
       </c>
       <c r="F37">
-        <v>939.29197999999997</v>
+        <v>948.66207999999995</v>
       </c>
       <c r="G37">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H37">
-        <v>940.38</v>
+        <v>949.69998999999996</v>
       </c>
       <c r="I37">
-        <v>9.4038000000000004</v>
+        <v>9.4969999999999999</v>
       </c>
       <c r="J37">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="K37">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="L37">
-        <v>32.380000000000003</v>
+        <v>37.69999</v>
       </c>
       <c r="M37">
-        <v>0.32379999999999998</v>
+        <v>0.377</v>
       </c>
       <c r="N37">
         <v>0.45604</v>
       </c>
       <c r="O37">
-        <v>-0.18944</v>
+        <v>-0.23291999999999999</v>
       </c>
       <c r="P37">
-        <v>-3.0960000000000001E-2</v>
+        <v>-3.7539999999999997E-2</v>
       </c>
       <c r="Q37">
-        <v>939.29200000000003</v>
+        <v>948.66200000000003</v>
       </c>
       <c r="R37">
-        <v>1070.7249999999999</v>
+        <v>1170.716666666666</v>
       </c>
       <c r="S37">
-        <v>10.70725</v>
+        <v>11.707166666666661</v>
       </c>
       <c r="T37">
         <v>702.22222222222217</v>
@@ -3532,10 +3532,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V37">
-        <v>174.72499999999971</v>
+        <v>274.71666666666641</v>
       </c>
       <c r="W37">
-        <v>1.7472499999999971</v>
+        <v>2.7471666666666632</v>
       </c>
       <c r="X37">
         <v>5.4039999999999998E-2</v>
@@ -3558,55 +3558,55 @@
         <v>27</v>
       </c>
       <c r="C38">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>899.52</v>
+        <v>908.28</v>
       </c>
       <c r="F38">
-        <v>899.40859999999998</v>
+        <v>907.96833000000004</v>
       </c>
       <c r="G38">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="H38">
-        <v>899.52</v>
+        <v>908.28</v>
       </c>
       <c r="I38">
-        <v>8.9952000000000005</v>
+        <v>9.0828000000000007</v>
       </c>
       <c r="J38">
-        <v>536</v>
+        <v>414</v>
       </c>
       <c r="K38">
-        <v>5.36</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="L38">
-        <v>3.52</v>
+        <v>10.28</v>
       </c>
       <c r="M38">
-        <v>3.5200000000000002E-2</v>
+        <v>0.1028</v>
       </c>
       <c r="N38">
-        <v>1.056E-2</v>
+        <v>0.15476000000000001</v>
       </c>
       <c r="O38">
-        <v>-0.30952000000000002</v>
+        <v>-0.24675</v>
       </c>
       <c r="P38">
-        <v>-0.19241</v>
+        <v>-0.11279</v>
       </c>
       <c r="Q38">
-        <v>899.40899999999999</v>
+        <v>907.96799999999996</v>
       </c>
       <c r="R38">
-        <v>924.20444444444445</v>
+        <v>1064.616666666667</v>
       </c>
       <c r="S38">
-        <v>9.2420444444444438</v>
+        <v>10.646166666666669</v>
       </c>
       <c r="T38">
         <v>702.22222222222217</v>
@@ -3615,10 +3615,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V38">
-        <v>28.20444444444443</v>
+        <v>168.61666666666659</v>
       </c>
       <c r="W38">
-        <v>0.28204444444444438</v>
+        <v>1.6861666666666659</v>
       </c>
       <c r="X38">
         <v>5.4039999999999998E-2</v>
@@ -3641,55 +3641,55 @@
         <v>27</v>
       </c>
       <c r="C39">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>904.44</v>
+        <v>918.76</v>
       </c>
       <c r="F39">
-        <v>904.10978</v>
+        <v>918.26259000000005</v>
       </c>
       <c r="G39">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H39">
-        <v>904.44</v>
+        <v>918.76</v>
       </c>
       <c r="I39">
-        <v>9.0443999999999996</v>
+        <v>9.1875999999999998</v>
       </c>
       <c r="J39">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="K39">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L39">
-        <v>7.44</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="M39">
-        <v>7.4399999999999994E-2</v>
+        <v>0.18759999999999999</v>
       </c>
       <c r="N39">
-        <v>0.11310000000000001</v>
+        <v>0.45604</v>
       </c>
       <c r="O39">
-        <v>-0.29221000000000003</v>
+        <v>-0.18944</v>
       </c>
       <c r="P39">
-        <v>-0.12670000000000001</v>
+        <v>-1.0670000000000001E-2</v>
       </c>
       <c r="Q39">
-        <v>904.11</v>
+        <v>918.26300000000003</v>
       </c>
       <c r="R39">
-        <v>1008.411111111111</v>
+        <v>1135.4866666666669</v>
       </c>
       <c r="S39">
-        <v>10.08411111111111</v>
+        <v>11.35486666666667</v>
       </c>
       <c r="T39">
         <v>702.22222222222217</v>
@@ -3698,10 +3698,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V39">
-        <v>112.411111111111</v>
+        <v>239.48666666666679</v>
       </c>
       <c r="W39">
-        <v>1.12411111111111</v>
+        <v>2.394866666666668</v>
       </c>
       <c r="X39">
         <v>5.4039999999999998E-2</v>
@@ -3724,55 +3724,55 @@
         <v>27</v>
       </c>
       <c r="C40">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>911.44</v>
+        <v>926.74</v>
       </c>
       <c r="F40">
-        <v>911.03543999999999</v>
+        <v>925.96373000000006</v>
       </c>
       <c r="G40">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="H40">
-        <v>911.44</v>
+        <v>926.74</v>
       </c>
       <c r="I40">
-        <v>9.1143999999999998</v>
+        <v>9.2674000000000003</v>
       </c>
       <c r="J40">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="K40">
-        <v>3.98</v>
+        <v>3.52</v>
       </c>
       <c r="L40">
-        <v>39.44</v>
+        <v>22.74</v>
       </c>
       <c r="M40">
-        <v>0.39439999999999997</v>
+        <v>0.22739999999999999</v>
       </c>
       <c r="N40">
-        <v>0.65810000000000002</v>
+        <v>0.45604</v>
       </c>
       <c r="O40">
         <v>-0.18944</v>
       </c>
       <c r="P40">
-        <v>-3.9550000000000002E-2</v>
+        <v>-1.64E-3</v>
       </c>
       <c r="Q40">
-        <v>911.03499999999997</v>
+        <v>925.96400000000006</v>
       </c>
       <c r="R40">
-        <v>1055.6577777777779</v>
+        <v>1158.393333333333</v>
       </c>
       <c r="S40">
-        <v>10.556577777777781</v>
+        <v>11.583933333333331</v>
       </c>
       <c r="T40">
         <v>702.22222222222217</v>
@@ -3781,10 +3781,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V40">
-        <v>159.65777777777771</v>
+        <v>262.39333333333332</v>
       </c>
       <c r="W40">
-        <v>1.596577777777777</v>
+        <v>2.623933333333333</v>
       </c>
       <c r="X40">
         <v>5.4039999999999998E-2</v>
@@ -3807,55 +3807,55 @@
         <v>27</v>
       </c>
       <c r="C41">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>916.72</v>
+        <v>934.12</v>
       </c>
       <c r="F41">
-        <v>916.14563999999996</v>
+        <v>933.25432000000001</v>
       </c>
       <c r="G41">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H41">
-        <v>916.72</v>
+        <v>934.12</v>
       </c>
       <c r="I41">
-        <v>9.1671999999999993</v>
+        <v>9.3412000000000006</v>
       </c>
       <c r="J41">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="K41">
-        <v>3.66</v>
+        <v>3.46</v>
       </c>
       <c r="L41">
-        <v>19.72</v>
+        <v>27.12</v>
       </c>
       <c r="M41">
-        <v>0.19719999999999999</v>
+        <v>0.2712</v>
       </c>
       <c r="N41">
         <v>0.45604</v>
       </c>
       <c r="O41">
-        <v>-0.24675</v>
+        <v>-0.17857000000000001</v>
       </c>
       <c r="P41">
-        <v>2.1059999999999999E-2</v>
+        <v>2.758E-2</v>
       </c>
       <c r="Q41">
-        <v>916.14599999999996</v>
+        <v>933.25400000000002</v>
       </c>
       <c r="R41">
-        <v>1070.9288888888891</v>
+        <v>1169.886666666667</v>
       </c>
       <c r="S41">
-        <v>10.70928888888889</v>
+        <v>11.698866666666669</v>
       </c>
       <c r="T41">
         <v>702.22222222222217</v>
@@ -3864,10 +3864,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V41">
-        <v>174.92888888888879</v>
+        <v>273.8866666666666</v>
       </c>
       <c r="W41">
-        <v>1.749288888888888</v>
+        <v>2.738866666666667</v>
       </c>
       <c r="X41">
         <v>5.4039999999999998E-2</v>
@@ -3890,55 +3890,55 @@
         <v>27</v>
       </c>
       <c r="C42">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>922.2</v>
+        <v>942.62</v>
       </c>
       <c r="F42">
-        <v>921.32456000000002</v>
+        <v>941.76334999999995</v>
       </c>
       <c r="G42">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="H42">
-        <v>922.2</v>
+        <v>942.62</v>
       </c>
       <c r="I42">
-        <v>9.2219999999999995</v>
+        <v>9.4261999999999997</v>
       </c>
       <c r="J42">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="K42">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="L42">
-        <v>23.2</v>
+        <v>30.62</v>
       </c>
       <c r="M42">
-        <v>0.23200000000000001</v>
+        <v>0.30620000000000003</v>
       </c>
       <c r="N42">
-        <v>0.45604</v>
+        <v>0.28476000000000001</v>
       </c>
       <c r="O42">
-        <v>-0.24675</v>
+        <v>-0.18944</v>
       </c>
       <c r="P42">
-        <v>2.4119999999999999E-2</v>
+        <v>-2.383E-2</v>
       </c>
       <c r="Q42">
-        <v>921.32500000000005</v>
+        <v>941.76300000000003</v>
       </c>
       <c r="R42">
-        <v>1078.5911111111111</v>
+        <v>1197.8766666666661</v>
       </c>
       <c r="S42">
-        <v>10.78591111111111</v>
+        <v>11.978766666666671</v>
       </c>
       <c r="T42">
         <v>702.22222222222217</v>
@@ -3947,10 +3947,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V42">
-        <v>182.59111111111119</v>
+        <v>301.87666666666638</v>
       </c>
       <c r="W42">
-        <v>1.8259111111111119</v>
+        <v>3.0187666666666648</v>
       </c>
       <c r="X42">
         <v>5.4039999999999998E-2</v>
@@ -3973,55 +3973,55 @@
         <v>27</v>
       </c>
       <c r="C43">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>928.6</v>
+        <v>957.86</v>
       </c>
       <c r="F43">
-        <v>927.60032000000001</v>
+        <v>956.59779000000003</v>
       </c>
       <c r="G43">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="H43">
-        <v>928.6</v>
+        <v>957.86</v>
       </c>
       <c r="I43">
-        <v>9.2859999999999996</v>
+        <v>9.5785999999999998</v>
       </c>
       <c r="J43">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="K43">
-        <v>3.67</v>
+        <v>3.18</v>
       </c>
       <c r="L43">
-        <v>27.6</v>
+        <v>37.86</v>
       </c>
       <c r="M43">
-        <v>0.27600000000000002</v>
+        <v>0.37859999999999999</v>
       </c>
       <c r="N43">
-        <v>0.29752000000000001</v>
+        <v>0.45604</v>
       </c>
       <c r="O43">
-        <v>-0.23291999999999999</v>
+        <v>-0.18944</v>
       </c>
       <c r="P43">
-        <v>-2.6280000000000001E-2</v>
+        <v>-9.2700000000000005E-3</v>
       </c>
       <c r="Q43">
-        <v>927.6</v>
+        <v>956.59799999999996</v>
       </c>
       <c r="R43">
-        <v>1097.251111111111</v>
+        <v>1225.6600000000001</v>
       </c>
       <c r="S43">
-        <v>10.97251111111111</v>
+        <v>12.256600000000001</v>
       </c>
       <c r="T43">
         <v>702.22222222222217</v>
@@ -4030,10 +4030,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V43">
-        <v>201.2511111111113</v>
+        <v>329.65999999999968</v>
       </c>
       <c r="W43">
-        <v>2.0125111111111131</v>
+        <v>3.2965999999999971</v>
       </c>
       <c r="X43">
         <v>5.4039999999999998E-2</v>
@@ -4056,55 +4056,55 @@
         <v>27</v>
       </c>
       <c r="C44">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>940.88</v>
+        <v>910.02</v>
       </c>
       <c r="F44">
-        <v>939.92813999999998</v>
+        <v>909.84938</v>
       </c>
       <c r="G44">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="H44">
-        <v>940.88</v>
+        <v>910.02</v>
       </c>
       <c r="I44">
-        <v>9.4087999999999994</v>
+        <v>9.1001999999999992</v>
       </c>
       <c r="J44">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="K44">
-        <v>3.6</v>
+        <v>4.13</v>
       </c>
       <c r="L44">
-        <v>35.880000000000003</v>
+        <v>11.02</v>
       </c>
       <c r="M44">
-        <v>0.35880000000000001</v>
+        <v>0.11020000000000001</v>
       </c>
       <c r="N44">
-        <v>0.65810000000000002</v>
+        <v>0.15476000000000001</v>
       </c>
       <c r="O44">
-        <v>-0.18944</v>
+        <v>-0.24675</v>
       </c>
       <c r="P44">
-        <v>-2.7789999999999999E-2</v>
+        <v>-9.3149999999999997E-2</v>
       </c>
       <c r="Q44">
-        <v>939.928</v>
+        <v>909.84900000000005</v>
       </c>
       <c r="R44">
-        <v>1115.773333333334</v>
+        <v>1092.719444444444</v>
       </c>
       <c r="S44">
-        <v>11.15773333333334</v>
+        <v>10.927194444444449</v>
       </c>
       <c r="T44">
         <v>702.22222222222217</v>
@@ -4113,10 +4113,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V44">
-        <v>219.77333333333371</v>
+        <v>196.71944444444441</v>
       </c>
       <c r="W44">
-        <v>2.1977333333333369</v>
+        <v>1.967194444444444</v>
       </c>
       <c r="X44">
         <v>5.4039999999999998E-2</v>
@@ -4139,55 +4139,55 @@
         <v>27</v>
       </c>
       <c r="C45">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>946.16</v>
+        <v>922.17</v>
       </c>
       <c r="F45">
-        <v>945.32781</v>
+        <v>921.77922000000001</v>
       </c>
       <c r="G45">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H45">
-        <v>946.16</v>
+        <v>922.17</v>
       </c>
       <c r="I45">
-        <v>9.4616000000000007</v>
+        <v>9.2217000000000002</v>
       </c>
       <c r="J45">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c r="K45">
-        <v>3.39</v>
+        <v>3.92</v>
       </c>
       <c r="L45">
-        <v>37.159999999999997</v>
+        <v>21.17</v>
       </c>
       <c r="M45">
-        <v>0.37159999999999999</v>
+        <v>0.2117</v>
       </c>
       <c r="N45">
-        <v>0.65810000000000002</v>
+        <v>0.45604</v>
       </c>
       <c r="O45">
-        <v>-0.23291999999999999</v>
+        <v>-0.18944</v>
       </c>
       <c r="P45">
-        <v>6.9999999999999999E-4</v>
+        <v>-1.7899999999999999E-2</v>
       </c>
       <c r="Q45">
-        <v>945.32799999999997</v>
+        <v>921.779</v>
       </c>
       <c r="R45">
-        <v>1122.764444444445</v>
+        <v>1175.401111111111</v>
       </c>
       <c r="S45">
-        <v>11.227644444444451</v>
+        <v>11.75401111111111</v>
       </c>
       <c r="T45">
         <v>702.22222222222217</v>
@@ -4196,10 +4196,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V45">
-        <v>226.76444444444459</v>
+        <v>279.40111111111122</v>
       </c>
       <c r="W45">
-        <v>2.267644444444445</v>
+        <v>2.794011111111113</v>
       </c>
       <c r="X45">
         <v>5.4039999999999998E-2</v>
@@ -4222,55 +4222,55 @@
         <v>27</v>
       </c>
       <c r="C46">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E46">
-        <v>951.92</v>
+        <v>931.12</v>
       </c>
       <c r="F46">
-        <v>951.00189</v>
+        <v>930.34742000000006</v>
       </c>
       <c r="G46">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H46">
-        <v>951.92</v>
+        <v>931.12</v>
       </c>
       <c r="I46">
-        <v>9.5191999999999997</v>
+        <v>9.3111999999999995</v>
       </c>
       <c r="J46">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="K46">
-        <v>3.18</v>
+        <v>3.47</v>
       </c>
       <c r="L46">
-        <v>39.92</v>
+        <v>32.119999999999997</v>
       </c>
       <c r="M46">
-        <v>0.3992</v>
+        <v>0.32119999999999999</v>
       </c>
       <c r="N46">
-        <v>0.40476000000000001</v>
+        <v>0.65810000000000002</v>
       </c>
       <c r="O46">
-        <v>-0.18944</v>
+        <v>-0.24675</v>
       </c>
       <c r="P46">
-        <v>-1.145E-2</v>
+        <v>-1.431E-2</v>
       </c>
       <c r="Q46">
-        <v>951.00199999999995</v>
+        <v>930.34699999999998</v>
       </c>
       <c r="R46">
-        <v>1128.9666666666669</v>
+        <v>1202.1255555555549</v>
       </c>
       <c r="S46">
-        <v>11.289666666666671</v>
+        <v>12.02125555555555</v>
       </c>
       <c r="T46">
         <v>702.22222222222217</v>
@@ -4279,10 +4279,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V46">
-        <v>232.9666666666667</v>
+        <v>306.12555555555542</v>
       </c>
       <c r="W46">
-        <v>2.3296666666666672</v>
+        <v>3.0612555555555532</v>
       </c>
       <c r="X46">
         <v>5.4039999999999998E-2</v>
@@ -4305,55 +4305,55 @@
         <v>27</v>
       </c>
       <c r="C47">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>900.4</v>
+        <v>939.47</v>
       </c>
       <c r="F47">
-        <v>900.22553000000005</v>
+        <v>938.43721000000005</v>
       </c>
       <c r="G47">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="H47">
-        <v>900.4</v>
+        <v>939.47</v>
       </c>
       <c r="I47">
-        <v>9.0039999999999996</v>
+        <v>9.3947000000000003</v>
       </c>
       <c r="J47">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="K47">
-        <v>5.33</v>
+        <v>3.37</v>
       </c>
       <c r="L47">
-        <v>4.4000000000000004</v>
+        <v>48.47</v>
       </c>
       <c r="M47">
-        <v>4.3999999999999997E-2</v>
+        <v>0.48470000000000002</v>
       </c>
       <c r="N47">
-        <v>-8.8569999999999996E-2</v>
+        <v>0.45604</v>
       </c>
       <c r="O47">
-        <v>-0.37857000000000002</v>
+        <v>-0.17857000000000001</v>
       </c>
       <c r="P47">
-        <v>-0.20984</v>
+        <v>-2.496E-2</v>
       </c>
       <c r="Q47">
-        <v>900.226</v>
+        <v>938.43700000000001</v>
       </c>
       <c r="R47">
-        <v>931.25555555555547</v>
+        <v>1215.534444444444</v>
       </c>
       <c r="S47">
-        <v>9.312555555555555</v>
+        <v>12.15534444444444</v>
       </c>
       <c r="T47">
         <v>702.22222222222217</v>
@@ -4362,10 +4362,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V47">
-        <v>35.255555555555517</v>
+        <v>319.53444444444409</v>
       </c>
       <c r="W47">
-        <v>0.35255555555555529</v>
+        <v>3.1953444444444421</v>
       </c>
       <c r="X47">
         <v>5.4039999999999998E-2</v>
@@ -4388,55 +4388,55 @@
         <v>27</v>
       </c>
       <c r="C48">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>906.4</v>
+        <v>948.15</v>
       </c>
       <c r="F48">
-        <v>906.05425000000002</v>
+        <v>947.45258000000001</v>
       </c>
       <c r="G48">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H48">
-        <v>906.4</v>
+        <v>948.15</v>
       </c>
       <c r="I48">
-        <v>9.0640000000000001</v>
+        <v>9.4815000000000005</v>
       </c>
       <c r="J48">
-        <v>402</v>
+        <v>331</v>
       </c>
       <c r="K48">
-        <v>4.0199999999999996</v>
+        <v>3.31</v>
       </c>
       <c r="L48">
-        <v>8.4</v>
+        <v>38.15</v>
       </c>
       <c r="M48">
-        <v>8.4000000000000005E-2</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="N48">
-        <v>0.11310000000000001</v>
+        <v>0.45604</v>
       </c>
       <c r="O48">
-        <v>-0.29221000000000003</v>
+        <v>-0.18944</v>
       </c>
       <c r="P48">
-        <v>-8.8020000000000001E-2</v>
+        <v>-8.4499999999999992E-3</v>
       </c>
       <c r="Q48">
-        <v>906.05399999999997</v>
+        <v>947.45299999999997</v>
       </c>
       <c r="R48">
-        <v>1036.5138888888889</v>
+        <v>1248.189444444444</v>
       </c>
       <c r="S48">
-        <v>10.36513888888889</v>
+        <v>12.481894444444441</v>
       </c>
       <c r="T48">
         <v>702.22222222222217</v>
@@ -4445,10 +4445,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V48">
-        <v>140.5138888888888</v>
+        <v>352.18944444444418</v>
       </c>
       <c r="W48">
-        <v>1.405138888888888</v>
+        <v>3.5218944444444422</v>
       </c>
       <c r="X48">
         <v>5.4039999999999998E-2</v>
@@ -4471,55 +4471,55 @@
         <v>27</v>
       </c>
       <c r="C49">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>915.2</v>
+        <v>965.93</v>
       </c>
       <c r="F49">
-        <v>914.67191000000003</v>
+        <v>964.49157000000002</v>
       </c>
       <c r="G49">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="H49">
-        <v>915.2</v>
+        <v>965.93</v>
       </c>
       <c r="I49">
-        <v>9.1519999999999992</v>
+        <v>9.6593</v>
       </c>
       <c r="J49">
-        <v>390</v>
+        <v>318</v>
       </c>
       <c r="K49">
-        <v>3.9</v>
+        <v>3.18</v>
       </c>
       <c r="L49">
-        <v>19.2</v>
+        <v>45.93</v>
       </c>
       <c r="M49">
-        <v>0.192</v>
+        <v>0.45929999999999999</v>
       </c>
       <c r="N49">
-        <v>0.65810000000000002</v>
+        <v>0.45604</v>
       </c>
       <c r="O49">
         <v>-0.18944</v>
       </c>
       <c r="P49">
-        <v>1.32E-3</v>
+        <v>-2.997E-2</v>
       </c>
       <c r="Q49">
-        <v>914.67200000000003</v>
+        <v>964.49199999999996</v>
       </c>
       <c r="R49">
-        <v>1095.5722222222221</v>
+        <v>1280.603333333333</v>
       </c>
       <c r="S49">
-        <v>10.955722222222221</v>
+        <v>12.80603333333333</v>
       </c>
       <c r="T49">
         <v>702.22222222222217</v>
@@ -4528,10 +4528,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V49">
-        <v>199.57222222222239</v>
+        <v>384.60333333333313</v>
       </c>
       <c r="W49">
-        <v>1.995722222222224</v>
+        <v>3.846033333333331</v>
       </c>
       <c r="X49">
         <v>5.4039999999999998E-2</v>
@@ -4554,55 +4554,55 @@
         <v>27</v>
       </c>
       <c r="C50">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>921.9</v>
+        <v>912</v>
       </c>
       <c r="F50">
-        <v>921.17345</v>
+        <v>911.69704000000002</v>
       </c>
       <c r="G50">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="H50">
-        <v>921.9</v>
+        <v>912</v>
       </c>
       <c r="I50">
-        <v>9.2189999999999994</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="J50">
-        <v>362</v>
+        <v>421</v>
       </c>
       <c r="K50">
-        <v>3.62</v>
+        <v>4.21</v>
       </c>
       <c r="L50">
-        <v>23.9</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>0.23899999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="N50">
-        <v>0.45604</v>
+        <v>0.11310000000000001</v>
       </c>
       <c r="O50">
-        <v>-0.18944</v>
+        <v>-0.29221000000000003</v>
       </c>
       <c r="P50">
-        <v>7.9100000000000004E-3</v>
+        <v>-0.12414</v>
       </c>
       <c r="Q50">
-        <v>921.173</v>
+        <v>911.697</v>
       </c>
       <c r="R50">
-        <v>1114.661111111111</v>
+        <v>1120.8222222222221</v>
       </c>
       <c r="S50">
-        <v>11.14661111111111</v>
+        <v>11.20822222222222</v>
       </c>
       <c r="T50">
         <v>702.22222222222217</v>
@@ -4611,10 +4611,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V50">
-        <v>218.6611111111109</v>
+        <v>224.822222222222</v>
       </c>
       <c r="W50">
-        <v>2.1866111111111088</v>
+        <v>2.2482222222222199</v>
       </c>
       <c r="X50">
         <v>5.4039999999999998E-2</v>
@@ -4637,55 +4637,55 @@
         <v>27</v>
       </c>
       <c r="C51">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>928.35</v>
+        <v>925.64</v>
       </c>
       <c r="F51">
-        <v>927.47436000000005</v>
+        <v>924.97304999999994</v>
       </c>
       <c r="G51">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="H51">
-        <v>928.35</v>
+        <v>925.64</v>
       </c>
       <c r="I51">
-        <v>9.2835000000000001</v>
+        <v>9.2563999999999993</v>
       </c>
       <c r="J51">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="K51">
-        <v>3.54</v>
+        <v>3.74</v>
       </c>
       <c r="L51">
-        <v>24.35</v>
+        <v>22.64</v>
       </c>
       <c r="M51">
-        <v>0.24349999999999999</v>
+        <v>0.22639999999999999</v>
       </c>
       <c r="N51">
-        <v>0.65810000000000002</v>
+        <v>0.45604</v>
       </c>
       <c r="O51">
         <v>-0.18944</v>
       </c>
       <c r="P51">
-        <v>3.0200000000000001E-3</v>
+        <v>-4.4850000000000001E-2</v>
       </c>
       <c r="Q51">
-        <v>927.47400000000005</v>
+        <v>924.97299999999996</v>
       </c>
       <c r="R51">
-        <v>1124.2388888888891</v>
+        <v>1215.315555555555</v>
       </c>
       <c r="S51">
-        <v>11.24238888888889</v>
+        <v>12.15315555555555</v>
       </c>
       <c r="T51">
         <v>702.22222222222217</v>
@@ -4694,10 +4694,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V51">
-        <v>228.23888888888871</v>
+        <v>319.31555555555548</v>
       </c>
       <c r="W51">
-        <v>2.282388888888887</v>
+        <v>3.193155555555554</v>
       </c>
       <c r="X51">
         <v>5.4039999999999998E-2</v>
@@ -4720,37 +4720,37 @@
         <v>27</v>
       </c>
       <c r="C52">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>935.9</v>
+        <v>935.36</v>
       </c>
       <c r="F52">
-        <v>935.02211999999997</v>
+        <v>934.33802000000003</v>
       </c>
       <c r="G52">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H52">
-        <v>935.9</v>
+        <v>935.36</v>
       </c>
       <c r="I52">
-        <v>9.359</v>
+        <v>9.3536000000000001</v>
       </c>
       <c r="J52">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="K52">
-        <v>3.65</v>
+        <v>3.39</v>
       </c>
       <c r="L52">
-        <v>29.9</v>
+        <v>28.36</v>
       </c>
       <c r="M52">
-        <v>0.29899999999999999</v>
+        <v>0.28360000000000002</v>
       </c>
       <c r="N52">
         <v>0.45604</v>
@@ -4759,16 +4759,16 @@
         <v>-0.18944</v>
       </c>
       <c r="P52">
-        <v>-3.628E-2</v>
+        <v>-1.7680000000000001E-2</v>
       </c>
       <c r="Q52">
-        <v>935.02200000000005</v>
+        <v>934.33799999999997</v>
       </c>
       <c r="R52">
-        <v>1147.5638888888891</v>
+        <v>1245.857777777778</v>
       </c>
       <c r="S52">
-        <v>11.47563888888889</v>
+        <v>12.45857777777778</v>
       </c>
       <c r="T52">
         <v>702.22222222222217</v>
@@ -4777,10 +4777,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V52">
-        <v>251.5638888888885</v>
+        <v>349.85777777777759</v>
       </c>
       <c r="W52">
-        <v>2.5156388888888852</v>
+        <v>3.498577777777776</v>
       </c>
       <c r="X52">
         <v>5.4039999999999998E-2</v>
@@ -4803,55 +4803,55 @@
         <v>27</v>
       </c>
       <c r="C53">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>949.69998999999996</v>
+        <v>944.4</v>
       </c>
       <c r="F53">
-        <v>948.66207999999995</v>
+        <v>943.50577999999996</v>
       </c>
       <c r="G53">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H53">
-        <v>949.69998999999996</v>
+        <v>944.4</v>
       </c>
       <c r="I53">
-        <v>9.4969999999999999</v>
+        <v>9.4440000000000008</v>
       </c>
       <c r="J53">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="K53">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="L53">
-        <v>37.69999</v>
+        <v>31.4</v>
       </c>
       <c r="M53">
-        <v>0.377</v>
+        <v>0.314</v>
       </c>
       <c r="N53">
         <v>0.45604</v>
       </c>
       <c r="O53">
-        <v>-0.23291999999999999</v>
+        <v>-0.18944</v>
       </c>
       <c r="P53">
-        <v>-3.7539999999999997E-2</v>
+        <v>2.0799999999999998E-3</v>
       </c>
       <c r="Q53">
-        <v>948.66200000000003</v>
+        <v>943.50599999999997</v>
       </c>
       <c r="R53">
-        <v>1170.716666666666</v>
+        <v>1261.182222222222</v>
       </c>
       <c r="S53">
-        <v>11.707166666666661</v>
+        <v>12.611822222222219</v>
       </c>
       <c r="T53">
         <v>702.22222222222217</v>
@@ -4860,10 +4860,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V53">
-        <v>274.71666666666641</v>
+        <v>365.18222222222238</v>
       </c>
       <c r="W53">
-        <v>2.7471666666666632</v>
+        <v>3.6518222222222239</v>
       </c>
       <c r="X53">
         <v>5.4039999999999998E-2</v>
@@ -4886,37 +4886,37 @@
         <v>27</v>
       </c>
       <c r="C54">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E54">
-        <v>956.2</v>
+        <v>953.64</v>
       </c>
       <c r="F54">
-        <v>955.11955</v>
+        <v>952.72302000000002</v>
       </c>
       <c r="G54">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H54">
-        <v>956.2</v>
+        <v>953.64</v>
       </c>
       <c r="I54">
-        <v>9.5619999999999994</v>
+        <v>9.5364000000000004</v>
       </c>
       <c r="J54">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K54">
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
       <c r="L54">
-        <v>45.2</v>
+        <v>35.64</v>
       </c>
       <c r="M54">
-        <v>0.45200000000000001</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="N54">
         <v>0.29752000000000001</v>
@@ -4925,16 +4925,16 @@
         <v>-0.18944</v>
       </c>
       <c r="P54">
-        <v>-1.882E-2</v>
+        <v>-4.9610000000000001E-2</v>
       </c>
       <c r="Q54">
-        <v>955.12</v>
+        <v>952.72299999999996</v>
       </c>
       <c r="R54">
-        <v>1179.455555555556</v>
+        <v>1298.5022222222231</v>
       </c>
       <c r="S54">
-        <v>11.794555555555551</v>
+        <v>12.985022222222231</v>
       </c>
       <c r="T54">
         <v>702.22222222222217</v>
@@ -4943,10 +4943,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V54">
-        <v>283.45555555555552</v>
+        <v>402.5022222222226</v>
       </c>
       <c r="W54">
-        <v>2.8345555555555548</v>
+        <v>4.0250222222222254</v>
       </c>
       <c r="X54">
         <v>5.4039999999999998E-2</v>
@@ -4969,55 +4969,55 @@
         <v>27</v>
       </c>
       <c r="C55">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>962.65</v>
+        <v>973.44</v>
       </c>
       <c r="F55">
-        <v>961.57728999999995</v>
+        <v>972.39496999999994</v>
       </c>
       <c r="G55">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="H55">
-        <v>962.65</v>
+        <v>973.44</v>
       </c>
       <c r="I55">
-        <v>9.6265000000000001</v>
+        <v>9.7344000000000008</v>
       </c>
       <c r="J55">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="K55">
-        <v>3.05</v>
+        <v>3.17</v>
       </c>
       <c r="L55">
-        <v>40.65</v>
+        <v>49.44</v>
       </c>
       <c r="M55">
-        <v>0.40649999999999997</v>
+        <v>0.49440000000000001</v>
       </c>
       <c r="N55">
-        <v>0.44642999999999999</v>
+        <v>0.45604</v>
       </c>
       <c r="O55">
-        <v>-0.23291999999999999</v>
+        <v>-0.18944</v>
       </c>
       <c r="P55">
-        <v>-3.6889999999999999E-2</v>
+        <v>-7.9399999999999991E-3</v>
       </c>
       <c r="Q55">
-        <v>961.577</v>
+        <v>972.39499999999998</v>
       </c>
       <c r="R55">
-        <v>1187.208333333333</v>
+        <v>1335.546666666668</v>
       </c>
       <c r="S55">
-        <v>11.872083333333331</v>
+        <v>13.35546666666667</v>
       </c>
       <c r="T55">
         <v>702.22222222222217</v>
@@ -5026,10 +5026,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V55">
-        <v>291.20833333333297</v>
+        <v>439.54666666666742</v>
       </c>
       <c r="W55">
-        <v>2.9120833333333298</v>
+        <v>4.3954666666666746</v>
       </c>
       <c r="X55">
         <v>5.4039999999999998E-2</v>
@@ -5052,55 +5052,55 @@
         <v>27</v>
       </c>
       <c r="C56">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>901.26</v>
+        <v>914.1</v>
       </c>
       <c r="F56">
-        <v>901.02814999999998</v>
+        <v>913.51092000000006</v>
       </c>
       <c r="G56">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H56">
-        <v>901.26</v>
+        <v>914.1</v>
       </c>
       <c r="I56">
-        <v>9.0126000000000008</v>
+        <v>9.141</v>
       </c>
       <c r="J56">
-        <v>515</v>
+        <v>436.00002000000001</v>
       </c>
       <c r="K56">
-        <v>5.15</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="L56">
-        <v>4.26</v>
+        <v>52.1</v>
       </c>
       <c r="M56">
-        <v>4.2599999999999999E-2</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="N56">
-        <v>-3.4630000000000001E-2</v>
+        <v>0.11310000000000001</v>
       </c>
       <c r="O56">
-        <v>-0.37857000000000002</v>
+        <v>-0.30952000000000002</v>
       </c>
       <c r="P56">
-        <v>-0.19919000000000001</v>
+        <v>-0.13793</v>
       </c>
       <c r="Q56">
-        <v>901.02800000000002</v>
+        <v>913.51099999999997</v>
       </c>
       <c r="R56">
-        <v>938.30666666666673</v>
+        <v>1148.925</v>
       </c>
       <c r="S56">
-        <v>9.3830666666666662</v>
+        <v>11.48925</v>
       </c>
       <c r="T56">
         <v>702.22222222222217</v>
@@ -5109,10 +5109,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V56">
-        <v>42.306666666666693</v>
+        <v>252.92500000000021</v>
       </c>
       <c r="W56">
-        <v>0.42306666666666692</v>
+        <v>2.5292500000000029</v>
       </c>
       <c r="X56">
         <v>5.4039999999999998E-2</v>
@@ -5135,55 +5135,55 @@
         <v>27</v>
       </c>
       <c r="C57">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>908.28</v>
+        <v>928.88</v>
       </c>
       <c r="F57">
-        <v>907.96833000000004</v>
+        <v>928.12895000000003</v>
       </c>
       <c r="G57">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H57">
-        <v>908.28</v>
+        <v>928.88</v>
       </c>
       <c r="I57">
-        <v>9.0828000000000007</v>
+        <v>9.2888000000000002</v>
       </c>
       <c r="J57">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="K57">
-        <v>4.1399999999999997</v>
+        <v>3.72</v>
       </c>
       <c r="L57">
-        <v>10.28</v>
+        <v>25.88</v>
       </c>
       <c r="M57">
-        <v>0.1028</v>
+        <v>0.25879999999999997</v>
       </c>
       <c r="N57">
-        <v>0.15476000000000001</v>
+        <v>0.45604</v>
       </c>
       <c r="O57">
-        <v>-0.24675</v>
+        <v>-0.23291999999999999</v>
       </c>
       <c r="P57">
-        <v>-0.11279</v>
+        <v>-1.941E-2</v>
       </c>
       <c r="Q57">
-        <v>907.96799999999996</v>
+        <v>928.12900000000002</v>
       </c>
       <c r="R57">
-        <v>1064.616666666667</v>
+        <v>1255.23</v>
       </c>
       <c r="S57">
-        <v>10.646166666666669</v>
+        <v>12.552300000000001</v>
       </c>
       <c r="T57">
         <v>702.22222222222217</v>
@@ -5192,10 +5192,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V57">
-        <v>168.61666666666659</v>
+        <v>359.22999999999979</v>
       </c>
       <c r="W57">
-        <v>1.6861666666666659</v>
+        <v>3.5922999999999981</v>
       </c>
       <c r="X57">
         <v>5.4039999999999998E-2</v>
@@ -5218,55 +5218,55 @@
         <v>27</v>
       </c>
       <c r="C58">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E58">
-        <v>918.76</v>
+        <v>939.03</v>
       </c>
       <c r="F58">
-        <v>918.26259000000005</v>
+        <v>938.01880000000006</v>
       </c>
       <c r="G58">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H58">
-        <v>918.76</v>
+        <v>939.03</v>
       </c>
       <c r="I58">
-        <v>9.1875999999999998</v>
+        <v>9.3902999999999999</v>
       </c>
       <c r="J58">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="K58">
-        <v>3.9</v>
+        <v>3.34</v>
       </c>
       <c r="L58">
-        <v>18.760000000000002</v>
+        <v>31.03</v>
       </c>
       <c r="M58">
-        <v>0.18759999999999999</v>
+        <v>0.31030000000000002</v>
       </c>
       <c r="N58">
-        <v>0.45604</v>
+        <v>0.28476000000000001</v>
       </c>
       <c r="O58">
         <v>-0.18944</v>
       </c>
       <c r="P58">
-        <v>-1.0670000000000001E-2</v>
+        <v>-5.9499999999999997E-2</v>
       </c>
       <c r="Q58">
-        <v>918.26300000000003</v>
+        <v>938.01900000000001</v>
       </c>
       <c r="R58">
-        <v>1135.4866666666669</v>
+        <v>1289.5899999999999</v>
       </c>
       <c r="S58">
-        <v>11.35486666666667</v>
+        <v>12.895899999999999</v>
       </c>
       <c r="T58">
         <v>702.22222222222217</v>
@@ -5275,10 +5275,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V58">
-        <v>239.48666666666679</v>
+        <v>393.5900000000002</v>
       </c>
       <c r="W58">
-        <v>2.394866666666668</v>
+        <v>3.935900000000002</v>
       </c>
       <c r="X58">
         <v>5.4039999999999998E-2</v>
@@ -5301,55 +5301,55 @@
         <v>27</v>
       </c>
       <c r="C59">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>926.74</v>
+        <v>949.06</v>
       </c>
       <c r="F59">
-        <v>925.96373000000006</v>
+        <v>948.19469000000004</v>
       </c>
       <c r="G59">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H59">
-        <v>926.74</v>
+        <v>949.06</v>
       </c>
       <c r="I59">
-        <v>9.2674000000000003</v>
+        <v>9.4906000000000006</v>
       </c>
       <c r="J59">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="K59">
-        <v>3.52</v>
+        <v>3.2</v>
       </c>
       <c r="L59">
-        <v>22.74</v>
+        <v>38.06</v>
       </c>
       <c r="M59">
-        <v>0.22739999999999999</v>
+        <v>0.38059999999999999</v>
       </c>
       <c r="N59">
-        <v>0.45604</v>
+        <v>0.28476000000000001</v>
       </c>
       <c r="O59">
         <v>-0.18944</v>
       </c>
       <c r="P59">
-        <v>-1.64E-3</v>
+        <v>-2.334E-2</v>
       </c>
       <c r="Q59">
-        <v>925.96400000000006</v>
+        <v>948.19500000000005</v>
       </c>
       <c r="R59">
-        <v>1158.393333333333</v>
+        <v>1306.83</v>
       </c>
       <c r="S59">
-        <v>11.583933333333331</v>
+        <v>13.068300000000001</v>
       </c>
       <c r="T59">
         <v>702.22222222222217</v>
@@ -5358,10 +5358,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V59">
-        <v>262.39333333333332</v>
+        <v>410.83000000000021</v>
       </c>
       <c r="W59">
-        <v>2.623933333333333</v>
+        <v>4.1083000000000016</v>
       </c>
       <c r="X59">
         <v>5.4039999999999998E-2</v>
@@ -5384,55 +5384,55 @@
         <v>27</v>
       </c>
       <c r="C60">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E60">
-        <v>934.12</v>
+        <v>958.68</v>
       </c>
       <c r="F60">
-        <v>933.25432000000001</v>
+        <v>957.84775999999999</v>
       </c>
       <c r="G60">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="H60">
-        <v>934.12</v>
+        <v>958.68</v>
       </c>
       <c r="I60">
-        <v>9.3412000000000006</v>
+        <v>9.5868000000000002</v>
       </c>
       <c r="J60">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="K60">
-        <v>3.46</v>
+        <v>3.17</v>
       </c>
       <c r="L60">
-        <v>27.12</v>
+        <v>36.68</v>
       </c>
       <c r="M60">
-        <v>0.2712</v>
+        <v>0.36680000000000001</v>
       </c>
       <c r="N60">
         <v>0.45604</v>
       </c>
       <c r="O60">
-        <v>-0.17857000000000001</v>
+        <v>-0.18944</v>
       </c>
       <c r="P60">
-        <v>2.758E-2</v>
+        <v>-5.3600000000000002E-3</v>
       </c>
       <c r="Q60">
-        <v>933.25400000000002</v>
+        <v>957.84799999999996</v>
       </c>
       <c r="R60">
-        <v>1169.886666666667</v>
+        <v>1348.8150000000001</v>
       </c>
       <c r="S60">
-        <v>11.698866666666669</v>
+        <v>13.488149999999999</v>
       </c>
       <c r="T60">
         <v>702.22222222222217</v>
@@ -5441,10 +5441,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V60">
-        <v>273.8866666666666</v>
+        <v>452.81500000000023</v>
       </c>
       <c r="W60">
-        <v>2.738866666666667</v>
+        <v>4.528150000000001</v>
       </c>
       <c r="X60">
         <v>5.4039999999999998E-2</v>
@@ -5467,55 +5467,55 @@
         <v>27</v>
       </c>
       <c r="C61">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="D61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>942.62</v>
+        <v>981.16</v>
       </c>
       <c r="F61">
-        <v>941.76334999999995</v>
+        <v>979.83825000000002</v>
       </c>
       <c r="G61">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="H61">
-        <v>942.62</v>
+        <v>981.16</v>
       </c>
       <c r="I61">
-        <v>9.4261999999999997</v>
+        <v>9.8116000000000003</v>
       </c>
       <c r="J61">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="K61">
-        <v>3.38</v>
+        <v>3</v>
       </c>
       <c r="L61">
-        <v>30.62</v>
+        <v>52.16</v>
       </c>
       <c r="M61">
-        <v>0.30620000000000003</v>
+        <v>0.52159999999999995</v>
       </c>
       <c r="N61">
-        <v>0.28476000000000001</v>
+        <v>0.65810000000000002</v>
       </c>
       <c r="O61">
         <v>-0.18944</v>
       </c>
       <c r="P61">
-        <v>-2.383E-2</v>
+        <v>-3.4200000000000001E-2</v>
       </c>
       <c r="Q61">
-        <v>941.76300000000003</v>
+        <v>979.83799999999997</v>
       </c>
       <c r="R61">
-        <v>1197.8766666666661</v>
+        <v>1390.49</v>
       </c>
       <c r="S61">
-        <v>11.978766666666671</v>
+        <v>13.9049</v>
       </c>
       <c r="T61">
         <v>702.22222222222217</v>
@@ -5524,10 +5524,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V61">
-        <v>301.87666666666638</v>
+        <v>494.48999999999978</v>
       </c>
       <c r="W61">
-        <v>3.0187666666666648</v>
+        <v>4.9448999999999979</v>
       </c>
       <c r="X61">
         <v>5.4039999999999998E-2</v>
@@ -5550,55 +5550,55 @@
         <v>27</v>
       </c>
       <c r="C62">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>957.86</v>
+        <v>915.7</v>
       </c>
       <c r="F62">
-        <v>956.59779000000003</v>
+        <v>915.23275000000001</v>
       </c>
       <c r="G62">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="H62">
-        <v>957.86</v>
+        <v>915.7</v>
       </c>
       <c r="I62">
-        <v>9.5785999999999998</v>
+        <v>9.157</v>
       </c>
       <c r="J62">
-        <v>318</v>
+        <v>413</v>
       </c>
       <c r="K62">
-        <v>3.18</v>
+        <v>4.13</v>
       </c>
       <c r="L62">
-        <v>37.86</v>
+        <v>14.7</v>
       </c>
       <c r="M62">
-        <v>0.37859999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="N62">
-        <v>0.45604</v>
+        <v>0.15476000000000001</v>
       </c>
       <c r="O62">
-        <v>-0.18944</v>
+        <v>-0.29221000000000003</v>
       </c>
       <c r="P62">
-        <v>-9.2700000000000005E-3</v>
+        <v>-0.12695999999999999</v>
       </c>
       <c r="Q62">
-        <v>956.59799999999996</v>
+        <v>915.23299999999995</v>
       </c>
       <c r="R62">
-        <v>1225.6600000000001</v>
+        <v>1177.0277777777781</v>
       </c>
       <c r="S62">
-        <v>12.256600000000001</v>
+        <v>11.77027777777778</v>
       </c>
       <c r="T62">
         <v>702.22222222222217</v>
@@ -5607,10 +5607,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V62">
-        <v>329.65999999999968</v>
+        <v>281.0277777777776</v>
       </c>
       <c r="W62">
-        <v>3.2965999999999971</v>
+        <v>2.8102777777777761</v>
       </c>
       <c r="X62">
         <v>5.4039999999999998E-2</v>
@@ -5633,55 +5633,55 @@
         <v>27</v>
       </c>
       <c r="C63">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="D63">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <v>964.84</v>
+        <v>931.7</v>
       </c>
       <c r="F63">
-        <v>963.58489999999995</v>
+        <v>931.11258999999995</v>
       </c>
       <c r="G63">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H63">
-        <v>964.84</v>
+        <v>931.7</v>
       </c>
       <c r="I63">
-        <v>9.6484000000000005</v>
+        <v>9.3170000000000002</v>
       </c>
       <c r="J63">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="K63">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="L63">
-        <v>45.84</v>
+        <v>21.7</v>
       </c>
       <c r="M63">
-        <v>0.45839999999999997</v>
+        <v>0.217</v>
       </c>
       <c r="N63">
-        <v>0.45604</v>
+        <v>0.38961000000000001</v>
       </c>
       <c r="O63">
         <v>-0.18944</v>
       </c>
       <c r="P63">
-        <v>-2.5489999999999999E-2</v>
+        <v>-5.9409999999999998E-2</v>
       </c>
       <c r="Q63">
-        <v>963.58500000000004</v>
+        <v>931.11300000000006</v>
       </c>
       <c r="R63">
-        <v>1236.1466666666661</v>
+        <v>1295.1444444444451</v>
       </c>
       <c r="S63">
-        <v>12.36146666666666</v>
+        <v>12.95144444444445</v>
       </c>
       <c r="T63">
         <v>702.22222222222217</v>
@@ -5690,10 +5690,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V63">
-        <v>340.14666666666631</v>
+        <v>399.14444444444479</v>
       </c>
       <c r="W63">
-        <v>3.4014666666666629</v>
+        <v>3.9914444444444488</v>
       </c>
       <c r="X63">
         <v>5.4039999999999998E-2</v>
@@ -5716,55 +5716,55 @@
         <v>27</v>
       </c>
       <c r="C64">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E64">
-        <v>971.56</v>
+        <v>942</v>
       </c>
       <c r="F64">
-        <v>970.49618999999996</v>
+        <v>941.29611</v>
       </c>
       <c r="G64">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H64">
-        <v>971.56</v>
+        <v>942</v>
       </c>
       <c r="I64">
-        <v>9.7156000000000002</v>
+        <v>9.42</v>
       </c>
       <c r="J64">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="K64">
-        <v>2.85</v>
+        <v>3.21</v>
       </c>
       <c r="L64">
-        <v>42.56</v>
+        <v>25</v>
       </c>
       <c r="M64">
-        <v>0.42559999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="N64">
-        <v>0.65810000000000002</v>
+        <v>0.45604</v>
       </c>
       <c r="O64">
         <v>-0.18944</v>
       </c>
       <c r="P64">
-        <v>-3.5500000000000002E-3</v>
+        <v>-7.1179999999999993E-2</v>
       </c>
       <c r="Q64">
-        <v>970.49599999999998</v>
+        <v>941.29600000000005</v>
       </c>
       <c r="R64">
-        <v>1245.4499999999989</v>
+        <v>1333.3222222222221</v>
       </c>
       <c r="S64">
-        <v>12.454499999999991</v>
+        <v>13.33322222222222</v>
       </c>
       <c r="T64">
         <v>702.22222222222217</v>
@@ -5773,10 +5773,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V64">
-        <v>349.44999999999942</v>
+        <v>437.32222222222191</v>
       </c>
       <c r="W64">
-        <v>3.4944999999999942</v>
+        <v>4.3732222222222186</v>
       </c>
       <c r="X64">
         <v>5.4039999999999998E-2</v>
@@ -5799,55 +5799,55 @@
         <v>27</v>
       </c>
       <c r="C65">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>901.97</v>
+        <v>952.29998999999998</v>
       </c>
       <c r="F65">
-        <v>901.81637000000001</v>
+        <v>951.51716999999996</v>
       </c>
       <c r="G65">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="H65">
-        <v>901.97</v>
+        <v>952.29998999999998</v>
       </c>
       <c r="I65">
-        <v>9.0197000000000003</v>
+        <v>9.5229999999999997</v>
       </c>
       <c r="J65">
-        <v>550</v>
+        <v>293</v>
       </c>
       <c r="K65">
-        <v>5.5</v>
+        <v>2.93</v>
       </c>
       <c r="L65">
-        <v>4.97</v>
+        <v>32.299990000000001</v>
       </c>
       <c r="M65">
-        <v>4.9700000000000001E-2</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="N65">
-        <v>1.056E-2</v>
+        <v>0.45604</v>
       </c>
       <c r="O65">
-        <v>-0.37857000000000002</v>
+        <v>-0.18944</v>
       </c>
       <c r="P65">
-        <v>-0.20757</v>
+        <v>-6.6479999999999997E-2</v>
       </c>
       <c r="Q65">
-        <v>901.81600000000003</v>
+        <v>951.51700000000005</v>
       </c>
       <c r="R65">
-        <v>945.35777777777787</v>
+        <v>1352.477777777777</v>
       </c>
       <c r="S65">
-        <v>9.4535777777777774</v>
+        <v>13.52477777777777</v>
       </c>
       <c r="T65">
         <v>702.22222222222217</v>
@@ -5856,10 +5856,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V65">
-        <v>49.357777777777819</v>
+        <v>456.47777777777742</v>
       </c>
       <c r="W65">
-        <v>0.49357777777777812</v>
+        <v>4.564777777777774</v>
       </c>
       <c r="X65">
         <v>5.4039999999999998E-2</v>
@@ -5882,55 +5882,55 @@
         <v>27</v>
       </c>
       <c r="C66">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E66">
-        <v>910.02</v>
+        <v>962.9</v>
       </c>
       <c r="F66">
-        <v>909.84938</v>
+        <v>961.96921999999995</v>
       </c>
       <c r="G66">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H66">
-        <v>910.02</v>
+        <v>962.9</v>
       </c>
       <c r="I66">
-        <v>9.1001999999999992</v>
+        <v>9.6289999999999996</v>
       </c>
       <c r="J66">
-        <v>413</v>
+        <v>308</v>
       </c>
       <c r="K66">
-        <v>4.13</v>
+        <v>3.08</v>
       </c>
       <c r="L66">
-        <v>11.02</v>
+        <v>34.9</v>
       </c>
       <c r="M66">
-        <v>0.11020000000000001</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="N66">
-        <v>0.15476000000000001</v>
+        <v>0.45604</v>
       </c>
       <c r="O66">
-        <v>-0.24675</v>
+        <v>-0.17857000000000001</v>
       </c>
       <c r="P66">
-        <v>-9.3149999999999997E-2</v>
+        <v>-1.4200000000000001E-2</v>
       </c>
       <c r="Q66">
-        <v>909.84900000000005</v>
+        <v>961.96900000000005</v>
       </c>
       <c r="R66">
-        <v>1092.719444444444</v>
+        <v>1399.1277777777771</v>
       </c>
       <c r="S66">
-        <v>10.927194444444449</v>
+        <v>13.991277777777769</v>
       </c>
       <c r="T66">
         <v>702.22222222222217</v>
@@ -5939,10 +5939,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V66">
-        <v>196.71944444444441</v>
+        <v>503.12777777777688</v>
       </c>
       <c r="W66">
-        <v>1.967194444444444</v>
+        <v>5.0312777777777704</v>
       </c>
       <c r="X66">
         <v>5.4039999999999998E-2</v>
@@ -5965,37 +5965,37 @@
         <v>27</v>
       </c>
       <c r="C67">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E67">
-        <v>922.17</v>
+        <v>987.7</v>
       </c>
       <c r="F67">
-        <v>921.77922000000001</v>
+        <v>986.61153999999999</v>
       </c>
       <c r="G67">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="H67">
-        <v>922.17</v>
+        <v>987.7</v>
       </c>
       <c r="I67">
-        <v>9.2217000000000002</v>
+        <v>9.8770000000000007</v>
       </c>
       <c r="J67">
-        <v>392</v>
+        <v>289</v>
       </c>
       <c r="K67">
-        <v>3.92</v>
+        <v>2.89</v>
       </c>
       <c r="L67">
-        <v>21.17</v>
+        <v>49.7</v>
       </c>
       <c r="M67">
-        <v>0.2117</v>
+        <v>0.497</v>
       </c>
       <c r="N67">
         <v>0.45604</v>
@@ -6004,16 +6004,16 @@
         <v>-0.18944</v>
       </c>
       <c r="P67">
-        <v>-1.7899999999999999E-2</v>
+        <v>-4.6519999999999999E-2</v>
       </c>
       <c r="Q67">
-        <v>921.779</v>
+        <v>986.61199999999997</v>
       </c>
       <c r="R67">
-        <v>1175.401111111111</v>
+        <v>1445.4333333333329</v>
       </c>
       <c r="S67">
-        <v>11.75401111111111</v>
+        <v>14.454333333333331</v>
       </c>
       <c r="T67">
         <v>702.22222222222217</v>
@@ -6022,10 +6022,10 @@
         <v>7.0222222222222221</v>
       </c>
       <c r="V67">
-        <v>279.40111111111122</v>
+        <v>549.43333333333271</v>
       </c>
       <c r="W67">
-        <v>2.794011111111113</v>
+        <v>5.4943333333333264</v>
       </c>
       <c r="X67">
         <v>5.4039999999999998E-2</v>
@@ -6037,2745 +6037,6 @@
         <v>-0.18817</v>
       </c>
       <c r="AA67">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>100</v>
-      </c>
-      <c r="B68" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D68">
-        <v>5</v>
-      </c>
-      <c r="E68">
-        <v>931.12</v>
-      </c>
-      <c r="F68">
-        <v>930.34742000000006</v>
-      </c>
-      <c r="G68">
-        <v>111</v>
-      </c>
-      <c r="H68">
-        <v>931.12</v>
-      </c>
-      <c r="I68">
-        <v>9.3111999999999995</v>
-      </c>
-      <c r="J68">
-        <v>347</v>
-      </c>
-      <c r="K68">
-        <v>3.47</v>
-      </c>
-      <c r="L68">
-        <v>32.119999999999997</v>
-      </c>
-      <c r="M68">
-        <v>0.32119999999999999</v>
-      </c>
-      <c r="N68">
-        <v>0.65810000000000002</v>
-      </c>
-      <c r="O68">
-        <v>-0.24675</v>
-      </c>
-      <c r="P68">
-        <v>-1.431E-2</v>
-      </c>
-      <c r="Q68">
-        <v>930.34699999999998</v>
-      </c>
-      <c r="R68">
-        <v>1202.1255555555549</v>
-      </c>
-      <c r="S68">
-        <v>12.02125555555555</v>
-      </c>
-      <c r="T68">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U68">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V68">
-        <v>306.12555555555542</v>
-      </c>
-      <c r="W68">
-        <v>3.0612555555555532</v>
-      </c>
-      <c r="X68">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y68">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z68">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA68">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>100</v>
-      </c>
-      <c r="B69" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D69">
-        <v>6</v>
-      </c>
-      <c r="E69">
-        <v>939.47</v>
-      </c>
-      <c r="F69">
-        <v>938.43721000000005</v>
-      </c>
-      <c r="G69">
-        <v>129</v>
-      </c>
-      <c r="H69">
-        <v>939.47</v>
-      </c>
-      <c r="I69">
-        <v>9.3947000000000003</v>
-      </c>
-      <c r="J69">
-        <v>337</v>
-      </c>
-      <c r="K69">
-        <v>3.37</v>
-      </c>
-      <c r="L69">
-        <v>48.47</v>
-      </c>
-      <c r="M69">
-        <v>0.48470000000000002</v>
-      </c>
-      <c r="N69">
-        <v>0.45604</v>
-      </c>
-      <c r="O69">
-        <v>-0.17857000000000001</v>
-      </c>
-      <c r="P69">
-        <v>-2.496E-2</v>
-      </c>
-      <c r="Q69">
-        <v>938.43700000000001</v>
-      </c>
-      <c r="R69">
-        <v>1215.534444444444</v>
-      </c>
-      <c r="S69">
-        <v>12.15534444444444</v>
-      </c>
-      <c r="T69">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U69">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V69">
-        <v>319.53444444444409</v>
-      </c>
-      <c r="W69">
-        <v>3.1953444444444421</v>
-      </c>
-      <c r="X69">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y69">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z69">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA69">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>100</v>
-      </c>
-      <c r="B70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D70">
-        <v>7</v>
-      </c>
-      <c r="E70">
-        <v>948.15</v>
-      </c>
-      <c r="F70">
-        <v>947.45258000000001</v>
-      </c>
-      <c r="G70">
-        <v>112</v>
-      </c>
-      <c r="H70">
-        <v>948.15</v>
-      </c>
-      <c r="I70">
-        <v>9.4815000000000005</v>
-      </c>
-      <c r="J70">
-        <v>331</v>
-      </c>
-      <c r="K70">
-        <v>3.31</v>
-      </c>
-      <c r="L70">
-        <v>38.15</v>
-      </c>
-      <c r="M70">
-        <v>0.38150000000000001</v>
-      </c>
-      <c r="N70">
-        <v>0.45604</v>
-      </c>
-      <c r="O70">
-        <v>-0.18944</v>
-      </c>
-      <c r="P70">
-        <v>-8.4499999999999992E-3</v>
-      </c>
-      <c r="Q70">
-        <v>947.45299999999997</v>
-      </c>
-      <c r="R70">
-        <v>1248.189444444444</v>
-      </c>
-      <c r="S70">
-        <v>12.481894444444441</v>
-      </c>
-      <c r="T70">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U70">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V70">
-        <v>352.18944444444418</v>
-      </c>
-      <c r="W70">
-        <v>3.5218944444444422</v>
-      </c>
-      <c r="X70">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y70">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z70">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA70">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>100</v>
-      </c>
-      <c r="B71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D71">
-        <v>8</v>
-      </c>
-      <c r="E71">
-        <v>965.93</v>
-      </c>
-      <c r="F71">
-        <v>964.49157000000002</v>
-      </c>
-      <c r="G71">
-        <v>117</v>
-      </c>
-      <c r="H71">
-        <v>965.93</v>
-      </c>
-      <c r="I71">
-        <v>9.6593</v>
-      </c>
-      <c r="J71">
-        <v>318</v>
-      </c>
-      <c r="K71">
-        <v>3.18</v>
-      </c>
-      <c r="L71">
-        <v>45.93</v>
-      </c>
-      <c r="M71">
-        <v>0.45929999999999999</v>
-      </c>
-      <c r="N71">
-        <v>0.45604</v>
-      </c>
-      <c r="O71">
-        <v>-0.18944</v>
-      </c>
-      <c r="P71">
-        <v>-2.997E-2</v>
-      </c>
-      <c r="Q71">
-        <v>964.49199999999996</v>
-      </c>
-      <c r="R71">
-        <v>1280.603333333333</v>
-      </c>
-      <c r="S71">
-        <v>12.80603333333333</v>
-      </c>
-      <c r="T71">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U71">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V71">
-        <v>384.60333333333313</v>
-      </c>
-      <c r="W71">
-        <v>3.846033333333331</v>
-      </c>
-      <c r="X71">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y71">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z71">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA71">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>100</v>
-      </c>
-      <c r="B72" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D72">
-        <v>9</v>
-      </c>
-      <c r="E72">
-        <v>973</v>
-      </c>
-      <c r="F72">
-        <v>971.83239000000003</v>
-      </c>
-      <c r="G72">
-        <v>100</v>
-      </c>
-      <c r="H72">
-        <v>973</v>
-      </c>
-      <c r="I72">
-        <v>9.73</v>
-      </c>
-      <c r="J72">
-        <v>310</v>
-      </c>
-      <c r="K72">
-        <v>3.1</v>
-      </c>
-      <c r="L72">
-        <v>51</v>
-      </c>
-      <c r="M72">
-        <v>0.51</v>
-      </c>
-      <c r="N72">
-        <v>0.45604</v>
-      </c>
-      <c r="O72">
-        <v>-0.18944</v>
-      </c>
-      <c r="P72">
-        <v>-2.06E-2</v>
-      </c>
-      <c r="Q72">
-        <v>971.83199999999999</v>
-      </c>
-      <c r="R72">
-        <v>1292.837777777778</v>
-      </c>
-      <c r="S72">
-        <v>12.928377777777779</v>
-      </c>
-      <c r="T72">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U72">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V72">
-        <v>396.83777777777811</v>
-      </c>
-      <c r="W72">
-        <v>3.9683777777777811</v>
-      </c>
-      <c r="X72">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y72">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z72">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA72">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>100</v>
-      </c>
-      <c r="B73" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D73">
-        <v>10</v>
-      </c>
-      <c r="E73">
-        <v>979.33</v>
-      </c>
-      <c r="F73">
-        <v>978.30741</v>
-      </c>
-      <c r="G73">
-        <v>95</v>
-      </c>
-      <c r="H73">
-        <v>979.33</v>
-      </c>
-      <c r="I73">
-        <v>9.7933000000000003</v>
-      </c>
-      <c r="J73">
-        <v>277</v>
-      </c>
-      <c r="K73">
-        <v>2.77</v>
-      </c>
-      <c r="L73">
-        <v>42.33</v>
-      </c>
-      <c r="M73">
-        <v>0.42330000000000001</v>
-      </c>
-      <c r="N73">
-        <v>0.28476000000000001</v>
-      </c>
-      <c r="O73">
-        <v>-0.18944</v>
-      </c>
-      <c r="P73">
-        <v>-4.4720000000000003E-2</v>
-      </c>
-      <c r="Q73">
-        <v>978.30700000000002</v>
-      </c>
-      <c r="R73">
-        <v>1303.6916666666671</v>
-      </c>
-      <c r="S73">
-        <v>13.03691666666667</v>
-      </c>
-      <c r="T73">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U73">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V73">
-        <v>407.69166666666672</v>
-      </c>
-      <c r="W73">
-        <v>4.0769166666666674</v>
-      </c>
-      <c r="X73">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y73">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z73">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA73">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>100</v>
-      </c>
-      <c r="B74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74">
-        <v>0.08</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74">
-        <v>902.72</v>
-      </c>
-      <c r="F74">
-        <v>902.59005000000002</v>
-      </c>
-      <c r="G74">
-        <v>71</v>
-      </c>
-      <c r="H74">
-        <v>902.72</v>
-      </c>
-      <c r="I74">
-        <v>9.0272000000000006</v>
-      </c>
-      <c r="J74">
-        <v>515</v>
-      </c>
-      <c r="K74">
-        <v>5.15</v>
-      </c>
-      <c r="L74">
-        <v>4.72</v>
-      </c>
-      <c r="M74">
-        <v>4.7199999999999999E-2</v>
-      </c>
-      <c r="N74">
-        <v>0.24476000000000001</v>
-      </c>
-      <c r="O74">
-        <v>-0.37857000000000002</v>
-      </c>
-      <c r="P74">
-        <v>-0.17541999999999999</v>
-      </c>
-      <c r="Q74">
-        <v>902.59</v>
-      </c>
-      <c r="R74">
-        <v>952.4088888888889</v>
-      </c>
-      <c r="S74">
-        <v>9.5240888888888904</v>
-      </c>
-      <c r="T74">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U74">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V74">
-        <v>56.408888888888868</v>
-      </c>
-      <c r="W74">
-        <v>0.56408888888888875</v>
-      </c>
-      <c r="X74">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y74">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z74">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA74">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>100</v>
-      </c>
-      <c r="B75" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75">
-        <v>0.08</v>
-      </c>
-      <c r="D75">
-        <v>3</v>
-      </c>
-      <c r="E75">
-        <v>912</v>
-      </c>
-      <c r="F75">
-        <v>911.69704000000002</v>
-      </c>
-      <c r="G75">
-        <v>122</v>
-      </c>
-      <c r="H75">
-        <v>912</v>
-      </c>
-      <c r="I75">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="J75">
-        <v>421</v>
-      </c>
-      <c r="K75">
-        <v>4.21</v>
-      </c>
-      <c r="L75">
-        <v>13</v>
-      </c>
-      <c r="M75">
-        <v>0.13</v>
-      </c>
-      <c r="N75">
-        <v>0.11310000000000001</v>
-      </c>
-      <c r="O75">
-        <v>-0.29221000000000003</v>
-      </c>
-      <c r="P75">
-        <v>-0.12414</v>
-      </c>
-      <c r="Q75">
-        <v>911.697</v>
-      </c>
-      <c r="R75">
-        <v>1120.8222222222221</v>
-      </c>
-      <c r="S75">
-        <v>11.20822222222222</v>
-      </c>
-      <c r="T75">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U75">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V75">
-        <v>224.822222222222</v>
-      </c>
-      <c r="W75">
-        <v>2.2482222222222199</v>
-      </c>
-      <c r="X75">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y75">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z75">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA75">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>100</v>
-      </c>
-      <c r="B76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76">
-        <v>0.08</v>
-      </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-      <c r="E76">
-        <v>925.64</v>
-      </c>
-      <c r="F76">
-        <v>924.97304999999994</v>
-      </c>
-      <c r="G76">
-        <v>125</v>
-      </c>
-      <c r="H76">
-        <v>925.64</v>
-      </c>
-      <c r="I76">
-        <v>9.2563999999999993</v>
-      </c>
-      <c r="J76">
-        <v>374</v>
-      </c>
-      <c r="K76">
-        <v>3.74</v>
-      </c>
-      <c r="L76">
-        <v>22.64</v>
-      </c>
-      <c r="M76">
-        <v>0.22639999999999999</v>
-      </c>
-      <c r="N76">
-        <v>0.45604</v>
-      </c>
-      <c r="O76">
-        <v>-0.18944</v>
-      </c>
-      <c r="P76">
-        <v>-4.4850000000000001E-2</v>
-      </c>
-      <c r="Q76">
-        <v>924.97299999999996</v>
-      </c>
-      <c r="R76">
-        <v>1215.315555555555</v>
-      </c>
-      <c r="S76">
-        <v>12.15315555555555</v>
-      </c>
-      <c r="T76">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U76">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V76">
-        <v>319.31555555555548</v>
-      </c>
-      <c r="W76">
-        <v>3.193155555555554</v>
-      </c>
-      <c r="X76">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y76">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z76">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA76">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>100</v>
-      </c>
-      <c r="B77" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77">
-        <v>0.08</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-      <c r="E77">
-        <v>935.36</v>
-      </c>
-      <c r="F77">
-        <v>934.33802000000003</v>
-      </c>
-      <c r="G77">
-        <v>122</v>
-      </c>
-      <c r="H77">
-        <v>935.36</v>
-      </c>
-      <c r="I77">
-        <v>9.3536000000000001</v>
-      </c>
-      <c r="J77">
-        <v>339</v>
-      </c>
-      <c r="K77">
-        <v>3.39</v>
-      </c>
-      <c r="L77">
-        <v>28.36</v>
-      </c>
-      <c r="M77">
-        <v>0.28360000000000002</v>
-      </c>
-      <c r="N77">
-        <v>0.45604</v>
-      </c>
-      <c r="O77">
-        <v>-0.18944</v>
-      </c>
-      <c r="P77">
-        <v>-1.7680000000000001E-2</v>
-      </c>
-      <c r="Q77">
-        <v>934.33799999999997</v>
-      </c>
-      <c r="R77">
-        <v>1245.857777777778</v>
-      </c>
-      <c r="S77">
-        <v>12.45857777777778</v>
-      </c>
-      <c r="T77">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U77">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V77">
-        <v>349.85777777777759</v>
-      </c>
-      <c r="W77">
-        <v>3.498577777777776</v>
-      </c>
-      <c r="X77">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y77">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z77">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA77">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>100</v>
-      </c>
-      <c r="B78" t="s">
-        <v>27</v>
-      </c>
-      <c r="C78">
-        <v>0.08</v>
-      </c>
-      <c r="D78">
-        <v>6</v>
-      </c>
-      <c r="E78">
-        <v>944.4</v>
-      </c>
-      <c r="F78">
-        <v>943.50577999999996</v>
-      </c>
-      <c r="G78">
-        <v>129</v>
-      </c>
-      <c r="H78">
-        <v>944.4</v>
-      </c>
-      <c r="I78">
-        <v>9.4440000000000008</v>
-      </c>
-      <c r="J78">
-        <v>335</v>
-      </c>
-      <c r="K78">
-        <v>3.35</v>
-      </c>
-      <c r="L78">
-        <v>31.4</v>
-      </c>
-      <c r="M78">
-        <v>0.314</v>
-      </c>
-      <c r="N78">
-        <v>0.45604</v>
-      </c>
-      <c r="O78">
-        <v>-0.18944</v>
-      </c>
-      <c r="P78">
-        <v>2.0799999999999998E-3</v>
-      </c>
-      <c r="Q78">
-        <v>943.50599999999997</v>
-      </c>
-      <c r="R78">
-        <v>1261.182222222222</v>
-      </c>
-      <c r="S78">
-        <v>12.611822222222219</v>
-      </c>
-      <c r="T78">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U78">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V78">
-        <v>365.18222222222238</v>
-      </c>
-      <c r="W78">
-        <v>3.6518222222222239</v>
-      </c>
-      <c r="X78">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y78">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z78">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA78">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>100</v>
-      </c>
-      <c r="B79" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79">
-        <v>0.08</v>
-      </c>
-      <c r="D79">
-        <v>7</v>
-      </c>
-      <c r="E79">
-        <v>953.64</v>
-      </c>
-      <c r="F79">
-        <v>952.72302000000002</v>
-      </c>
-      <c r="G79">
-        <v>119</v>
-      </c>
-      <c r="H79">
-        <v>953.64</v>
-      </c>
-      <c r="I79">
-        <v>9.5364000000000004</v>
-      </c>
-      <c r="J79">
-        <v>326</v>
-      </c>
-      <c r="K79">
-        <v>3.26</v>
-      </c>
-      <c r="L79">
-        <v>35.64</v>
-      </c>
-      <c r="M79">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="N79">
-        <v>0.29752000000000001</v>
-      </c>
-      <c r="O79">
-        <v>-0.18944</v>
-      </c>
-      <c r="P79">
-        <v>-4.9610000000000001E-2</v>
-      </c>
-      <c r="Q79">
-        <v>952.72299999999996</v>
-      </c>
-      <c r="R79">
-        <v>1298.5022222222231</v>
-      </c>
-      <c r="S79">
-        <v>12.985022222222231</v>
-      </c>
-      <c r="T79">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U79">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V79">
-        <v>402.5022222222226</v>
-      </c>
-      <c r="W79">
-        <v>4.0250222222222254</v>
-      </c>
-      <c r="X79">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y79">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z79">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA79">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>100</v>
-      </c>
-      <c r="B80" t="s">
-        <v>27</v>
-      </c>
-      <c r="C80">
-        <v>0.08</v>
-      </c>
-      <c r="D80">
-        <v>8</v>
-      </c>
-      <c r="E80">
-        <v>973.44</v>
-      </c>
-      <c r="F80">
-        <v>972.39496999999994</v>
-      </c>
-      <c r="G80">
-        <v>102</v>
-      </c>
-      <c r="H80">
-        <v>973.44</v>
-      </c>
-      <c r="I80">
-        <v>9.7344000000000008</v>
-      </c>
-      <c r="J80">
-        <v>317</v>
-      </c>
-      <c r="K80">
-        <v>3.17</v>
-      </c>
-      <c r="L80">
-        <v>49.44</v>
-      </c>
-      <c r="M80">
-        <v>0.49440000000000001</v>
-      </c>
-      <c r="N80">
-        <v>0.45604</v>
-      </c>
-      <c r="O80">
-        <v>-0.18944</v>
-      </c>
-      <c r="P80">
-        <v>-7.9399999999999991E-3</v>
-      </c>
-      <c r="Q80">
-        <v>972.39499999999998</v>
-      </c>
-      <c r="R80">
-        <v>1335.546666666668</v>
-      </c>
-      <c r="S80">
-        <v>13.35546666666667</v>
-      </c>
-      <c r="T80">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U80">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V80">
-        <v>439.54666666666742</v>
-      </c>
-      <c r="W80">
-        <v>4.3954666666666746</v>
-      </c>
-      <c r="X80">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y80">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z80">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA80">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>100</v>
-      </c>
-      <c r="B81" t="s">
-        <v>27</v>
-      </c>
-      <c r="C81">
-        <v>0.08</v>
-      </c>
-      <c r="D81">
-        <v>9</v>
-      </c>
-      <c r="E81">
-        <v>980.92</v>
-      </c>
-      <c r="F81">
-        <v>979.80008999999995</v>
-      </c>
-      <c r="G81">
-        <v>106</v>
-      </c>
-      <c r="H81">
-        <v>980.92</v>
-      </c>
-      <c r="I81">
-        <v>9.8092000000000006</v>
-      </c>
-      <c r="J81">
-        <v>308</v>
-      </c>
-      <c r="K81">
-        <v>3.08</v>
-      </c>
-      <c r="L81">
-        <v>55.92</v>
-      </c>
-      <c r="M81">
-        <v>0.55920000000000003</v>
-      </c>
-      <c r="N81">
-        <v>0.28476000000000001</v>
-      </c>
-      <c r="O81">
-        <v>-0.18944</v>
-      </c>
-      <c r="P81">
-        <v>-4.0939999999999997E-2</v>
-      </c>
-      <c r="Q81">
-        <v>979.8</v>
-      </c>
-      <c r="R81">
-        <v>1349.528888888889</v>
-      </c>
-      <c r="S81">
-        <v>13.49528888888889</v>
-      </c>
-      <c r="T81">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U81">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V81">
-        <v>453.52888888888913</v>
-      </c>
-      <c r="W81">
-        <v>4.5352888888888909</v>
-      </c>
-      <c r="X81">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y81">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z81">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA81">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>100</v>
-      </c>
-      <c r="B82" t="s">
-        <v>27</v>
-      </c>
-      <c r="C82">
-        <v>0.08</v>
-      </c>
-      <c r="D82">
-        <v>10</v>
-      </c>
-      <c r="E82">
-        <v>986.56</v>
-      </c>
-      <c r="F82">
-        <v>985.52733999999998</v>
-      </c>
-      <c r="G82">
-        <v>100</v>
-      </c>
-      <c r="H82">
-        <v>986.56</v>
-      </c>
-      <c r="I82">
-        <v>9.8656000000000006</v>
-      </c>
-      <c r="J82">
-        <v>278</v>
-      </c>
-      <c r="K82">
-        <v>2.78</v>
-      </c>
-      <c r="L82">
-        <v>45.56</v>
-      </c>
-      <c r="M82">
-        <v>0.4556</v>
-      </c>
-      <c r="N82">
-        <v>0.45604</v>
-      </c>
-      <c r="O82">
-        <v>-0.13689999999999999</v>
-      </c>
-      <c r="P82">
-        <v>-4.8529999999999997E-2</v>
-      </c>
-      <c r="Q82">
-        <v>985.52700000000004</v>
-      </c>
-      <c r="R82">
-        <v>1361.9333333333329</v>
-      </c>
-      <c r="S82">
-        <v>13.619333333333341</v>
-      </c>
-      <c r="T82">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U82">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V82">
-        <v>465.93333333333339</v>
-      </c>
-      <c r="W82">
-        <v>4.6593333333333344</v>
-      </c>
-      <c r="X82">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y82">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z82">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA82">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>100</v>
-      </c>
-      <c r="B83" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83">
-        <v>0.09</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83">
-        <v>903.47</v>
-      </c>
-      <c r="F83">
-        <v>903.34907999999996</v>
-      </c>
-      <c r="G83">
-        <v>81</v>
-      </c>
-      <c r="H83">
-        <v>903.47</v>
-      </c>
-      <c r="I83">
-        <v>9.0347000000000008</v>
-      </c>
-      <c r="J83">
-        <v>524</v>
-      </c>
-      <c r="K83">
-        <v>5.24</v>
-      </c>
-      <c r="L83">
-        <v>5.47</v>
-      </c>
-      <c r="M83">
-        <v>5.4699999999999999E-2</v>
-      </c>
-      <c r="N83">
-        <v>-3.4630000000000001E-2</v>
-      </c>
-      <c r="O83">
-        <v>-0.45489000000000002</v>
-      </c>
-      <c r="P83">
-        <v>-0.19828999999999999</v>
-      </c>
-      <c r="Q83">
-        <v>903.34900000000005</v>
-      </c>
-      <c r="R83">
-        <v>959.45999999999992</v>
-      </c>
-      <c r="S83">
-        <v>9.5945999999999998</v>
-      </c>
-      <c r="T83">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U83">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V83">
-        <v>63.460000000000008</v>
-      </c>
-      <c r="W83">
-        <v>0.63460000000000016</v>
-      </c>
-      <c r="X83">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y83">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z83">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA83">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>100</v>
-      </c>
-      <c r="B84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C84">
-        <v>0.09</v>
-      </c>
-      <c r="D84">
-        <v>3</v>
-      </c>
-      <c r="E84">
-        <v>914.1</v>
-      </c>
-      <c r="F84">
-        <v>913.51092000000006</v>
-      </c>
-      <c r="G84">
-        <v>93</v>
-      </c>
-      <c r="H84">
-        <v>914.1</v>
-      </c>
-      <c r="I84">
-        <v>9.141</v>
-      </c>
-      <c r="J84">
-        <v>436.00002000000001</v>
-      </c>
-      <c r="K84">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="L84">
-        <v>52.1</v>
-      </c>
-      <c r="M84">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="N84">
-        <v>0.11310000000000001</v>
-      </c>
-      <c r="O84">
-        <v>-0.30952000000000002</v>
-      </c>
-      <c r="P84">
-        <v>-0.13793</v>
-      </c>
-      <c r="Q84">
-        <v>913.51099999999997</v>
-      </c>
-      <c r="R84">
-        <v>1148.925</v>
-      </c>
-      <c r="S84">
-        <v>11.48925</v>
-      </c>
-      <c r="T84">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U84">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V84">
-        <v>252.92500000000021</v>
-      </c>
-      <c r="W84">
-        <v>2.5292500000000029</v>
-      </c>
-      <c r="X84">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y84">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z84">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA84">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>100</v>
-      </c>
-      <c r="B85" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85">
-        <v>0.09</v>
-      </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-      <c r="E85">
-        <v>928.88</v>
-      </c>
-      <c r="F85">
-        <v>928.12895000000003</v>
-      </c>
-      <c r="G85">
-        <v>125</v>
-      </c>
-      <c r="H85">
-        <v>928.88</v>
-      </c>
-      <c r="I85">
-        <v>9.2888000000000002</v>
-      </c>
-      <c r="J85">
-        <v>372</v>
-      </c>
-      <c r="K85">
-        <v>3.72</v>
-      </c>
-      <c r="L85">
-        <v>25.88</v>
-      </c>
-      <c r="M85">
-        <v>0.25879999999999997</v>
-      </c>
-      <c r="N85">
-        <v>0.45604</v>
-      </c>
-      <c r="O85">
-        <v>-0.23291999999999999</v>
-      </c>
-      <c r="P85">
-        <v>-1.941E-2</v>
-      </c>
-      <c r="Q85">
-        <v>928.12900000000002</v>
-      </c>
-      <c r="R85">
-        <v>1255.23</v>
-      </c>
-      <c r="S85">
-        <v>12.552300000000001</v>
-      </c>
-      <c r="T85">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U85">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V85">
-        <v>359.22999999999979</v>
-      </c>
-      <c r="W85">
-        <v>3.5922999999999981</v>
-      </c>
-      <c r="X85">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y85">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z85">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA85">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>100</v>
-      </c>
-      <c r="B86" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86">
-        <v>0.09</v>
-      </c>
-      <c r="D86">
-        <v>5</v>
-      </c>
-      <c r="E86">
-        <v>939.03</v>
-      </c>
-      <c r="F86">
-        <v>938.01880000000006</v>
-      </c>
-      <c r="G86">
-        <v>131</v>
-      </c>
-      <c r="H86">
-        <v>939.03</v>
-      </c>
-      <c r="I86">
-        <v>9.3902999999999999</v>
-      </c>
-      <c r="J86">
-        <v>334</v>
-      </c>
-      <c r="K86">
-        <v>3.34</v>
-      </c>
-      <c r="L86">
-        <v>31.03</v>
-      </c>
-      <c r="M86">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="N86">
-        <v>0.28476000000000001</v>
-      </c>
-      <c r="O86">
-        <v>-0.18944</v>
-      </c>
-      <c r="P86">
-        <v>-5.9499999999999997E-2</v>
-      </c>
-      <c r="Q86">
-        <v>938.01900000000001</v>
-      </c>
-      <c r="R86">
-        <v>1289.5899999999999</v>
-      </c>
-      <c r="S86">
-        <v>12.895899999999999</v>
-      </c>
-      <c r="T86">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U86">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V86">
-        <v>393.5900000000002</v>
-      </c>
-      <c r="W86">
-        <v>3.935900000000002</v>
-      </c>
-      <c r="X86">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y86">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z86">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA86">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>100</v>
-      </c>
-      <c r="B87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87">
-        <v>0.09</v>
-      </c>
-      <c r="D87">
-        <v>6</v>
-      </c>
-      <c r="E87">
-        <v>949.06</v>
-      </c>
-      <c r="F87">
-        <v>948.19469000000004</v>
-      </c>
-      <c r="G87">
-        <v>129</v>
-      </c>
-      <c r="H87">
-        <v>949.06</v>
-      </c>
-      <c r="I87">
-        <v>9.4906000000000006</v>
-      </c>
-      <c r="J87">
-        <v>320</v>
-      </c>
-      <c r="K87">
-        <v>3.2</v>
-      </c>
-      <c r="L87">
-        <v>38.06</v>
-      </c>
-      <c r="M87">
-        <v>0.38059999999999999</v>
-      </c>
-      <c r="N87">
-        <v>0.28476000000000001</v>
-      </c>
-      <c r="O87">
-        <v>-0.18944</v>
-      </c>
-      <c r="P87">
-        <v>-2.334E-2</v>
-      </c>
-      <c r="Q87">
-        <v>948.19500000000005</v>
-      </c>
-      <c r="R87">
-        <v>1306.83</v>
-      </c>
-      <c r="S87">
-        <v>13.068300000000001</v>
-      </c>
-      <c r="T87">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U87">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V87">
-        <v>410.83000000000021</v>
-      </c>
-      <c r="W87">
-        <v>4.1083000000000016</v>
-      </c>
-      <c r="X87">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y87">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z87">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA87">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>100</v>
-      </c>
-      <c r="B88" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88">
-        <v>0.09</v>
-      </c>
-      <c r="D88">
-        <v>7</v>
-      </c>
-      <c r="E88">
-        <v>958.68</v>
-      </c>
-      <c r="F88">
-        <v>957.84775999999999</v>
-      </c>
-      <c r="G88">
-        <v>134</v>
-      </c>
-      <c r="H88">
-        <v>958.68</v>
-      </c>
-      <c r="I88">
-        <v>9.5868000000000002</v>
-      </c>
-      <c r="J88">
-        <v>317</v>
-      </c>
-      <c r="K88">
-        <v>3.17</v>
-      </c>
-      <c r="L88">
-        <v>36.68</v>
-      </c>
-      <c r="M88">
-        <v>0.36680000000000001</v>
-      </c>
-      <c r="N88">
-        <v>0.45604</v>
-      </c>
-      <c r="O88">
-        <v>-0.18944</v>
-      </c>
-      <c r="P88">
-        <v>-5.3600000000000002E-3</v>
-      </c>
-      <c r="Q88">
-        <v>957.84799999999996</v>
-      </c>
-      <c r="R88">
-        <v>1348.8150000000001</v>
-      </c>
-      <c r="S88">
-        <v>13.488149999999999</v>
-      </c>
-      <c r="T88">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U88">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V88">
-        <v>452.81500000000023</v>
-      </c>
-      <c r="W88">
-        <v>4.528150000000001</v>
-      </c>
-      <c r="X88">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y88">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z88">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA88">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>100</v>
-      </c>
-      <c r="B89" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89">
-        <v>0.09</v>
-      </c>
-      <c r="D89">
-        <v>8</v>
-      </c>
-      <c r="E89">
-        <v>981.16</v>
-      </c>
-      <c r="F89">
-        <v>979.83825000000002</v>
-      </c>
-      <c r="G89">
-        <v>98</v>
-      </c>
-      <c r="H89">
-        <v>981.16</v>
-      </c>
-      <c r="I89">
-        <v>9.8116000000000003</v>
-      </c>
-      <c r="J89">
-        <v>300</v>
-      </c>
-      <c r="K89">
-        <v>3</v>
-      </c>
-      <c r="L89">
-        <v>52.16</v>
-      </c>
-      <c r="M89">
-        <v>0.52159999999999995</v>
-      </c>
-      <c r="N89">
-        <v>0.65810000000000002</v>
-      </c>
-      <c r="O89">
-        <v>-0.18944</v>
-      </c>
-      <c r="P89">
-        <v>-3.4200000000000001E-2</v>
-      </c>
-      <c r="Q89">
-        <v>979.83799999999997</v>
-      </c>
-      <c r="R89">
-        <v>1390.49</v>
-      </c>
-      <c r="S89">
-        <v>13.9049</v>
-      </c>
-      <c r="T89">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U89">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V89">
-        <v>494.48999999999978</v>
-      </c>
-      <c r="W89">
-        <v>4.9448999999999979</v>
-      </c>
-      <c r="X89">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y89">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z89">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA89">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>100</v>
-      </c>
-      <c r="B90" t="s">
-        <v>27</v>
-      </c>
-      <c r="C90">
-        <v>0.09</v>
-      </c>
-      <c r="D90">
-        <v>9</v>
-      </c>
-      <c r="E90">
-        <v>988.34</v>
-      </c>
-      <c r="F90">
-        <v>986.92505000000006</v>
-      </c>
-      <c r="G90">
-        <v>102</v>
-      </c>
-      <c r="H90">
-        <v>988.34</v>
-      </c>
-      <c r="I90">
-        <v>9.8834</v>
-      </c>
-      <c r="J90">
-        <v>285</v>
-      </c>
-      <c r="K90">
-        <v>2.85</v>
-      </c>
-      <c r="L90">
-        <v>53.34</v>
-      </c>
-      <c r="M90">
-        <v>0.53339999999999999</v>
-      </c>
-      <c r="N90">
-        <v>0.45604</v>
-      </c>
-      <c r="O90">
-        <v>-0.18944</v>
-      </c>
-      <c r="P90">
-        <v>-4.4229999999999998E-2</v>
-      </c>
-      <c r="Q90">
-        <v>986.92499999999995</v>
-      </c>
-      <c r="R90">
-        <v>1406.22</v>
-      </c>
-      <c r="S90">
-        <v>14.062200000000001</v>
-      </c>
-      <c r="T90">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U90">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V90">
-        <v>510.22</v>
-      </c>
-      <c r="W90">
-        <v>5.1021999999999998</v>
-      </c>
-      <c r="X90">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y90">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z90">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA90">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>100</v>
-      </c>
-      <c r="B91" t="s">
-        <v>27</v>
-      </c>
-      <c r="C91">
-        <v>0.09</v>
-      </c>
-      <c r="D91">
-        <v>10</v>
-      </c>
-      <c r="E91">
-        <v>993.81</v>
-      </c>
-      <c r="F91">
-        <v>992.74442999999997</v>
-      </c>
-      <c r="G91">
-        <v>104</v>
-      </c>
-      <c r="H91">
-        <v>993.81</v>
-      </c>
-      <c r="I91">
-        <v>9.9381000000000004</v>
-      </c>
-      <c r="J91">
-        <v>277</v>
-      </c>
-      <c r="K91">
-        <v>2.77</v>
-      </c>
-      <c r="L91">
-        <v>51.81</v>
-      </c>
-      <c r="M91">
-        <v>0.5181</v>
-      </c>
-      <c r="N91">
-        <v>0.45604</v>
-      </c>
-      <c r="O91">
-        <v>-0.18944</v>
-      </c>
-      <c r="P91">
-        <v>-1.14E-2</v>
-      </c>
-      <c r="Q91">
-        <v>992.74400000000003</v>
-      </c>
-      <c r="R91">
-        <v>1420.174999999999</v>
-      </c>
-      <c r="S91">
-        <v>14.201750000000001</v>
-      </c>
-      <c r="T91">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U91">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V91">
-        <v>524.17499999999961</v>
-      </c>
-      <c r="W91">
-        <v>5.2417499999999952</v>
-      </c>
-      <c r="X91">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y91">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z91">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA91">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>100</v>
-      </c>
-      <c r="B92" t="s">
-        <v>27</v>
-      </c>
-      <c r="C92">
-        <v>0.1</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92">
-        <v>904.3</v>
-      </c>
-      <c r="F92">
-        <v>904.09333000000004</v>
-      </c>
-      <c r="G92">
-        <v>70</v>
-      </c>
-      <c r="H92">
-        <v>904.3</v>
-      </c>
-      <c r="I92">
-        <v>9.0429999999999993</v>
-      </c>
-      <c r="J92">
-        <v>559</v>
-      </c>
-      <c r="K92">
-        <v>5.59</v>
-      </c>
-      <c r="L92">
-        <v>6.3</v>
-      </c>
-      <c r="M92">
-        <v>6.3E-2</v>
-      </c>
-      <c r="N92">
-        <v>1.056E-2</v>
-      </c>
-      <c r="O92">
-        <v>-0.37857000000000002</v>
-      </c>
-      <c r="P92">
-        <v>-0.22359000000000001</v>
-      </c>
-      <c r="Q92">
-        <v>904.09299999999996</v>
-      </c>
-      <c r="R92">
-        <v>966.51111111111095</v>
-      </c>
-      <c r="S92">
-        <v>9.6651111111111092</v>
-      </c>
-      <c r="T92">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U92">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V92">
-        <v>70.511111111111049</v>
-      </c>
-      <c r="W92">
-        <v>0.70511111111111058</v>
-      </c>
-      <c r="X92">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y92">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z92">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA92">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>100</v>
-      </c>
-      <c r="B93" t="s">
-        <v>27</v>
-      </c>
-      <c r="C93">
-        <v>0.1</v>
-      </c>
-      <c r="D93">
-        <v>3</v>
-      </c>
-      <c r="E93">
-        <v>915.7</v>
-      </c>
-      <c r="F93">
-        <v>915.23275000000001</v>
-      </c>
-      <c r="G93">
-        <v>92</v>
-      </c>
-      <c r="H93">
-        <v>915.7</v>
-      </c>
-      <c r="I93">
-        <v>9.157</v>
-      </c>
-      <c r="J93">
-        <v>413</v>
-      </c>
-      <c r="K93">
-        <v>4.13</v>
-      </c>
-      <c r="L93">
-        <v>14.7</v>
-      </c>
-      <c r="M93">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="N93">
-        <v>0.15476000000000001</v>
-      </c>
-      <c r="O93">
-        <v>-0.29221000000000003</v>
-      </c>
-      <c r="P93">
-        <v>-0.12695999999999999</v>
-      </c>
-      <c r="Q93">
-        <v>915.23299999999995</v>
-      </c>
-      <c r="R93">
-        <v>1177.0277777777781</v>
-      </c>
-      <c r="S93">
-        <v>11.77027777777778</v>
-      </c>
-      <c r="T93">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U93">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V93">
-        <v>281.0277777777776</v>
-      </c>
-      <c r="W93">
-        <v>2.8102777777777761</v>
-      </c>
-      <c r="X93">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y93">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z93">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA93">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>100</v>
-      </c>
-      <c r="B94" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94">
-        <v>0.1</v>
-      </c>
-      <c r="D94">
-        <v>4</v>
-      </c>
-      <c r="E94">
-        <v>931.7</v>
-      </c>
-      <c r="F94">
-        <v>931.11258999999995</v>
-      </c>
-      <c r="G94">
-        <v>112</v>
-      </c>
-      <c r="H94">
-        <v>931.7</v>
-      </c>
-      <c r="I94">
-        <v>9.3170000000000002</v>
-      </c>
-      <c r="J94">
-        <v>355</v>
-      </c>
-      <c r="K94">
-        <v>3.55</v>
-      </c>
-      <c r="L94">
-        <v>21.7</v>
-      </c>
-      <c r="M94">
-        <v>0.217</v>
-      </c>
-      <c r="N94">
-        <v>0.38961000000000001</v>
-      </c>
-      <c r="O94">
-        <v>-0.18944</v>
-      </c>
-      <c r="P94">
-        <v>-5.9409999999999998E-2</v>
-      </c>
-      <c r="Q94">
-        <v>931.11300000000006</v>
-      </c>
-      <c r="R94">
-        <v>1295.1444444444451</v>
-      </c>
-      <c r="S94">
-        <v>12.95144444444445</v>
-      </c>
-      <c r="T94">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U94">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V94">
-        <v>399.14444444444479</v>
-      </c>
-      <c r="W94">
-        <v>3.9914444444444488</v>
-      </c>
-      <c r="X94">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y94">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z94">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA94">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>100</v>
-      </c>
-      <c r="B95" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95">
-        <v>0.1</v>
-      </c>
-      <c r="D95">
-        <v>5</v>
-      </c>
-      <c r="E95">
-        <v>942</v>
-      </c>
-      <c r="F95">
-        <v>941.29611</v>
-      </c>
-      <c r="G95">
-        <v>104</v>
-      </c>
-      <c r="H95">
-        <v>942</v>
-      </c>
-      <c r="I95">
-        <v>9.42</v>
-      </c>
-      <c r="J95">
-        <v>321</v>
-      </c>
-      <c r="K95">
-        <v>3.21</v>
-      </c>
-      <c r="L95">
-        <v>25</v>
-      </c>
-      <c r="M95">
-        <v>0.25</v>
-      </c>
-      <c r="N95">
-        <v>0.45604</v>
-      </c>
-      <c r="O95">
-        <v>-0.18944</v>
-      </c>
-      <c r="P95">
-        <v>-7.1179999999999993E-2</v>
-      </c>
-      <c r="Q95">
-        <v>941.29600000000005</v>
-      </c>
-      <c r="R95">
-        <v>1333.3222222222221</v>
-      </c>
-      <c r="S95">
-        <v>13.33322222222222</v>
-      </c>
-      <c r="T95">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U95">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V95">
-        <v>437.32222222222191</v>
-      </c>
-      <c r="W95">
-        <v>4.3732222222222186</v>
-      </c>
-      <c r="X95">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y95">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z95">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA95">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>100</v>
-      </c>
-      <c r="B96" t="s">
-        <v>27</v>
-      </c>
-      <c r="C96">
-        <v>0.1</v>
-      </c>
-      <c r="D96">
-        <v>6</v>
-      </c>
-      <c r="E96">
-        <v>952.29998999999998</v>
-      </c>
-      <c r="F96">
-        <v>951.51716999999996</v>
-      </c>
-      <c r="G96">
-        <v>137</v>
-      </c>
-      <c r="H96">
-        <v>952.29998999999998</v>
-      </c>
-      <c r="I96">
-        <v>9.5229999999999997</v>
-      </c>
-      <c r="J96">
-        <v>293</v>
-      </c>
-      <c r="K96">
-        <v>2.93</v>
-      </c>
-      <c r="L96">
-        <v>32.299990000000001</v>
-      </c>
-      <c r="M96">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="N96">
-        <v>0.45604</v>
-      </c>
-      <c r="O96">
-        <v>-0.18944</v>
-      </c>
-      <c r="P96">
-        <v>-6.6479999999999997E-2</v>
-      </c>
-      <c r="Q96">
-        <v>951.51700000000005</v>
-      </c>
-      <c r="R96">
-        <v>1352.477777777777</v>
-      </c>
-      <c r="S96">
-        <v>13.52477777777777</v>
-      </c>
-      <c r="T96">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U96">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V96">
-        <v>456.47777777777742</v>
-      </c>
-      <c r="W96">
-        <v>4.564777777777774</v>
-      </c>
-      <c r="X96">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y96">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z96">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA96">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>100</v>
-      </c>
-      <c r="B97" t="s">
-        <v>27</v>
-      </c>
-      <c r="C97">
-        <v>0.1</v>
-      </c>
-      <c r="D97">
-        <v>7</v>
-      </c>
-      <c r="E97">
-        <v>962.9</v>
-      </c>
-      <c r="F97">
-        <v>961.96921999999995</v>
-      </c>
-      <c r="G97">
-        <v>100</v>
-      </c>
-      <c r="H97">
-        <v>962.9</v>
-      </c>
-      <c r="I97">
-        <v>9.6289999999999996</v>
-      </c>
-      <c r="J97">
-        <v>308</v>
-      </c>
-      <c r="K97">
-        <v>3.08</v>
-      </c>
-      <c r="L97">
-        <v>34.9</v>
-      </c>
-      <c r="M97">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="N97">
-        <v>0.45604</v>
-      </c>
-      <c r="O97">
-        <v>-0.17857000000000001</v>
-      </c>
-      <c r="P97">
-        <v>-1.4200000000000001E-2</v>
-      </c>
-      <c r="Q97">
-        <v>961.96900000000005</v>
-      </c>
-      <c r="R97">
-        <v>1399.1277777777771</v>
-      </c>
-      <c r="S97">
-        <v>13.991277777777769</v>
-      </c>
-      <c r="T97">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U97">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V97">
-        <v>503.12777777777688</v>
-      </c>
-      <c r="W97">
-        <v>5.0312777777777704</v>
-      </c>
-      <c r="X97">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y97">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z97">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA97">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>100</v>
-      </c>
-      <c r="B98" t="s">
-        <v>27</v>
-      </c>
-      <c r="C98">
-        <v>0.1</v>
-      </c>
-      <c r="D98">
-        <v>8</v>
-      </c>
-      <c r="E98">
-        <v>987.7</v>
-      </c>
-      <c r="F98">
-        <v>986.61153999999999</v>
-      </c>
-      <c r="G98">
-        <v>92</v>
-      </c>
-      <c r="H98">
-        <v>987.7</v>
-      </c>
-      <c r="I98">
-        <v>9.8770000000000007</v>
-      </c>
-      <c r="J98">
-        <v>289</v>
-      </c>
-      <c r="K98">
-        <v>2.89</v>
-      </c>
-      <c r="L98">
-        <v>49.7</v>
-      </c>
-      <c r="M98">
-        <v>0.497</v>
-      </c>
-      <c r="N98">
-        <v>0.45604</v>
-      </c>
-      <c r="O98">
-        <v>-0.18944</v>
-      </c>
-      <c r="P98">
-        <v>-4.6519999999999999E-2</v>
-      </c>
-      <c r="Q98">
-        <v>986.61199999999997</v>
-      </c>
-      <c r="R98">
-        <v>1445.4333333333329</v>
-      </c>
-      <c r="S98">
-        <v>14.454333333333331</v>
-      </c>
-      <c r="T98">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U98">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V98">
-        <v>549.43333333333271</v>
-      </c>
-      <c r="W98">
-        <v>5.4943333333333264</v>
-      </c>
-      <c r="X98">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y98">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z98">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA98">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>100</v>
-      </c>
-      <c r="B99" t="s">
-        <v>27</v>
-      </c>
-      <c r="C99">
-        <v>0.1</v>
-      </c>
-      <c r="D99">
-        <v>9</v>
-      </c>
-      <c r="E99">
-        <v>994.8</v>
-      </c>
-      <c r="F99">
-        <v>993.25111000000004</v>
-      </c>
-      <c r="G99">
-        <v>110</v>
-      </c>
-      <c r="H99">
-        <v>994.8</v>
-      </c>
-      <c r="I99">
-        <v>9.9480000000000004</v>
-      </c>
-      <c r="J99">
-        <v>278</v>
-      </c>
-      <c r="K99">
-        <v>2.78</v>
-      </c>
-      <c r="L99">
-        <v>51.8</v>
-      </c>
-      <c r="M99">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="N99">
-        <v>0.45604</v>
-      </c>
-      <c r="O99">
-        <v>-0.18944</v>
-      </c>
-      <c r="P99">
-        <v>-5.2290000000000003E-2</v>
-      </c>
-      <c r="Q99">
-        <v>993.25099999999998</v>
-      </c>
-      <c r="R99">
-        <v>1462.911111111111</v>
-      </c>
-      <c r="S99">
-        <v>14.62911111111111</v>
-      </c>
-      <c r="T99">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U99">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V99">
-        <v>566.91111111111104</v>
-      </c>
-      <c r="W99">
-        <v>5.6691111111111114</v>
-      </c>
-      <c r="X99">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y99">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z99">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA99">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>27</v>
-      </c>
-      <c r="C100">
-        <v>0.1</v>
-      </c>
-      <c r="D100">
-        <v>10</v>
-      </c>
-      <c r="E100">
-        <v>1000.8</v>
-      </c>
-      <c r="F100">
-        <v>999.88409999999999</v>
-      </c>
-      <c r="G100">
-        <v>95</v>
-      </c>
-      <c r="H100">
-        <v>1000.8</v>
-      </c>
-      <c r="I100">
-        <v>10.007999999999999</v>
-      </c>
-      <c r="J100">
-        <v>269</v>
-      </c>
-      <c r="K100">
-        <v>2.69</v>
-      </c>
-      <c r="L100">
-        <v>61.8</v>
-      </c>
-      <c r="M100">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="N100">
-        <v>0.65810000000000002</v>
-      </c>
-      <c r="O100">
-        <v>-0.18944</v>
-      </c>
-      <c r="P100">
-        <v>-1.6119999999999999E-2</v>
-      </c>
-      <c r="Q100">
-        <v>999.88400000000001</v>
-      </c>
-      <c r="R100">
-        <v>1478.4166666666661</v>
-      </c>
-      <c r="S100">
-        <v>14.78416666666666</v>
-      </c>
-      <c r="T100">
-        <v>702.22222222222217</v>
-      </c>
-      <c r="U100">
-        <v>7.0222222222222221</v>
-      </c>
-      <c r="V100">
-        <v>582.41666666666606</v>
-      </c>
-      <c r="W100">
-        <v>5.8241666666666596</v>
-      </c>
-      <c r="X100">
-        <v>5.4039999999999998E-2</v>
-      </c>
-      <c r="Y100">
-        <v>-0.42857000000000001</v>
-      </c>
-      <c r="Z100">
-        <v>-0.18817</v>
-      </c>
-      <c r="AA100">
         <v>896</v>
       </c>
     </row>

--- a/Agg/data/data.xlsx
+++ b/Agg/data/data.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Doktor\Dissertation\Paper 1\Code\col\columngeneration\Agg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360FDD72-2B99-44EB-80C8-318A2C109257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06367E58-C260-4496-8605-A590BE2343EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="2330" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="29">
   <si>
     <t>I</t>
   </si>
@@ -105,12 +118,15 @@
   <si>
     <t>Medium</t>
   </si>
+  <si>
+    <t>702.2222222,7.022222222</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +141,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,11 +184,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,15 +498,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2">
         <v>100</v>
       </c>
@@ -590,11 +621,12 @@
       <c r="I2">
         <v>8.9600000000000009</v>
       </c>
-      <c r="J2">
-        <v>725</v>
+      <c r="J2" s="4">
+        <v>702.22222220000003</v>
       </c>
       <c r="K2">
-        <v>7.25</v>
+        <f>J2/100</f>
+        <v>7.0222222219999999</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -645,7 +677,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>100</v>
       </c>
@@ -673,11 +705,12 @@
       <c r="I3">
         <v>8.9600000000000009</v>
       </c>
-      <c r="J3">
-        <v>725</v>
+      <c r="J3" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K3">
-        <v>7.25</v>
+        <f t="shared" ref="K3:K7" si="0">J3/100</f>
+        <v>7.0222222219999999</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -728,7 +761,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>100</v>
       </c>
@@ -756,11 +789,12 @@
       <c r="I4">
         <v>8.9600000000000009</v>
       </c>
-      <c r="J4">
-        <v>725</v>
+      <c r="J4" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K4">
-        <v>7.25</v>
+        <f t="shared" si="0"/>
+        <v>7.0222222219999999</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -811,7 +845,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>100</v>
       </c>
@@ -839,11 +873,12 @@
       <c r="I5">
         <v>8.9600000000000009</v>
       </c>
-      <c r="J5">
-        <v>725</v>
+      <c r="J5" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K5">
-        <v>7.25</v>
+        <f t="shared" si="0"/>
+        <v>7.0222222219999999</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -894,7 +929,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>100</v>
       </c>
@@ -922,11 +957,12 @@
       <c r="I6">
         <v>8.9600000000000009</v>
       </c>
-      <c r="J6">
-        <v>725</v>
+      <c r="J6" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K6">
-        <v>7.25</v>
+        <f t="shared" si="0"/>
+        <v>7.0222222219999999</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -977,7 +1013,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1005,11 +1041,12 @@
       <c r="I7">
         <v>8.9600000000000009</v>
       </c>
-      <c r="J7">
-        <v>725</v>
+      <c r="J7" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K7">
-        <v>7.25</v>
+        <f t="shared" si="0"/>
+        <v>7.0222222219999999</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1060,7 +1097,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8">
         <v>100</v>
       </c>
@@ -1088,8 +1125,8 @@
       <c r="I8">
         <v>8.9812999999999992</v>
       </c>
-      <c r="J8">
-        <v>421</v>
+      <c r="J8" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K8">
         <v>4.21</v>
@@ -1143,7 +1180,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9">
         <v>100</v>
       </c>
@@ -1171,8 +1208,8 @@
       <c r="I9">
         <v>8.9995999999999992</v>
       </c>
-      <c r="J9">
-        <v>400</v>
+      <c r="J9" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1226,7 +1263,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10">
         <v>100</v>
       </c>
@@ -1254,8 +1291,8 @@
       <c r="I10">
         <v>9.0117999999999991</v>
       </c>
-      <c r="J10">
-        <v>364</v>
+      <c r="J10" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K10">
         <v>3.64</v>
@@ -1309,7 +1346,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11">
         <v>100</v>
       </c>
@@ -1337,8 +1374,8 @@
       <c r="I11">
         <v>9.0254999999999992</v>
       </c>
-      <c r="J11">
-        <v>361</v>
+      <c r="J11" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K11">
         <v>3.61</v>
@@ -1392,7 +1429,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12">
         <v>100</v>
       </c>
@@ -1420,8 +1457,8 @@
       <c r="I12">
         <v>9.0428999999999995</v>
       </c>
-      <c r="J12">
-        <v>375</v>
+      <c r="J12" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K12">
         <v>3.75</v>
@@ -1475,7 +1512,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13">
         <v>100</v>
       </c>
@@ -1503,8 +1540,8 @@
       <c r="I13">
         <v>9.0762999999999998</v>
       </c>
-      <c r="J13">
-        <v>368</v>
+      <c r="J13" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K13">
         <v>3.68</v>
@@ -1558,7 +1595,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14">
         <v>100</v>
       </c>
@@ -1586,8 +1623,8 @@
       <c r="I14">
         <v>9.0025999999999993</v>
       </c>
-      <c r="J14">
-        <v>417</v>
+      <c r="J14" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K14">
         <v>4.17</v>
@@ -1641,7 +1678,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15">
         <v>100</v>
       </c>
@@ -1669,8 +1706,8 @@
       <c r="I15">
         <v>9.0380000000000003</v>
       </c>
-      <c r="J15">
-        <v>387</v>
+      <c r="J15" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K15">
         <v>3.87</v>
@@ -1723,8 +1760,11 @@
       <c r="AA15">
         <v>896</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16">
         <v>100</v>
       </c>
@@ -1752,8 +1792,8 @@
       <c r="I16">
         <v>9.0633999999999997</v>
       </c>
-      <c r="J16">
-        <v>365</v>
+      <c r="J16" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K16">
         <v>3.65</v>
@@ -1807,7 +1847,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>100</v>
       </c>
@@ -1835,8 +1875,8 @@
       <c r="I17">
         <v>9.0912000000000006</v>
       </c>
-      <c r="J17">
-        <v>361</v>
+      <c r="J17" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K17">
         <v>3.61</v>
@@ -1890,7 +1930,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>100</v>
       </c>
@@ -1918,8 +1958,8 @@
       <c r="I18">
         <v>9.1256000000000004</v>
       </c>
-      <c r="J18">
-        <v>371</v>
+      <c r="J18" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K18">
         <v>3.71</v>
@@ -1973,7 +2013,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>100</v>
       </c>
@@ -2001,8 +2041,8 @@
       <c r="I19">
         <v>9.1920000000000002</v>
       </c>
-      <c r="J19">
-        <v>365</v>
+      <c r="J19" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K19">
         <v>3.65</v>
@@ -2056,7 +2096,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>100</v>
       </c>
@@ -2084,8 +2124,8 @@
       <c r="I20">
         <v>9.0229999999999997</v>
       </c>
-      <c r="J20">
-        <v>401</v>
+      <c r="J20" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K20">
         <v>4.01</v>
@@ -2139,7 +2179,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>100</v>
       </c>
@@ -2167,8 +2207,8 @@
       <c r="I21">
         <v>9.0757999999999992</v>
       </c>
-      <c r="J21">
-        <v>391</v>
+      <c r="J21" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K21">
         <v>3.91</v>
@@ -2222,7 +2262,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>100</v>
       </c>
@@ -2250,8 +2290,8 @@
       <c r="I22">
         <v>9.1144999999999996</v>
       </c>
-      <c r="J22">
-        <v>363</v>
+      <c r="J22" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K22">
         <v>3.63</v>
@@ -2305,7 +2345,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>100</v>
       </c>
@@ -2333,8 +2373,8 @@
       <c r="I23">
         <v>9.1562000000000001</v>
       </c>
-      <c r="J23">
-        <v>360</v>
+      <c r="J23" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K23">
         <v>3.6</v>
@@ -2388,7 +2428,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>100</v>
       </c>
@@ -2416,8 +2456,8 @@
       <c r="I24">
         <v>9.2060999999999993</v>
       </c>
-      <c r="J24">
-        <v>370</v>
+      <c r="J24" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K24">
         <v>3.7</v>
@@ -2471,7 +2511,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>100</v>
       </c>
@@ -2499,8 +2539,8 @@
       <c r="I25">
         <v>9.3021999999999991</v>
       </c>
-      <c r="J25">
-        <v>360</v>
+      <c r="J25" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K25">
         <v>3.6</v>
@@ -2554,7 +2594,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>100</v>
       </c>
@@ -2582,8 +2622,8 @@
       <c r="I26">
         <v>9.0443999999999996</v>
       </c>
-      <c r="J26">
-        <v>430</v>
+      <c r="J26" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K26">
         <v>4.3</v>
@@ -2637,7 +2677,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>100</v>
       </c>
@@ -2665,8 +2705,8 @@
       <c r="I27">
         <v>9.1143999999999998</v>
       </c>
-      <c r="J27">
-        <v>398</v>
+      <c r="J27" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K27">
         <v>3.98</v>
@@ -2720,7 +2760,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>100</v>
       </c>
@@ -2748,8 +2788,8 @@
       <c r="I28">
         <v>9.1671999999999993</v>
       </c>
-      <c r="J28">
-        <v>366</v>
+      <c r="J28" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K28">
         <v>3.66</v>
@@ -2803,7 +2843,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>100</v>
       </c>
@@ -2831,8 +2871,8 @@
       <c r="I29">
         <v>9.2219999999999995</v>
       </c>
-      <c r="J29">
-        <v>359</v>
+      <c r="J29" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K29">
         <v>3.59</v>
@@ -2886,7 +2926,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>100</v>
       </c>
@@ -2914,8 +2954,8 @@
       <c r="I30">
         <v>9.2859999999999996</v>
       </c>
-      <c r="J30">
-        <v>367</v>
+      <c r="J30" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K30">
         <v>3.67</v>
@@ -2969,7 +3009,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>100</v>
       </c>
@@ -2997,8 +3037,8 @@
       <c r="I31">
         <v>9.4087999999999994</v>
       </c>
-      <c r="J31">
-        <v>360</v>
+      <c r="J31" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K31">
         <v>3.6</v>
@@ -3052,7 +3092,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>100</v>
       </c>
@@ -3080,8 +3120,8 @@
       <c r="I32">
         <v>9.0640000000000001</v>
       </c>
-      <c r="J32">
-        <v>402</v>
+      <c r="J32" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K32">
         <v>4.0199999999999996</v>
@@ -3135,7 +3175,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>100</v>
       </c>
@@ -3163,8 +3203,8 @@
       <c r="I33">
         <v>9.1519999999999992</v>
       </c>
-      <c r="J33">
-        <v>390</v>
+      <c r="J33" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K33">
         <v>3.9</v>
@@ -3218,7 +3258,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>100</v>
       </c>
@@ -3246,8 +3286,8 @@
       <c r="I34">
         <v>9.2189999999999994</v>
       </c>
-      <c r="J34">
-        <v>362</v>
+      <c r="J34" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K34">
         <v>3.62</v>
@@ -3301,7 +3341,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>100</v>
       </c>
@@ -3329,8 +3369,8 @@
       <c r="I35">
         <v>9.2835000000000001</v>
       </c>
-      <c r="J35">
-        <v>354</v>
+      <c r="J35" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K35">
         <v>3.54</v>
@@ -3384,7 +3424,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>100</v>
       </c>
@@ -3412,8 +3452,8 @@
       <c r="I36">
         <v>9.359</v>
       </c>
-      <c r="J36">
-        <v>365</v>
+      <c r="J36" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K36">
         <v>3.65</v>
@@ -3467,7 +3507,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>100</v>
       </c>
@@ -3495,8 +3535,8 @@
       <c r="I37">
         <v>9.4969999999999999</v>
       </c>
-      <c r="J37">
-        <v>320</v>
+      <c r="J37" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K37">
         <v>3.2</v>
@@ -3550,7 +3590,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>100</v>
       </c>
@@ -3578,8 +3618,8 @@
       <c r="I38">
         <v>9.0828000000000007</v>
       </c>
-      <c r="J38">
-        <v>414</v>
+      <c r="J38" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K38">
         <v>4.1399999999999997</v>
@@ -3633,7 +3673,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>100</v>
       </c>
@@ -3661,8 +3701,8 @@
       <c r="I39">
         <v>9.1875999999999998</v>
       </c>
-      <c r="J39">
-        <v>390</v>
+      <c r="J39" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K39">
         <v>3.9</v>
@@ -3716,7 +3756,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>100</v>
       </c>
@@ -3744,8 +3784,8 @@
       <c r="I40">
         <v>9.2674000000000003</v>
       </c>
-      <c r="J40">
-        <v>352</v>
+      <c r="J40" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K40">
         <v>3.52</v>
@@ -3799,7 +3839,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>100</v>
       </c>
@@ -3827,8 +3867,8 @@
       <c r="I41">
         <v>9.3412000000000006</v>
       </c>
-      <c r="J41">
-        <v>346</v>
+      <c r="J41" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K41">
         <v>3.46</v>
@@ -3882,7 +3922,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>100</v>
       </c>
@@ -3910,8 +3950,8 @@
       <c r="I42">
         <v>9.4261999999999997</v>
       </c>
-      <c r="J42">
-        <v>338</v>
+      <c r="J42" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K42">
         <v>3.38</v>
@@ -3965,7 +4005,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>100</v>
       </c>
@@ -3993,8 +4033,8 @@
       <c r="I43">
         <v>9.5785999999999998</v>
       </c>
-      <c r="J43">
-        <v>318</v>
+      <c r="J43" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K43">
         <v>3.18</v>
@@ -4048,7 +4088,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>100</v>
       </c>
@@ -4076,8 +4116,8 @@
       <c r="I44">
         <v>9.1001999999999992</v>
       </c>
-      <c r="J44">
-        <v>413</v>
+      <c r="J44" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K44">
         <v>4.13</v>
@@ -4131,7 +4171,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>100</v>
       </c>
@@ -4159,8 +4199,8 @@
       <c r="I45">
         <v>9.2217000000000002</v>
       </c>
-      <c r="J45">
-        <v>392</v>
+      <c r="J45" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K45">
         <v>3.92</v>
@@ -4214,7 +4254,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>100</v>
       </c>
@@ -4242,8 +4282,8 @@
       <c r="I46">
         <v>9.3111999999999995</v>
       </c>
-      <c r="J46">
-        <v>347</v>
+      <c r="J46" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K46">
         <v>3.47</v>
@@ -4297,7 +4337,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>100</v>
       </c>
@@ -4325,8 +4365,8 @@
       <c r="I47">
         <v>9.3947000000000003</v>
       </c>
-      <c r="J47">
-        <v>337</v>
+      <c r="J47" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K47">
         <v>3.37</v>
@@ -4380,7 +4420,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>100</v>
       </c>
@@ -4408,8 +4448,8 @@
       <c r="I48">
         <v>9.4815000000000005</v>
       </c>
-      <c r="J48">
-        <v>331</v>
+      <c r="J48" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K48">
         <v>3.31</v>
@@ -4463,7 +4503,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>100</v>
       </c>
@@ -4491,8 +4531,8 @@
       <c r="I49">
         <v>9.6593</v>
       </c>
-      <c r="J49">
-        <v>318</v>
+      <c r="J49" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K49">
         <v>3.18</v>
@@ -4546,7 +4586,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>100</v>
       </c>
@@ -4574,8 +4614,8 @@
       <c r="I50">
         <v>9.1199999999999992</v>
       </c>
-      <c r="J50">
-        <v>421</v>
+      <c r="J50" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K50">
         <v>4.21</v>
@@ -4629,7 +4669,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>100</v>
       </c>
@@ -4657,8 +4697,8 @@
       <c r="I51">
         <v>9.2563999999999993</v>
       </c>
-      <c r="J51">
-        <v>374</v>
+      <c r="J51" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K51">
         <v>3.74</v>
@@ -4712,7 +4752,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>100</v>
       </c>
@@ -4740,8 +4780,8 @@
       <c r="I52">
         <v>9.3536000000000001</v>
       </c>
-      <c r="J52">
-        <v>339</v>
+      <c r="J52" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K52">
         <v>3.39</v>
@@ -4795,7 +4835,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>100</v>
       </c>
@@ -4823,8 +4863,8 @@
       <c r="I53">
         <v>9.4440000000000008</v>
       </c>
-      <c r="J53">
-        <v>335</v>
+      <c r="J53" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K53">
         <v>3.35</v>
@@ -4878,7 +4918,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>100</v>
       </c>
@@ -4906,8 +4946,8 @@
       <c r="I54">
         <v>9.5364000000000004</v>
       </c>
-      <c r="J54">
-        <v>326</v>
+      <c r="J54" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K54">
         <v>3.26</v>
@@ -4961,7 +5001,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>100</v>
       </c>
@@ -4989,8 +5029,8 @@
       <c r="I55">
         <v>9.7344000000000008</v>
       </c>
-      <c r="J55">
-        <v>317</v>
+      <c r="J55" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K55">
         <v>3.17</v>
@@ -5044,7 +5084,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>100</v>
       </c>
@@ -5072,8 +5112,8 @@
       <c r="I56">
         <v>9.141</v>
       </c>
-      <c r="J56">
-        <v>436.00002000000001</v>
+      <c r="J56" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K56">
         <v>4.3600000000000003</v>
@@ -5127,7 +5167,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>100</v>
       </c>
@@ -5155,8 +5195,8 @@
       <c r="I57">
         <v>9.2888000000000002</v>
       </c>
-      <c r="J57">
-        <v>372</v>
+      <c r="J57" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K57">
         <v>3.72</v>
@@ -5210,7 +5250,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>100</v>
       </c>
@@ -5238,8 +5278,8 @@
       <c r="I58">
         <v>9.3902999999999999</v>
       </c>
-      <c r="J58">
-        <v>334</v>
+      <c r="J58" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K58">
         <v>3.34</v>
@@ -5293,7 +5333,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>100</v>
       </c>
@@ -5321,8 +5361,8 @@
       <c r="I59">
         <v>9.4906000000000006</v>
       </c>
-      <c r="J59">
-        <v>320</v>
+      <c r="J59" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K59">
         <v>3.2</v>
@@ -5376,7 +5416,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>100</v>
       </c>
@@ -5404,8 +5444,8 @@
       <c r="I60">
         <v>9.5868000000000002</v>
       </c>
-      <c r="J60">
-        <v>317</v>
+      <c r="J60" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K60">
         <v>3.17</v>
@@ -5459,7 +5499,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>100</v>
       </c>
@@ -5487,8 +5527,8 @@
       <c r="I61">
         <v>9.8116000000000003</v>
       </c>
-      <c r="J61">
-        <v>300</v>
+      <c r="J61" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -5542,7 +5582,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>100</v>
       </c>
@@ -5570,8 +5610,8 @@
       <c r="I62">
         <v>9.157</v>
       </c>
-      <c r="J62">
-        <v>413</v>
+      <c r="J62" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K62">
         <v>4.13</v>
@@ -5625,7 +5665,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>100</v>
       </c>
@@ -5653,8 +5693,8 @@
       <c r="I63">
         <v>9.3170000000000002</v>
       </c>
-      <c r="J63">
-        <v>355</v>
+      <c r="J63" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K63">
         <v>3.55</v>
@@ -5708,7 +5748,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>100</v>
       </c>
@@ -5736,8 +5776,8 @@
       <c r="I64">
         <v>9.42</v>
       </c>
-      <c r="J64">
-        <v>321</v>
+      <c r="J64" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K64">
         <v>3.21</v>
@@ -5791,7 +5831,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>100</v>
       </c>
@@ -5819,8 +5859,8 @@
       <c r="I65">
         <v>9.5229999999999997</v>
       </c>
-      <c r="J65">
-        <v>293</v>
+      <c r="J65" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K65">
         <v>2.93</v>
@@ -5874,7 +5914,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>100</v>
       </c>
@@ -5902,8 +5942,8 @@
       <c r="I66">
         <v>9.6289999999999996</v>
       </c>
-      <c r="J66">
-        <v>308</v>
+      <c r="J66" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K66">
         <v>3.08</v>
@@ -5957,7 +5997,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>100</v>
       </c>
@@ -5985,8 +6025,8 @@
       <c r="I67">
         <v>9.8770000000000007</v>
       </c>
-      <c r="J67">
-        <v>289</v>
+      <c r="J67" s="3">
+        <v>702.22222220000003</v>
       </c>
       <c r="K67">
         <v>2.89</v>
